--- a/DataStructuresProject3/District_map.xlsx
+++ b/DataStructuresProject3/District_map.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcus\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maura Elosegui\source\repos\539\DataStructuresProject3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74105D0B-F042-4C4B-97B3-051A9579C948}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD849BD-0939-471E-8CBB-06B3E2848543}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6915" yWindow="6300" windowWidth="18000" windowHeight="11055" xr2:uid="{B576BF06-D8E7-4931-8545-D57E9AAA9B99}"/>
+    <workbookView xWindow="96" yWindow="912" windowWidth="11268" windowHeight="10968" xr2:uid="{B576BF06-D8E7-4931-8545-D57E9AAA9B99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
   <si>
     <t>Number of Districts</t>
   </si>
@@ -51,9 +51,6 @@
     <t>% REP</t>
   </si>
   <si>
-    <t>% OTHER</t>
-  </si>
-  <si>
     <t>State</t>
   </si>
   <si>
@@ -67,6 +64,45 @@
   </si>
   <si>
     <t>True Turnout</t>
+  </si>
+  <si>
+    <t>Dem Senator</t>
+  </si>
+  <si>
+    <t>Rep Senator</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>Dem Rep</t>
+  </si>
+  <si>
+    <t>Rep Rep</t>
+  </si>
+  <si>
+    <t>Dina Titus</t>
+  </si>
+  <si>
+    <t>Joyce Bentley</t>
+  </si>
+  <si>
+    <t>Patricia Ackerman</t>
+  </si>
+  <si>
+    <t>Mark E. Amodei</t>
+  </si>
+  <si>
+    <t>Suzzanne Lee</t>
+  </si>
+  <si>
+    <t>Dan Rodimer</t>
+  </si>
+  <si>
+    <t>Steven A. Horsford</t>
+  </si>
+  <si>
+    <t>Jim Marchant</t>
   </si>
 </sst>
 </file>
@@ -428,87 +464,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADBEAA11-795E-4093-A04F-1DFE9E42F9C1}">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:AD3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="17" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="17" customWidth="1"/>
+    <col min="16" max="16" width="7.33203125" customWidth="1"/>
+    <col min="18" max="18" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="17" customWidth="1"/>
+    <col min="24" max="24" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="2">
-        <v>159544854</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="2">
+        <v>159544854</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2">
         <v>160000</v>
       </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="N2" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>3</v>
@@ -517,100 +563,135 @@
         <v>4</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="AD2" s="1"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <f>ROUNDDOWN(1407754/C1*E1,0)</f>
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <f>ROUNDDOWN(1407754/E1*G1,0)</f>
         <v>1411</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>4</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="E3">
-        <f>ROUNDDOWN((137868+74490+6190+4665)/C1*E1,0)</f>
+      <c r="G3">
+        <f>ROUNDDOWN((137868+74490+6190+4665)/E1*G1,0)</f>
         <v>223</v>
       </c>
-      <c r="F3">
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3">
         <v>0.61799999999999999</v>
       </c>
-      <c r="G3">
+      <c r="K3">
         <v>0.33400000000000002</v>
       </c>
-      <c r="H3">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="I3">
+      <c r="L3">
         <v>2</v>
       </c>
-      <c r="J3">
-        <f>ROUNDDOWN((216078+155780+10815)/C1*E1,0)</f>
+      <c r="M3">
+        <f>ROUNDDOWN((216078+155780+10815)/E1*G1,0)</f>
         <v>383</v>
       </c>
-      <c r="K3">
+      <c r="N3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3">
         <v>0.40699999999999997</v>
       </c>
-      <c r="L3">
+      <c r="Q3">
         <v>0.56499999999999995</v>
       </c>
-      <c r="M3">
-        <v>2.8299999999999999E-2</v>
-      </c>
-      <c r="N3">
+      <c r="R3">
         <v>3</v>
       </c>
-      <c r="O3">
-        <f>ROUNDDOWN((203421+190975+12315+10541)/C1*E1,0)</f>
+      <c r="S3">
+        <f>ROUNDDOWN((203421+190975+12315+10541)/E1*G1,0)</f>
         <v>418</v>
       </c>
-      <c r="P3">
+      <c r="T3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V3">
         <v>0.48799999999999999</v>
       </c>
-      <c r="Q3">
+      <c r="W3">
         <v>0.45800000000000002</v>
       </c>
-      <c r="R3">
-        <f>1-(P3+Q3)</f>
-        <v>5.4000000000000048E-2</v>
-      </c>
-      <c r="S3">
+      <c r="X3">
         <v>4</v>
       </c>
-      <c r="T3">
-        <f>B3-(O3+E3+J3)</f>
+      <c r="Y3">
+        <f>D3-(S3+G3+M3)</f>
         <v>387</v>
       </c>
-      <c r="U3">
+      <c r="Z3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB3">
         <v>0.50700000000000001</v>
       </c>
-      <c r="V3">
+      <c r="AC3">
         <v>0.45800000000000002</v>
-      </c>
-      <c r="W3">
-        <f>1-(U3+V3)</f>
-        <v>3.499999999999992E-2</v>
       </c>
     </row>
   </sheetData>

--- a/DataStructuresProject3/District_map.xlsx
+++ b/DataStructuresProject3/District_map.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maura Elosegui\source\repos\539\DataStructuresProject3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcus\source\repos\DataStructuresProject3\DataStructuresProject3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD849BD-0939-471E-8CBB-06B3E2848543}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42588BAC-0813-4CAD-B5C1-2CE68E024314}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="912" windowWidth="11268" windowHeight="10968" xr2:uid="{B576BF06-D8E7-4931-8545-D57E9AAA9B99}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B576BF06-D8E7-4931-8545-D57E9AAA9B99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
   <si>
     <t>Number of Districts</t>
   </si>
@@ -103,6 +103,30 @@
   </si>
   <si>
     <t>Jim Marchant</t>
+  </si>
+  <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>Paulette Jordan</t>
+  </si>
+  <si>
+    <t>Jim Risch</t>
+  </si>
+  <si>
+    <t>Rudy Soto</t>
+  </si>
+  <si>
+    <t>Russ Fulcher</t>
+  </si>
+  <si>
+    <t>C. Aaron Swisher</t>
+  </si>
+  <si>
+    <t>Mike Simpson</t>
+  </si>
+  <si>
+    <t>Electoral Votes</t>
   </si>
 </sst>
 </file>
@@ -146,10 +170,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,53 +489,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADBEAA11-795E-4093-A04F-1DFE9E42F9C1}">
-  <dimension ref="A1:AD3"/>
+  <dimension ref="A1:AE4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="17" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="17" customWidth="1"/>
-    <col min="16" max="16" width="7.33203125" customWidth="1"/>
-    <col min="18" max="18" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="17" customWidth="1"/>
-    <col min="24" max="24" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="17" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="17" customWidth="1"/>
+    <col min="17" max="17" width="7.28515625" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="17" customWidth="1"/>
+    <col min="25" max="25" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>159544854</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>160000</v>
       </c>
-      <c r="H1" s="2"/>
       <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -524,173 +550,251 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="3">
+        <f>ROUNDDOWN((875000/F1)*H1,0)</f>
+        <v>877</v>
+      </c>
+      <c r="E3" s="3">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <f>ROUNDDOWN(458569/F1*H1,0)</f>
+        <v>459</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="M3" s="3">
+        <v>2</v>
+      </c>
+      <c r="N3" s="3">
+        <f>ROUNDDOWN(391333/F1*H1,0)</f>
+        <v>392</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>0.317</v>
+      </c>
+      <c r="R3" s="3">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="1"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D3">
-        <f>ROUNDDOWN(1407754/E1*G1,0)</f>
+      <c r="D4">
+        <f>ROUNDDOWN((1407754/F1)*H1,0)</f>
         <v>1411</v>
       </c>
-      <c r="E3">
+      <c r="E4">
+        <v>11</v>
+      </c>
+      <c r="F4">
         <v>4</v>
       </c>
-      <c r="F3">
+      <c r="G4">
         <v>1</v>
       </c>
-      <c r="G3">
-        <f>ROUNDDOWN((137868+74490+6190+4665)/E1*G1,0)</f>
+      <c r="H4">
+        <f>ROUNDDOWN((137868+74490+6190+4665)/F1*H1,0)</f>
         <v>223</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I4" t="s">
         <v>15</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J4" t="s">
         <v>16</v>
       </c>
-      <c r="J3">
+      <c r="K4">
         <v>0.61799999999999999</v>
       </c>
-      <c r="K3">
+      <c r="L4">
         <v>0.33400000000000002</v>
       </c>
-      <c r="L3">
+      <c r="M4">
         <v>2</v>
       </c>
-      <c r="M3">
-        <f>ROUNDDOWN((216078+155780+10815)/E1*G1,0)</f>
+      <c r="N4">
+        <f>ROUNDDOWN((216078+155780+10815)/F1*H1,0)</f>
         <v>383</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O4" t="s">
         <v>17</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P4" t="s">
         <v>18</v>
       </c>
-      <c r="P3">
+      <c r="Q4">
         <v>0.40699999999999997</v>
       </c>
-      <c r="Q3">
+      <c r="R4">
         <v>0.56499999999999995</v>
       </c>
-      <c r="R3">
+      <c r="S4">
         <v>3</v>
       </c>
-      <c r="S3">
-        <f>ROUNDDOWN((203421+190975+12315+10541)/E1*G1,0)</f>
+      <c r="T4">
+        <f>ROUNDDOWN((203421+190975+12315+10541)/F1*H1,0)</f>
         <v>418</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U4" t="s">
         <v>19</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V4" t="s">
         <v>20</v>
       </c>
-      <c r="V3">
+      <c r="W4">
         <v>0.48799999999999999</v>
       </c>
-      <c r="W3">
+      <c r="X4">
         <v>0.45800000000000002</v>
       </c>
-      <c r="X3">
+      <c r="Y4">
         <v>4</v>
       </c>
-      <c r="Y3">
-        <f>D3-(S3+G3+M3)</f>
+      <c r="Z4">
+        <f>D4-(T4+H4+N4)</f>
         <v>387</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA4" t="s">
         <v>21</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB4" t="s">
         <v>22</v>
       </c>
-      <c r="AB3">
+      <c r="AC4">
         <v>0.50700000000000001</v>
       </c>
-      <c r="AC3">
+      <c r="AD4">
         <v>0.45800000000000002</v>
       </c>
     </row>

--- a/DataStructuresProject3/District_map.xlsx
+++ b/DataStructuresProject3/District_map.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcus\source\repos\DataStructuresProject3\DataStructuresProject3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\539\DataStructuresProject3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42588BAC-0813-4CAD-B5C1-2CE68E024314}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1603AC41-AC87-4C3A-AC1A-DB45E254028C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B576BF06-D8E7-4931-8545-D57E9AAA9B99}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B576BF06-D8E7-4931-8545-D57E9AAA9B99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
   <si>
     <t>Number of Districts</t>
   </si>
@@ -127,6 +127,18 @@
   </si>
   <si>
     <t>Electoral Votes</t>
+  </si>
+  <si>
+    <t>% DEM Sen</t>
+  </si>
+  <si>
+    <t>% REP Sen</t>
+  </si>
+  <si>
+    <t>% DEM Nat</t>
+  </si>
+  <si>
+    <t>% REP Nat</t>
   </si>
 </sst>
 </file>
@@ -489,35 +501,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADBEAA11-795E-4093-A04F-1DFE9E42F9C1}">
-  <dimension ref="A1:AE4"/>
+  <dimension ref="A1:AI28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="17" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="17" customWidth="1"/>
-    <col min="17" max="17" width="7.28515625" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="17" customWidth="1"/>
-    <col min="25" max="25" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="18.44140625" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="17" customWidth="1"/>
+    <col min="17" max="17" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="17" customWidth="1"/>
+    <col min="21" max="21" width="7.33203125" customWidth="1"/>
+    <col min="23" max="23" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="17" customWidth="1"/>
+    <col min="29" max="29" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -527,16 +540,20 @@
       <c r="F1" s="2">
         <v>159544854</v>
       </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2">
-        <v>160000</v>
-      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="2">
+        <v>160000</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -556,80 +573,92 @@
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AE2" s="1"/>
+      <c r="AI2" s="1"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
@@ -640,7 +669,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="3">
-        <f>ROUNDDOWN((875000/F1)*H1,0)</f>
+        <f>ROUNDDOWN((875000/F1)*L1,0)</f>
         <v>877</v>
       </c>
       <c r="E3" s="3">
@@ -650,47 +679,55 @@
         <v>2</v>
       </c>
       <c r="G3" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="K3" s="3">
         <v>1</v>
       </c>
-      <c r="H3" s="3">
-        <f>ROUNDDOWN(458569/F1*H1,0)</f>
+      <c r="L3" s="3">
+        <f>ROUNDDOWN(458569/F1*L1,0)</f>
         <v>459</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="3">
+      <c r="O3" s="3">
         <v>0.28699999999999998</v>
       </c>
-      <c r="L3" s="3">
+      <c r="P3" s="3">
         <v>0.67800000000000005</v>
       </c>
-      <c r="M3" s="3">
+      <c r="Q3" s="3">
         <v>2</v>
       </c>
-      <c r="N3" s="3">
-        <f>ROUNDDOWN(391333/F1*H1,0)</f>
+      <c r="R3" s="3">
+        <f>ROUNDDOWN(391333/F1*L1,0)</f>
         <v>392</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="U3" s="3">
         <v>0.317</v>
       </c>
-      <c r="R3" s="3">
+      <c r="V3" s="3">
         <v>0.64100000000000001</v>
       </c>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
@@ -699,9 +736,13 @@
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
       <c r="AD3" s="3"/>
-      <c r="AE3" s="1"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="1"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -712,7 +753,7 @@
         <v>12</v>
       </c>
       <c r="D4">
-        <f>ROUNDDOWN((1407754/F1)*H1,0)</f>
+        <f>ROUNDDOWN((1407754/F1)*L1,0)</f>
         <v>1411</v>
       </c>
       <c r="E4">
@@ -722,81 +763,102 @@
         <v>4</v>
       </c>
       <c r="G4">
+        <v>0.1</v>
+      </c>
+      <c r="H4">
+        <v>0.11</v>
+      </c>
+      <c r="I4">
+        <v>0.11</v>
+      </c>
+      <c r="J4">
+        <v>0.1</v>
+      </c>
+      <c r="K4">
         <v>1</v>
       </c>
-      <c r="H4">
-        <f>ROUNDDOWN((137868+74490+6190+4665)/F1*H1,0)</f>
+      <c r="L4">
+        <f>ROUNDDOWN((137868+74490+6190+4665)/F1*L1,0)</f>
         <v>223</v>
       </c>
-      <c r="I4" t="s">
+      <c r="M4" t="s">
         <v>15</v>
       </c>
-      <c r="J4" t="s">
+      <c r="N4" t="s">
         <v>16</v>
       </c>
-      <c r="K4">
+      <c r="O4">
         <v>0.61799999999999999</v>
       </c>
-      <c r="L4">
+      <c r="P4">
         <v>0.33400000000000002</v>
       </c>
-      <c r="M4">
+      <c r="Q4">
         <v>2</v>
       </c>
-      <c r="N4">
-        <f>ROUNDDOWN((216078+155780+10815)/F1*H1,0)</f>
+      <c r="R4">
+        <f>ROUNDDOWN((216078+155780+10815)/F1*L1,0)</f>
         <v>383</v>
       </c>
-      <c r="O4" t="s">
+      <c r="S4" t="s">
         <v>17</v>
       </c>
-      <c r="P4" t="s">
+      <c r="T4" t="s">
         <v>18</v>
       </c>
-      <c r="Q4">
+      <c r="U4">
         <v>0.40699999999999997</v>
       </c>
-      <c r="R4">
+      <c r="V4">
         <v>0.56499999999999995</v>
       </c>
-      <c r="S4">
+      <c r="W4">
         <v>3</v>
       </c>
-      <c r="T4">
-        <f>ROUNDDOWN((203421+190975+12315+10541)/F1*H1,0)</f>
+      <c r="X4">
+        <f>ROUNDDOWN((203421+190975+12315+10541)/F1*L1,0)</f>
         <v>418</v>
       </c>
-      <c r="U4" t="s">
+      <c r="Y4" t="s">
         <v>19</v>
       </c>
-      <c r="V4" t="s">
+      <c r="Z4" t="s">
         <v>20</v>
       </c>
-      <c r="W4">
+      <c r="AA4">
         <v>0.48799999999999999</v>
       </c>
-      <c r="X4">
+      <c r="AB4">
         <v>0.45800000000000002</v>
       </c>
-      <c r="Y4">
+      <c r="AC4">
         <v>4</v>
       </c>
-      <c r="Z4">
-        <f>D4-(T4+H4+N4)</f>
+      <c r="AD4">
+        <f>D4-(X4+L4+R4)</f>
         <v>387</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AE4" t="s">
         <v>21</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AF4" t="s">
         <v>22</v>
       </c>
-      <c r="AC4">
+      <c r="AG4">
         <v>0.50700000000000001</v>
       </c>
-      <c r="AD4">
+      <c r="AH4">
         <v>0.45800000000000002</v>
       </c>
+    </row>
+    <row r="28" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataStructuresProject3/District_map.xlsx
+++ b/DataStructuresProject3/District_map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcus\source\repos\DataStructuresProject3\DataStructuresProject3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42588BAC-0813-4CAD-B5C1-2CE68E024314}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C4AED2-A578-41FA-85A7-1DB7B69A0A02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B576BF06-D8E7-4931-8545-D57E9AAA9B99}"/>
+    <workbookView xWindow="10800" yWindow="870" windowWidth="18000" windowHeight="11055" xr2:uid="{B576BF06-D8E7-4931-8545-D57E9AAA9B99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="226">
   <si>
     <t>Number of Districts</t>
   </si>
@@ -127,6 +127,591 @@
   </si>
   <si>
     <t>Electoral Votes</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Doug Jones</t>
+  </si>
+  <si>
+    <t>Tommy Tuberville</t>
+  </si>
+  <si>
+    <t>James Averhart</t>
+  </si>
+  <si>
+    <t>Jerry Carl</t>
+  </si>
+  <si>
+    <t>Phyllis Harvey-Hall</t>
+  </si>
+  <si>
+    <t>Barry Moore</t>
+  </si>
+  <si>
+    <t>Adia Winfrey</t>
+  </si>
+  <si>
+    <t>Mike Rogers</t>
+  </si>
+  <si>
+    <t>Rick Neighbors</t>
+  </si>
+  <si>
+    <t>Robert Aderholt</t>
+  </si>
+  <si>
+    <t>Mo Brooks</t>
+  </si>
+  <si>
+    <t>Gary Palmer</t>
+  </si>
+  <si>
+    <t>Terri A. Sewell</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>Al Gross</t>
+  </si>
+  <si>
+    <t>Dan Sullivan</t>
+  </si>
+  <si>
+    <t>Alyse S. Galvin</t>
+  </si>
+  <si>
+    <t>Din Young</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Mark Kelley</t>
+  </si>
+  <si>
+    <t>Martha McSally</t>
+  </si>
+  <si>
+    <t>Tom O'Halleran</t>
+  </si>
+  <si>
+    <t>Tiffany Shedd</t>
+  </si>
+  <si>
+    <t>Ann Kirkpatrick</t>
+  </si>
+  <si>
+    <t>Brandon Martin</t>
+  </si>
+  <si>
+    <t>Raul Grijalva</t>
+  </si>
+  <si>
+    <t>Daniel Wood</t>
+  </si>
+  <si>
+    <t>Paul Gosar</t>
+  </si>
+  <si>
+    <t>Delina DiSanto</t>
+  </si>
+  <si>
+    <t>Joan Greene</t>
+  </si>
+  <si>
+    <t>Andy Biggs</t>
+  </si>
+  <si>
+    <t>Hiral Tipirneni</t>
+  </si>
+  <si>
+    <t>David Schweikert</t>
+  </si>
+  <si>
+    <t>Ruben Gallego</t>
+  </si>
+  <si>
+    <t>Joshua Barnett</t>
+  </si>
+  <si>
+    <t>Michael Muscato</t>
+  </si>
+  <si>
+    <t>Debbie Lesko</t>
+  </si>
+  <si>
+    <t>Greg Stanton</t>
+  </si>
+  <si>
+    <t>Dave Giles</t>
+  </si>
+  <si>
+    <t>Tom Crawford</t>
+  </si>
+  <si>
+    <t>Ricky Dale Harrington Jr.</t>
+  </si>
+  <si>
+    <t>Rick Crawford</t>
+  </si>
+  <si>
+    <t>Joyce Elliot</t>
+  </si>
+  <si>
+    <t>French Hill</t>
+  </si>
+  <si>
+    <t>Celeste Williams</t>
+  </si>
+  <si>
+    <t>Steve Womack</t>
+  </si>
+  <si>
+    <t>William H. Hanson</t>
+  </si>
+  <si>
+    <t>Bruce Westerman</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>John W. Hickenlooper</t>
+  </si>
+  <si>
+    <t>Cory Gardner</t>
+  </si>
+  <si>
+    <t>Diana DeGette</t>
+  </si>
+  <si>
+    <t>Shane Bolling</t>
+  </si>
+  <si>
+    <t>Joe Neguse</t>
+  </si>
+  <si>
+    <t>Charline Winn</t>
+  </si>
+  <si>
+    <t>Diane E. Mitsch Bush</t>
+  </si>
+  <si>
+    <t>Lauren Boebert</t>
+  </si>
+  <si>
+    <t>Ike McCorkle</t>
+  </si>
+  <si>
+    <t>Ken Buck</t>
+  </si>
+  <si>
+    <t>Jillian Freelan</t>
+  </si>
+  <si>
+    <t>Doug Lamborn</t>
+  </si>
+  <si>
+    <t>Jason Crow</t>
+  </si>
+  <si>
+    <t>Steve House</t>
+  </si>
+  <si>
+    <t>Ed Perlmutter</t>
+  </si>
+  <si>
+    <t>Charles Stockham</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>John B. Larson</t>
+  </si>
+  <si>
+    <t>Mary Fay</t>
+  </si>
+  <si>
+    <t>Joe Courtney</t>
+  </si>
+  <si>
+    <t>Justin Anderson</t>
+  </si>
+  <si>
+    <t>Rosa L. DeLauro</t>
+  </si>
+  <si>
+    <t>Margaret Streicker</t>
+  </si>
+  <si>
+    <t>Jim Himes</t>
+  </si>
+  <si>
+    <t>Jonathan Riddle</t>
+  </si>
+  <si>
+    <t>Jahana Hayes</t>
+  </si>
+  <si>
+    <t>David X. Sullivan</t>
+  </si>
+  <si>
+    <t>Christopher A. Coons</t>
+  </si>
+  <si>
+    <t>Lauren Witzke</t>
+  </si>
+  <si>
+    <t>Lisa Blunt Rochester</t>
+  </si>
+  <si>
+    <t>Lee Murphy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ed Case </t>
+  </si>
+  <si>
+    <t>Ron Curtis</t>
+  </si>
+  <si>
+    <t>Kai Kahele</t>
+  </si>
+  <si>
+    <t>Joe Akana</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Frank J. Mrvan</t>
+  </si>
+  <si>
+    <t>Mark Leyva</t>
+  </si>
+  <si>
+    <t>Patricia Hackett</t>
+  </si>
+  <si>
+    <t>Jackie Walorski</t>
+  </si>
+  <si>
+    <t>Chip Coldiron</t>
+  </si>
+  <si>
+    <t>Jim Banks</t>
+  </si>
+  <si>
+    <t>Joe Mackey</t>
+  </si>
+  <si>
+    <t>Jim Baird</t>
+  </si>
+  <si>
+    <t>Christina Hale</t>
+  </si>
+  <si>
+    <t>Victoria Spartz</t>
+  </si>
+  <si>
+    <t>Jeannine Lee Lake</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Greg Pence</t>
+  </si>
+  <si>
+    <t>Andre Carson</t>
+  </si>
+  <si>
+    <t>Susan Marie Smith</t>
+  </si>
+  <si>
+    <t>E. Thomasina Marsili</t>
+  </si>
+  <si>
+    <t>Larry D. Bucshon</t>
+  </si>
+  <si>
+    <t>Andy Ruff</t>
+  </si>
+  <si>
+    <t>Trey Hollingsworth</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Theresa Greenfield</t>
+  </si>
+  <si>
+    <t>Joni Ernst</t>
+  </si>
+  <si>
+    <t>Abby Finkenauer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ashley Hinson  </t>
+  </si>
+  <si>
+    <t>Rita R. Hart</t>
+  </si>
+  <si>
+    <t>Mariannette Miller-Meeks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cindy Axne </t>
+  </si>
+  <si>
+    <t>David Young</t>
+  </si>
+  <si>
+    <t>J.D. Scholten</t>
+  </si>
+  <si>
+    <t>Randy Feenstra</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Barbara Bollier</t>
+  </si>
+  <si>
+    <t>Roger Marshall</t>
+  </si>
+  <si>
+    <t>Kali Barnett</t>
+  </si>
+  <si>
+    <t>Tracey Mann</t>
+  </si>
+  <si>
+    <t>Michelle De La Isla</t>
+  </si>
+  <si>
+    <t>Jake LaTurner</t>
+  </si>
+  <si>
+    <t>Sharice L. Davids</t>
+  </si>
+  <si>
+    <t>Amanda L. Adkins</t>
+  </si>
+  <si>
+    <t>Laura Lombard</t>
+  </si>
+  <si>
+    <t>Ron Estes</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Amy McGrath</t>
+  </si>
+  <si>
+    <t>Mitch McConnell</t>
+  </si>
+  <si>
+    <t>James Rhodes</t>
+  </si>
+  <si>
+    <t>James R. Comer</t>
+  </si>
+  <si>
+    <t>Hank Linderman</t>
+  </si>
+  <si>
+    <t>S. Brett Guthrie</t>
+  </si>
+  <si>
+    <t>John A. Yarmuth</t>
+  </si>
+  <si>
+    <t>Rhonda Palazzo</t>
+  </si>
+  <si>
+    <t>Alexandra Owensby</t>
+  </si>
+  <si>
+    <t>Thomas Massie</t>
+  </si>
+  <si>
+    <t>Matthew Ryan Best</t>
+  </si>
+  <si>
+    <t>Harold Rogers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Josh Hicks </t>
+  </si>
+  <si>
+    <t>Andy Barr</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>Derrick Edwards</t>
+  </si>
+  <si>
+    <t>Bill Cassidy</t>
+  </si>
+  <si>
+    <t>Lee Ann Dugas</t>
+  </si>
+  <si>
+    <t>Steve Scalise</t>
+  </si>
+  <si>
+    <t>Cedric L. Richmond</t>
+  </si>
+  <si>
+    <t>David M. Schilling</t>
+  </si>
+  <si>
+    <t>Braylon Harris</t>
+  </si>
+  <si>
+    <t>Clay Higgins</t>
+  </si>
+  <si>
+    <t>Kenny Houston</t>
+  </si>
+  <si>
+    <t>Mike Johnson</t>
+  </si>
+  <si>
+    <t>Sandra Christophe</t>
+  </si>
+  <si>
+    <t>Luke J. Letlow</t>
+  </si>
+  <si>
+    <t>Dartanyon Williams</t>
+  </si>
+  <si>
+    <t>Garret Graves</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>Sara I. Gideons</t>
+  </si>
+  <si>
+    <t>Susan Collins</t>
+  </si>
+  <si>
+    <t>Chellie Pingree</t>
+  </si>
+  <si>
+    <t>Jay Allen</t>
+  </si>
+  <si>
+    <t>Jared Golden</t>
+  </si>
+  <si>
+    <t>Dale John Crafts</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Mia Mason</t>
+  </si>
+  <si>
+    <t>Andy Harris</t>
+  </si>
+  <si>
+    <t>C.A. Dutch Ruppersberger</t>
+  </si>
+  <si>
+    <t>Johnny Ray Salling</t>
+  </si>
+  <si>
+    <t>John Sarbanes</t>
+  </si>
+  <si>
+    <t>Charles Anthony</t>
+  </si>
+  <si>
+    <t>Anthony G. Brown</t>
+  </si>
+  <si>
+    <t>George E. McDermott</t>
+  </si>
+  <si>
+    <t>Steny H. Hoyer</t>
+  </si>
+  <si>
+    <t>Chris Palombi</t>
+  </si>
+  <si>
+    <t>David J. Trone</t>
+  </si>
+  <si>
+    <t>Neil C. Parrott</t>
+  </si>
+  <si>
+    <t>Kweisi Mfume</t>
+  </si>
+  <si>
+    <t>Himberly Klacik</t>
+  </si>
+  <si>
+    <t>Jamie Raskin</t>
+  </si>
+  <si>
+    <t>Gregory Thomas Coll</t>
+  </si>
+  <si>
+    <t>Edward Markey</t>
+  </si>
+  <si>
+    <t>Kevin O'Connor</t>
+  </si>
+  <si>
+    <t>Richard Neal</t>
+  </si>
+  <si>
+    <t>Alex Morse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">James </t>
   </si>
 </sst>
 </file>
@@ -489,35 +1074,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADBEAA11-795E-4093-A04F-1DFE9E42F9C1}">
-  <dimension ref="A1:AE4"/>
+  <dimension ref="A1:DC41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.140625" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="17" customWidth="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
     <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="17" customWidth="1"/>
+    <col min="15" max="15" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7.28515625" customWidth="1"/>
     <col min="19" max="19" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="17" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="17" customWidth="1"/>
+    <col min="21" max="21" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17" customWidth="1"/>
     <col min="25" max="25" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="16.140625" customWidth="1"/>
+    <col min="27" max="27" width="19" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.42578125" customWidth="1"/>
+    <col min="37" max="37" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="17" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="14" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="17" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="17" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -536,7 +1145,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -627,176 +1236,5676 @@
       <c r="AD2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AE2" s="1"/>
+      <c r="AE2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="3">
+        <f>ROUNDDOWN((2325000/F1)*H1,0)</f>
+        <v>2331</v>
+      </c>
+      <c r="E3" s="3">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <f>ROUNDDOWN((116949+211825+301)/F1*H1,0)</f>
+        <v>330</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="M3" s="3">
+        <v>2</v>
+      </c>
+      <c r="N3" s="3">
+        <f>ROUNDDOWN((105286+197996+287)/F1*H1,0)</f>
+        <v>304</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="R3" s="3">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="S3" s="3">
+        <v>3</v>
+      </c>
+      <c r="T3" s="3">
+        <f>ROUNDDOWN(322234/F1*H1,0)</f>
+        <v>323</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W3" s="3">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="X3" s="3">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>4</v>
+      </c>
+      <c r="Z3" s="3">
+        <f>ROUNDDOWN(318029/F1*H1,0)</f>
+        <v>318</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>5</v>
+      </c>
+      <c r="AF3" s="3">
+        <f>ROUNDDOWN(264160/F1*H1,0)</f>
+        <v>264</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="3">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="AK3" s="3">
+        <v>6</v>
+      </c>
+      <c r="AL3" s="3">
+        <f>ROUNDDOWN(282261/F1*H1,0)</f>
+        <v>283</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="3">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="AQ3" s="3">
+        <v>7</v>
+      </c>
+      <c r="AR3" s="3">
+        <f>ROUNDDOWN(232331/F1*H1,0)</f>
+        <v>232</v>
+      </c>
+      <c r="AS3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU3" s="3">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="AV3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="3"/>
+      <c r="AX3" s="3"/>
+      <c r="AY3" s="3"/>
+      <c r="AZ3" s="3"/>
+      <c r="BA3" s="3"/>
+      <c r="BB3" s="3"/>
+      <c r="BC3" s="3"/>
+      <c r="BD3" s="3"/>
+      <c r="BE3" s="3"/>
+      <c r="BF3" s="3"/>
+      <c r="BG3" s="3"/>
+      <c r="BH3" s="3"/>
+      <c r="BI3" s="3"/>
+      <c r="BJ3" s="3"/>
+      <c r="BK3" s="3"/>
+      <c r="BL3" s="3"/>
+      <c r="BM3" s="3"/>
+      <c r="BN3" s="3"/>
+      <c r="BO3" s="3"/>
+      <c r="BP3" s="3"/>
+      <c r="BQ3" s="3"/>
+      <c r="BR3" s="3"/>
+      <c r="BS3" s="3"/>
+      <c r="BT3" s="3"/>
+      <c r="BU3" s="3"/>
+      <c r="BV3" s="3"/>
+      <c r="BW3" s="3"/>
+      <c r="BX3" s="3"/>
+      <c r="BY3" s="3"/>
+      <c r="BZ3" s="3"/>
+      <c r="CA3" s="3"/>
+      <c r="CB3" s="3"/>
+      <c r="CC3" s="3"/>
+      <c r="CD3" s="3"/>
+      <c r="CE3" s="3"/>
+      <c r="CF3" s="3"/>
+      <c r="CG3" s="3"/>
+      <c r="CH3" s="3"/>
+      <c r="CI3" s="3"/>
+      <c r="CJ3" s="3"/>
+      <c r="CK3" s="3"/>
+      <c r="CL3" s="3"/>
+      <c r="CM3" s="3"/>
+      <c r="CN3" s="3"/>
+      <c r="CO3" s="3"/>
+      <c r="CP3" s="3"/>
+      <c r="CQ3" s="3"/>
+      <c r="CR3" s="3"/>
+      <c r="CS3" s="3"/>
+      <c r="CT3" s="3"/>
+      <c r="CU3" s="3"/>
+      <c r="CV3" s="3"/>
+      <c r="CW3" s="3"/>
+      <c r="CX3" s="3"/>
+      <c r="CY3" s="3"/>
+      <c r="CZ3" s="3"/>
+      <c r="DA3" s="3"/>
+      <c r="DB3" s="3"/>
+      <c r="DC3" s="3"/>
+    </row>
+    <row r="4" spans="1:107" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="3">
+        <f>ROUNDDOWN(361400/F1*H1,0)</f>
+        <v>362</v>
+      </c>
+      <c r="E4" s="3">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <f>ROUNDDOWN(353165/F1*H1,0)</f>
+        <v>354</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="3"/>
+      <c r="AV4" s="3"/>
+      <c r="AW4" s="3"/>
+      <c r="AX4" s="3"/>
+      <c r="AY4" s="3"/>
+      <c r="AZ4" s="3"/>
+      <c r="BA4" s="3"/>
+      <c r="BB4" s="3"/>
+      <c r="BC4" s="3"/>
+      <c r="BD4" s="3"/>
+      <c r="BE4" s="3"/>
+      <c r="BF4" s="3"/>
+      <c r="BG4" s="3"/>
+      <c r="BH4" s="3"/>
+      <c r="BI4" s="3"/>
+      <c r="BJ4" s="3"/>
+      <c r="BK4" s="3"/>
+      <c r="BL4" s="3"/>
+      <c r="BM4" s="3"/>
+      <c r="BN4" s="3"/>
+      <c r="BO4" s="3"/>
+      <c r="BP4" s="3"/>
+      <c r="BQ4" s="3"/>
+      <c r="BR4" s="3"/>
+      <c r="BS4" s="3"/>
+      <c r="BT4" s="3"/>
+      <c r="BU4" s="3"/>
+      <c r="BV4" s="3"/>
+      <c r="BW4" s="3"/>
+      <c r="BX4" s="3"/>
+      <c r="BY4" s="3"/>
+      <c r="BZ4" s="3"/>
+      <c r="CA4" s="3"/>
+      <c r="CB4" s="3"/>
+      <c r="CC4" s="3"/>
+      <c r="CD4" s="3"/>
+      <c r="CE4" s="3"/>
+      <c r="CF4" s="3"/>
+      <c r="CG4" s="3"/>
+      <c r="CH4" s="3"/>
+      <c r="CI4" s="3"/>
+      <c r="CJ4" s="3"/>
+      <c r="CK4" s="3"/>
+      <c r="CL4" s="3"/>
+      <c r="CM4" s="3"/>
+      <c r="CN4" s="3"/>
+      <c r="CO4" s="3"/>
+      <c r="CP4" s="3"/>
+      <c r="CQ4" s="3"/>
+      <c r="CR4" s="3"/>
+      <c r="CS4" s="3"/>
+      <c r="CT4" s="3"/>
+      <c r="CU4" s="3"/>
+      <c r="CV4" s="3"/>
+      <c r="CW4" s="3"/>
+      <c r="CX4" s="3"/>
+      <c r="CY4" s="3"/>
+      <c r="CZ4" s="3"/>
+      <c r="DA4" s="3"/>
+      <c r="DB4" s="3"/>
+      <c r="DC4" s="3"/>
+    </row>
+    <row r="5" spans="1:107" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="3">
+        <f>ROUNDDOWN(3420565/F1*H1,0)</f>
+        <v>3430</v>
+      </c>
+      <c r="E5" s="3">
+        <v>11</v>
+      </c>
+      <c r="F5" s="3">
+        <v>9</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <f>ROUNDDOWN(365178/F1*H1,0)</f>
+        <v>366</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="M5" s="3">
+        <v>2</v>
+      </c>
+      <c r="N5" s="3">
+        <f>ROUNDDOWN(380920/F1*H1,0)</f>
+        <v>382</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="S5" s="3">
+        <v>3</v>
+      </c>
+      <c r="T5" s="3">
+        <f>ROUNDDOWN(269837/F1*H1,0)</f>
+        <v>270</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="W5" s="3">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="X5" s="3">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>4</v>
+      </c>
+      <c r="Z5" s="3">
+        <f>ROUNDDOWN(398486/F1*H1,0)</f>
+        <v>399</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>5</v>
+      </c>
+      <c r="AF5" s="3">
+        <f>ROUNDDOWN(445585/F1*H1,0)</f>
+        <v>446</v>
+      </c>
+      <c r="AG5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI5" s="3">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="AJ5" s="3">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="AK5" s="3">
+        <v>6</v>
+      </c>
+      <c r="AL5" s="3">
+        <f>ROUNDDOWN(417427/F1*H1,0)</f>
+        <v>418</v>
+      </c>
+      <c r="AM5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO5" s="3">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="AP5" s="3">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="AQ5" s="3">
+        <v>7</v>
+      </c>
+      <c r="AR5" s="3">
+        <f>ROUNDDOWN(215678/F1*H1,0)</f>
+        <v>216</v>
+      </c>
+      <c r="AS5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU5" s="3">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="AV5" s="3">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="AW5" s="3">
+        <v>8</v>
+      </c>
+      <c r="AX5" s="3">
+        <f>ROUNDDOWN(422449/F1*H1,0)</f>
+        <v>423</v>
+      </c>
+      <c r="AY5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA5" s="3">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="BB5" s="3">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="BC5" s="3">
+        <v>9</v>
+      </c>
+      <c r="BD5" s="3">
+        <f>ROUNDDOWN(352274/F1*H1,0)</f>
+        <v>353</v>
+      </c>
+      <c r="BE5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="BF5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG5" s="3">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="BH5" s="3">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="BI5" s="3"/>
+      <c r="BJ5" s="3"/>
+      <c r="BK5" s="3"/>
+      <c r="BL5" s="3"/>
+      <c r="BM5" s="3"/>
+      <c r="BN5" s="3"/>
+      <c r="BO5" s="3"/>
+      <c r="BP5" s="3"/>
+      <c r="BQ5" s="3"/>
+      <c r="BR5" s="3"/>
+      <c r="BS5" s="3"/>
+      <c r="BT5" s="3"/>
+      <c r="BU5" s="3"/>
+      <c r="BV5" s="3"/>
+      <c r="BW5" s="3"/>
+      <c r="BX5" s="3"/>
+      <c r="BY5" s="3"/>
+      <c r="BZ5" s="3"/>
+      <c r="CA5" s="3"/>
+      <c r="CB5" s="3"/>
+      <c r="CC5" s="3"/>
+      <c r="CD5" s="3"/>
+      <c r="CE5" s="3"/>
+      <c r="CF5" s="3"/>
+      <c r="CG5" s="3"/>
+      <c r="CH5" s="3"/>
+      <c r="CI5" s="3"/>
+      <c r="CJ5" s="3"/>
+      <c r="CK5" s="3"/>
+      <c r="CL5" s="3"/>
+      <c r="CM5" s="3"/>
+      <c r="CN5" s="3"/>
+      <c r="CO5" s="3"/>
+      <c r="CP5" s="3"/>
+      <c r="CQ5" s="3"/>
+      <c r="CR5" s="3"/>
+      <c r="CS5" s="3"/>
+      <c r="CT5" s="3"/>
+      <c r="CU5" s="3"/>
+      <c r="CV5" s="3"/>
+      <c r="CW5" s="3"/>
+      <c r="CX5" s="3"/>
+      <c r="CY5" s="3"/>
+      <c r="CZ5" s="3"/>
+      <c r="DA5" s="3"/>
+      <c r="DB5" s="3"/>
+      <c r="DC5" s="3"/>
+    </row>
+    <row r="6" spans="1:107" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="3">
+        <f>ROUNDDOWN(1223675/F1*H1,0)</f>
+        <v>1227</v>
+      </c>
+      <c r="E6" s="3">
+        <v>6</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
+        <f>ROUNDDOWN(237596/F1*H1,0)</f>
+        <v>238</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1</v>
+      </c>
+      <c r="M6" s="3">
+        <v>2</v>
+      </c>
+      <c r="N6" s="3">
+        <f>ROUNDDOWN(332503/F1*H1,0)</f>
+        <v>333</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="S6" s="3">
+        <v>3</v>
+      </c>
+      <c r="T6" s="3">
+        <v>334262</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="W6" s="3">
+        <v>0.318</v>
+      </c>
+      <c r="X6" s="3">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>4</v>
+      </c>
+      <c r="Z6" s="3">
+        <f>ROUNDDOWN(275035/F1*H1,0)</f>
+        <v>275</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="3"/>
+      <c r="AU6" s="3"/>
+      <c r="AV6" s="3"/>
+      <c r="AW6" s="3"/>
+      <c r="AX6" s="3"/>
+      <c r="AY6" s="3"/>
+      <c r="AZ6" s="3"/>
+      <c r="BA6" s="3"/>
+      <c r="BB6" s="3"/>
+      <c r="BC6" s="3"/>
+      <c r="BD6" s="3"/>
+      <c r="BE6" s="3"/>
+      <c r="BF6" s="3"/>
+      <c r="BG6" s="3"/>
+      <c r="BH6" s="3"/>
+      <c r="BI6" s="3"/>
+      <c r="BJ6" s="3"/>
+      <c r="BK6" s="3"/>
+      <c r="BL6" s="3"/>
+      <c r="BM6" s="3"/>
+      <c r="BN6" s="3"/>
+      <c r="BO6" s="3"/>
+      <c r="BP6" s="3"/>
+      <c r="BQ6" s="3"/>
+      <c r="BR6" s="3"/>
+      <c r="BS6" s="3"/>
+      <c r="BT6" s="3"/>
+      <c r="BU6" s="3"/>
+      <c r="BV6" s="3"/>
+      <c r="BW6" s="3"/>
+      <c r="BX6" s="3"/>
+      <c r="BY6" s="3"/>
+      <c r="BZ6" s="3"/>
+      <c r="CA6" s="3"/>
+      <c r="CB6" s="3"/>
+      <c r="CC6" s="3"/>
+      <c r="CD6" s="3"/>
+      <c r="CE6" s="3"/>
+      <c r="CF6" s="3"/>
+      <c r="CG6" s="3"/>
+      <c r="CH6" s="3"/>
+      <c r="CI6" s="3"/>
+      <c r="CJ6" s="3"/>
+      <c r="CK6" s="3"/>
+      <c r="CL6" s="3"/>
+      <c r="CM6" s="3"/>
+      <c r="CN6" s="3"/>
+      <c r="CO6" s="3"/>
+      <c r="CP6" s="3"/>
+      <c r="CQ6" s="3"/>
+      <c r="CR6" s="3"/>
+      <c r="CS6" s="3"/>
+      <c r="CT6" s="3"/>
+      <c r="CU6" s="3"/>
+      <c r="CV6" s="3"/>
+      <c r="CW6" s="3"/>
+      <c r="CX6" s="3"/>
+      <c r="CY6" s="3"/>
+      <c r="CZ6" s="3"/>
+      <c r="DA6" s="3"/>
+      <c r="DB6" s="3"/>
+      <c r="DC6" s="3"/>
+    </row>
+    <row r="7" spans="1:107" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3">
+        <f>ROUNDDOWN(17790000/F1*H1,0)</f>
+        <v>17840</v>
+      </c>
+      <c r="E7" s="3">
+        <v>55</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3"/>
+      <c r="AU7" s="3"/>
+      <c r="AV7" s="3"/>
+      <c r="AW7" s="3"/>
+      <c r="AX7" s="3"/>
+      <c r="AY7" s="3"/>
+      <c r="AZ7" s="3"/>
+      <c r="BA7" s="3"/>
+      <c r="BB7" s="3"/>
+      <c r="BC7" s="3"/>
+      <c r="BD7" s="3"/>
+      <c r="BE7" s="3"/>
+      <c r="BF7" s="3"/>
+      <c r="BG7" s="3"/>
+      <c r="BH7" s="3"/>
+      <c r="BI7" s="3"/>
+      <c r="BJ7" s="3"/>
+      <c r="BK7" s="3"/>
+      <c r="BL7" s="3"/>
+      <c r="BM7" s="3"/>
+      <c r="BN7" s="3"/>
+      <c r="BO7" s="3"/>
+      <c r="BP7" s="3"/>
+      <c r="BQ7" s="3"/>
+      <c r="BR7" s="3"/>
+      <c r="BS7" s="3"/>
+      <c r="BT7" s="3"/>
+      <c r="BU7" s="3"/>
+      <c r="BV7" s="3"/>
+      <c r="BW7" s="3"/>
+      <c r="BX7" s="3"/>
+      <c r="BY7" s="3"/>
+      <c r="BZ7" s="3"/>
+      <c r="CA7" s="3"/>
+      <c r="CB7" s="3"/>
+      <c r="CC7" s="3"/>
+      <c r="CD7" s="3"/>
+      <c r="CE7" s="3"/>
+      <c r="CF7" s="3"/>
+      <c r="CG7" s="3"/>
+      <c r="CH7" s="3"/>
+      <c r="CI7" s="3"/>
+      <c r="CJ7" s="3"/>
+      <c r="CK7" s="3"/>
+      <c r="CL7" s="3"/>
+      <c r="CM7" s="3"/>
+      <c r="CN7" s="3"/>
+      <c r="CO7" s="3"/>
+      <c r="CP7" s="3"/>
+      <c r="CQ7" s="3"/>
+      <c r="CR7" s="3"/>
+      <c r="CS7" s="3"/>
+      <c r="CT7" s="3"/>
+      <c r="CU7" s="3"/>
+      <c r="CV7" s="3"/>
+      <c r="CW7" s="3"/>
+      <c r="CX7" s="3"/>
+      <c r="CY7" s="3"/>
+      <c r="CZ7" s="3"/>
+      <c r="DA7" s="3"/>
+      <c r="DB7" s="3"/>
+      <c r="DC7" s="3"/>
+    </row>
+    <row r="8" spans="1:107" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="3">
+        <f>ROUNDDOWN(3295666/F1*H1,0)</f>
+        <v>3305</v>
+      </c>
+      <c r="E8" s="3">
+        <v>9</v>
+      </c>
+      <c r="F8" s="3">
+        <v>7</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3">
+        <f>ROUNDDOWN(450290/F1*H1,0)</f>
+        <v>451</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="M8" s="3">
+        <v>2</v>
+      </c>
+      <c r="N8" s="3">
+        <f>ROUNDDOWN(515663/F1*H1,0)</f>
+        <v>517</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="S8" s="3">
+        <v>3</v>
+      </c>
+      <c r="T8" s="3">
+        <f>ROUNDDOWN(429319/F1*H1,0)</f>
+        <v>430</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>4</v>
+      </c>
+      <c r="Z8" s="3">
+        <f>ROUNDDOWN(475107/F1*H1,0)</f>
+        <v>476</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>5</v>
+      </c>
+      <c r="AF8" s="3">
+        <f>ROUNDDOWN(432407/F1*H1,0)</f>
+        <v>433</v>
+      </c>
+      <c r="AG8" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI8" s="3">
+        <v>0.373</v>
+      </c>
+      <c r="AJ8" s="3">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="AK8" s="3">
+        <v>6</v>
+      </c>
+      <c r="AL8" s="3">
+        <f>ROUNDDOWN(438473/F1*H1,0)</f>
+        <v>439</v>
+      </c>
+      <c r="AM8" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO8" s="3">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="AP8" s="3">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="AQ8" s="3">
+        <v>7</v>
+      </c>
+      <c r="AR8" s="3">
+        <f>ROUNDDOWN(423691/F1*H1,0)</f>
+        <v>424</v>
+      </c>
+      <c r="AS8" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT8" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AU8" s="3">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="AV8" s="3">
+        <v>0.376</v>
+      </c>
+      <c r="AW8" s="3"/>
+      <c r="AX8" s="3"/>
+      <c r="AY8" s="3"/>
+      <c r="AZ8" s="3"/>
+      <c r="BA8" s="3"/>
+      <c r="BB8" s="3"/>
+      <c r="BC8" s="3"/>
+      <c r="BD8" s="3"/>
+      <c r="BE8" s="3"/>
+      <c r="BF8" s="3"/>
+      <c r="BG8" s="3"/>
+      <c r="BH8" s="3"/>
+      <c r="BI8" s="3"/>
+      <c r="BJ8" s="3"/>
+      <c r="BK8" s="3"/>
+      <c r="BL8" s="3"/>
+      <c r="BM8" s="3"/>
+      <c r="BN8" s="3"/>
+      <c r="BO8" s="3"/>
+      <c r="BP8" s="3"/>
+      <c r="BQ8" s="3"/>
+      <c r="BR8" s="3"/>
+      <c r="BS8" s="3"/>
+      <c r="BT8" s="3"/>
+      <c r="BU8" s="3"/>
+      <c r="BV8" s="3"/>
+      <c r="BW8" s="3"/>
+      <c r="BX8" s="3"/>
+      <c r="BY8" s="3"/>
+      <c r="BZ8" s="3"/>
+      <c r="CA8" s="3"/>
+      <c r="CB8" s="3"/>
+      <c r="CC8" s="3"/>
+      <c r="CD8" s="3"/>
+      <c r="CE8" s="3"/>
+      <c r="CF8" s="3"/>
+      <c r="CG8" s="3"/>
+      <c r="CH8" s="3"/>
+      <c r="CI8" s="3"/>
+      <c r="CJ8" s="3"/>
+      <c r="CK8" s="3"/>
+      <c r="CL8" s="3"/>
+      <c r="CM8" s="3"/>
+      <c r="CN8" s="3"/>
+      <c r="CO8" s="3"/>
+      <c r="CP8" s="3"/>
+      <c r="CQ8" s="3"/>
+      <c r="CR8" s="3"/>
+      <c r="CS8" s="3"/>
+      <c r="CT8" s="3"/>
+      <c r="CU8" s="3"/>
+      <c r="CV8" s="3"/>
+      <c r="CW8" s="3"/>
+      <c r="CX8" s="3"/>
+      <c r="CY8" s="3"/>
+      <c r="CZ8" s="3"/>
+      <c r="DA8" s="3"/>
+      <c r="DB8" s="3"/>
+      <c r="DC8" s="3"/>
+    </row>
+    <row r="9" spans="1:107" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="3">
+        <f>ROUNDDOWN(1861086/F1*H1,0)</f>
+        <v>1866</v>
+      </c>
+      <c r="E9" s="3">
+        <v>7</v>
+      </c>
+      <c r="F9" s="3">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
+        <f>ROUNDDOWN(349237/F1*H1,0)</f>
+        <v>350</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="M9" s="3">
+        <v>2</v>
+      </c>
+      <c r="N9" s="3">
+        <f>ROUNDDOWN(367181/F1*H1,0)</f>
+        <v>368</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="S9" s="3">
+        <v>3</v>
+      </c>
+      <c r="T9" s="3">
+        <f>ROUNDDOWN((194259+131566+6030+9006+5240)/F1*H1,0)</f>
+        <v>347</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="X9" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="3">
+        <f>ROUNDDOWN((223832+130627+5656+10)/F1*H1,0)</f>
+        <v>361</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>0.621</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>5</v>
+      </c>
+      <c r="AF9" s="3">
+        <f>ROUNDDOWN((183797+151988+5052+8687)/F1*H1,0)</f>
+        <v>350</v>
+      </c>
+      <c r="AG9" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH9" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI9" s="3">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="AJ9" s="3">
+        <v>0.434</v>
+      </c>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="3"/>
+      <c r="AP9" s="3"/>
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="3"/>
+      <c r="AS9" s="3"/>
+      <c r="AT9" s="3"/>
+      <c r="AU9" s="3"/>
+      <c r="AV9" s="3"/>
+      <c r="AW9" s="3"/>
+      <c r="AX9" s="3"/>
+      <c r="AY9" s="3"/>
+      <c r="AZ9" s="3"/>
+      <c r="BA9" s="3"/>
+      <c r="BB9" s="3"/>
+      <c r="BC9" s="3"/>
+      <c r="BD9" s="3"/>
+      <c r="BE9" s="3"/>
+      <c r="BF9" s="3"/>
+      <c r="BG9" s="3"/>
+      <c r="BH9" s="3"/>
+      <c r="BI9" s="3"/>
+      <c r="BJ9" s="3"/>
+      <c r="BK9" s="3"/>
+      <c r="BL9" s="3"/>
+      <c r="BM9" s="3"/>
+      <c r="BN9" s="3"/>
+      <c r="BO9" s="3"/>
+      <c r="BP9" s="3"/>
+      <c r="BQ9" s="3"/>
+      <c r="BR9" s="3"/>
+      <c r="BS9" s="3"/>
+      <c r="BT9" s="3"/>
+      <c r="BU9" s="3"/>
+      <c r="BV9" s="3"/>
+      <c r="BW9" s="3"/>
+      <c r="BX9" s="3"/>
+      <c r="BY9" s="3"/>
+      <c r="BZ9" s="3"/>
+      <c r="CA9" s="3"/>
+      <c r="CB9" s="3"/>
+      <c r="CC9" s="3"/>
+      <c r="CD9" s="3"/>
+      <c r="CE9" s="3"/>
+      <c r="CF9" s="3"/>
+      <c r="CG9" s="3"/>
+      <c r="CH9" s="3"/>
+      <c r="CI9" s="3"/>
+      <c r="CJ9" s="3"/>
+      <c r="CK9" s="3"/>
+      <c r="CL9" s="3"/>
+      <c r="CM9" s="3"/>
+      <c r="CN9" s="3"/>
+      <c r="CO9" s="3"/>
+      <c r="CP9" s="3"/>
+      <c r="CQ9" s="3"/>
+      <c r="CR9" s="3"/>
+      <c r="CS9" s="3"/>
+      <c r="CT9" s="3"/>
+      <c r="CU9" s="3"/>
+      <c r="CV9" s="3"/>
+      <c r="CW9" s="3"/>
+      <c r="CX9" s="3"/>
+      <c r="CY9" s="3"/>
+      <c r="CZ9" s="3"/>
+      <c r="DA9" s="3"/>
+      <c r="DB9" s="3"/>
+      <c r="DC9" s="3"/>
+    </row>
+    <row r="10" spans="1:107" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="3">
+        <f>ROUNDDOWN(509241/F1*H1,0)</f>
+        <v>510</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3">
+        <f>ROUNDDOWN((122642+34142+2565+1141)/F1*H1,0)</f>
+        <v>160</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="3"/>
+      <c r="AS10" s="3"/>
+      <c r="AT10" s="3"/>
+      <c r="AU10" s="3"/>
+      <c r="AV10" s="3"/>
+      <c r="AW10" s="3"/>
+      <c r="AX10" s="3"/>
+      <c r="AY10" s="3"/>
+      <c r="AZ10" s="3"/>
+      <c r="BA10" s="3"/>
+      <c r="BB10" s="3"/>
+      <c r="BC10" s="3"/>
+      <c r="BD10" s="3"/>
+      <c r="BE10" s="3"/>
+      <c r="BF10" s="3"/>
+      <c r="BG10" s="3"/>
+      <c r="BH10" s="3"/>
+      <c r="BI10" s="3"/>
+      <c r="BJ10" s="3"/>
+      <c r="BK10" s="3"/>
+      <c r="BL10" s="3"/>
+      <c r="BM10" s="3"/>
+      <c r="BN10" s="3"/>
+      <c r="BO10" s="3"/>
+      <c r="BP10" s="3"/>
+      <c r="BQ10" s="3"/>
+      <c r="BR10" s="3"/>
+      <c r="BS10" s="3"/>
+      <c r="BT10" s="3"/>
+      <c r="BU10" s="3"/>
+      <c r="BV10" s="3"/>
+      <c r="BW10" s="3"/>
+      <c r="BX10" s="3"/>
+      <c r="BY10" s="3"/>
+      <c r="BZ10" s="3"/>
+      <c r="CA10" s="3"/>
+      <c r="CB10" s="3"/>
+      <c r="CC10" s="3"/>
+      <c r="CD10" s="3"/>
+      <c r="CE10" s="3"/>
+      <c r="CF10" s="3"/>
+      <c r="CG10" s="3"/>
+      <c r="CH10" s="3"/>
+      <c r="CI10" s="3"/>
+      <c r="CJ10" s="3"/>
+      <c r="CK10" s="3"/>
+      <c r="CL10" s="3"/>
+      <c r="CM10" s="3"/>
+      <c r="CN10" s="3"/>
+      <c r="CO10" s="3"/>
+      <c r="CP10" s="3"/>
+      <c r="CQ10" s="3"/>
+      <c r="CR10" s="3"/>
+      <c r="CS10" s="3"/>
+      <c r="CT10" s="3"/>
+      <c r="CU10" s="3"/>
+      <c r="CV10" s="3"/>
+      <c r="CW10" s="3"/>
+      <c r="CX10" s="3"/>
+      <c r="CY10" s="3"/>
+      <c r="CZ10" s="3"/>
+      <c r="DA10" s="3"/>
+      <c r="DB10" s="3"/>
+      <c r="DC10" s="3"/>
+    </row>
+    <row r="11" spans="1:107" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="3"/>
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="3"/>
+      <c r="AO11" s="3"/>
+      <c r="AP11" s="3"/>
+      <c r="AQ11" s="3"/>
+      <c r="AR11" s="3"/>
+      <c r="AS11" s="3"/>
+      <c r="AT11" s="3"/>
+      <c r="AU11" s="3"/>
+      <c r="AV11" s="3"/>
+      <c r="AW11" s="3"/>
+      <c r="AX11" s="3"/>
+      <c r="AY11" s="3"/>
+      <c r="AZ11" s="3"/>
+      <c r="BA11" s="3"/>
+      <c r="BB11" s="3"/>
+      <c r="BC11" s="3"/>
+      <c r="BD11" s="3"/>
+      <c r="BE11" s="3"/>
+      <c r="BF11" s="3"/>
+      <c r="BG11" s="3"/>
+      <c r="BH11" s="3"/>
+      <c r="BI11" s="3"/>
+      <c r="BJ11" s="3"/>
+      <c r="BK11" s="3"/>
+      <c r="BL11" s="3"/>
+      <c r="BM11" s="3"/>
+      <c r="BN11" s="3"/>
+      <c r="BO11" s="3"/>
+      <c r="BP11" s="3"/>
+      <c r="BQ11" s="3"/>
+      <c r="BR11" s="3"/>
+      <c r="BS11" s="3"/>
+      <c r="BT11" s="3"/>
+      <c r="BU11" s="3"/>
+      <c r="BV11" s="3"/>
+      <c r="BW11" s="3"/>
+      <c r="BX11" s="3"/>
+      <c r="BY11" s="3"/>
+      <c r="BZ11" s="3"/>
+      <c r="CA11" s="3"/>
+      <c r="CB11" s="3"/>
+      <c r="CC11" s="3"/>
+      <c r="CD11" s="3"/>
+      <c r="CE11" s="3"/>
+      <c r="CF11" s="3"/>
+      <c r="CG11" s="3"/>
+      <c r="CH11" s="3"/>
+      <c r="CI11" s="3"/>
+      <c r="CJ11" s="3"/>
+      <c r="CK11" s="3"/>
+      <c r="CL11" s="3"/>
+      <c r="CM11" s="3"/>
+      <c r="CN11" s="3"/>
+      <c r="CO11" s="3"/>
+      <c r="CP11" s="3"/>
+      <c r="CQ11" s="3"/>
+      <c r="CR11" s="3"/>
+      <c r="CS11" s="3"/>
+      <c r="CT11" s="3"/>
+      <c r="CU11" s="3"/>
+      <c r="CV11" s="3"/>
+      <c r="CW11" s="3"/>
+      <c r="CX11" s="3"/>
+      <c r="CY11" s="3"/>
+      <c r="CZ11" s="3"/>
+      <c r="DA11" s="3"/>
+      <c r="DB11" s="3"/>
+      <c r="DC11" s="3"/>
+    </row>
+    <row r="12" spans="1:107" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="3"/>
+      <c r="AO12" s="3"/>
+      <c r="AP12" s="3"/>
+      <c r="AQ12" s="3"/>
+      <c r="AR12" s="3"/>
+      <c r="AS12" s="3"/>
+      <c r="AT12" s="3"/>
+      <c r="AU12" s="3"/>
+      <c r="AV12" s="3"/>
+      <c r="AW12" s="3"/>
+      <c r="AX12" s="3"/>
+      <c r="AY12" s="3"/>
+      <c r="AZ12" s="3"/>
+      <c r="BA12" s="3"/>
+      <c r="BB12" s="3"/>
+      <c r="BC12" s="3"/>
+      <c r="BD12" s="3"/>
+      <c r="BE12" s="3"/>
+      <c r="BF12" s="3"/>
+      <c r="BG12" s="3"/>
+      <c r="BH12" s="3"/>
+      <c r="BI12" s="3"/>
+      <c r="BJ12" s="3"/>
+      <c r="BK12" s="3"/>
+      <c r="BL12" s="3"/>
+      <c r="BM12" s="3"/>
+      <c r="BN12" s="3"/>
+      <c r="BO12" s="3"/>
+      <c r="BP12" s="3"/>
+      <c r="BQ12" s="3"/>
+      <c r="BR12" s="3"/>
+      <c r="BS12" s="3"/>
+      <c r="BT12" s="3"/>
+      <c r="BU12" s="3"/>
+      <c r="BV12" s="3"/>
+      <c r="BW12" s="3"/>
+      <c r="BX12" s="3"/>
+      <c r="BY12" s="3"/>
+      <c r="BZ12" s="3"/>
+      <c r="CA12" s="3"/>
+      <c r="CB12" s="3"/>
+      <c r="CC12" s="3"/>
+      <c r="CD12" s="3"/>
+      <c r="CE12" s="3"/>
+      <c r="CF12" s="3"/>
+      <c r="CG12" s="3"/>
+      <c r="CH12" s="3"/>
+      <c r="CI12" s="3"/>
+      <c r="CJ12" s="3"/>
+      <c r="CK12" s="3"/>
+      <c r="CL12" s="3"/>
+      <c r="CM12" s="3"/>
+      <c r="CN12" s="3"/>
+      <c r="CO12" s="3"/>
+      <c r="CP12" s="3"/>
+      <c r="CQ12" s="3"/>
+      <c r="CR12" s="3"/>
+      <c r="CS12" s="3"/>
+      <c r="CT12" s="3"/>
+      <c r="CU12" s="3"/>
+      <c r="CV12" s="3"/>
+      <c r="CW12" s="3"/>
+      <c r="CX12" s="3"/>
+      <c r="CY12" s="3"/>
+      <c r="CZ12" s="3"/>
+      <c r="DA12" s="3"/>
+      <c r="DB12" s="3"/>
+      <c r="DC12" s="3"/>
+    </row>
+    <row r="13" spans="1:107" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="3">
+        <f>ROUNDDOWN(597784/F1*H1,0)</f>
+        <v>599</v>
+      </c>
+      <c r="E13" s="3">
+        <v>4</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3">
+        <f>ROUNDDOWN((183245+71188)/F1*H1,0)</f>
+        <v>255</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0.251</v>
+      </c>
+      <c r="M13" s="3">
+        <v>2</v>
+      </c>
+      <c r="N13" s="3">
+        <f>ROUNDDOWN((171517+84027+6785+6453+2659+661)/F1*H1,0)</f>
+        <v>272</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="3"/>
+      <c r="AM13" s="3"/>
+      <c r="AN13" s="3"/>
+      <c r="AO13" s="3"/>
+      <c r="AP13" s="3"/>
+      <c r="AQ13" s="3"/>
+      <c r="AR13" s="3"/>
+      <c r="AS13" s="3"/>
+      <c r="AT13" s="3"/>
+      <c r="AU13" s="3"/>
+      <c r="AV13" s="3"/>
+      <c r="AW13" s="3"/>
+      <c r="AX13" s="3"/>
+      <c r="AY13" s="3"/>
+      <c r="AZ13" s="3"/>
+      <c r="BA13" s="3"/>
+      <c r="BB13" s="3"/>
+      <c r="BC13" s="3"/>
+      <c r="BD13" s="3"/>
+      <c r="BE13" s="3"/>
+      <c r="BF13" s="3"/>
+      <c r="BG13" s="3"/>
+      <c r="BH13" s="3"/>
+      <c r="BI13" s="3"/>
+      <c r="BJ13" s="3"/>
+      <c r="BK13" s="3"/>
+      <c r="BL13" s="3"/>
+      <c r="BM13" s="3"/>
+      <c r="BN13" s="3"/>
+      <c r="BO13" s="3"/>
+      <c r="BP13" s="3"/>
+      <c r="BQ13" s="3"/>
+      <c r="BR13" s="3"/>
+      <c r="BS13" s="3"/>
+      <c r="BT13" s="3"/>
+      <c r="BU13" s="3"/>
+      <c r="BV13" s="3"/>
+      <c r="BW13" s="3"/>
+      <c r="BX13" s="3"/>
+      <c r="BY13" s="3"/>
+      <c r="BZ13" s="3"/>
+      <c r="CA13" s="3"/>
+      <c r="CB13" s="3"/>
+      <c r="CC13" s="3"/>
+      <c r="CD13" s="3"/>
+      <c r="CE13" s="3"/>
+      <c r="CF13" s="3"/>
+      <c r="CG13" s="3"/>
+      <c r="CH13" s="3"/>
+      <c r="CI13" s="3"/>
+      <c r="CJ13" s="3"/>
+      <c r="CK13" s="3"/>
+      <c r="CL13" s="3"/>
+      <c r="CM13" s="3"/>
+      <c r="CN13" s="3"/>
+      <c r="CO13" s="3"/>
+      <c r="CP13" s="3"/>
+      <c r="CQ13" s="3"/>
+      <c r="CR13" s="3"/>
+      <c r="CS13" s="3"/>
+      <c r="CT13" s="3"/>
+      <c r="CU13" s="3"/>
+      <c r="CV13" s="3"/>
+      <c r="CW13" s="3"/>
+      <c r="CX13" s="3"/>
+      <c r="CY13" s="3"/>
+      <c r="CZ13" s="3"/>
+      <c r="DA13" s="3"/>
+      <c r="DB13" s="3"/>
+      <c r="DC13" s="3"/>
+    </row>
+    <row r="14" spans="1:107" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D14" s="3">
         <f>ROUNDDOWN((875000/F1)*H1,0)</f>
         <v>877</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E14" s="3">
         <v>4</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F14" s="3">
         <v>2</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G14" s="3">
         <v>1</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H14" s="3">
         <f>ROUNDDOWN(458569/F1*H1,0)</f>
         <v>459</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K14" s="3">
         <v>0.28699999999999998</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L14" s="3">
         <v>0.67800000000000005</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M14" s="3">
         <v>2</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N14" s="3">
         <f>ROUNDDOWN(391333/F1*H1,0)</f>
         <v>392</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q14" s="3">
         <v>0.317</v>
       </c>
-      <c r="R3" s="3">
+      <c r="R14" s="3">
         <v>0.64100000000000001</v>
       </c>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="1"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="3"/>
+      <c r="AL14" s="3"/>
+      <c r="AM14" s="3"/>
+      <c r="AN14" s="3"/>
+      <c r="AO14" s="3"/>
+      <c r="AP14" s="3"/>
+      <c r="AQ14" s="3"/>
+      <c r="AR14" s="3"/>
+      <c r="AS14" s="3"/>
+      <c r="AT14" s="3"/>
+      <c r="AU14" s="3"/>
+      <c r="AV14" s="3"/>
+      <c r="AW14" s="3"/>
+      <c r="AX14" s="3"/>
+      <c r="AY14" s="3"/>
+      <c r="AZ14" s="3"/>
+      <c r="BA14" s="3"/>
+      <c r="BB14" s="3"/>
+      <c r="BC14" s="3"/>
+      <c r="BD14" s="3"/>
+      <c r="BE14" s="3"/>
+      <c r="BF14" s="3"/>
+      <c r="BG14" s="3"/>
+      <c r="BH14" s="3"/>
+      <c r="BI14" s="3"/>
+      <c r="BJ14" s="3"/>
+      <c r="BK14" s="3"/>
+      <c r="BL14" s="3"/>
+      <c r="BM14" s="3"/>
+      <c r="BN14" s="3"/>
+      <c r="BO14" s="3"/>
+      <c r="BP14" s="3"/>
+      <c r="BQ14" s="3"/>
+      <c r="BR14" s="3"/>
+      <c r="BS14" s="3"/>
+      <c r="BT14" s="3"/>
+      <c r="BU14" s="3"/>
+      <c r="BV14" s="3"/>
+      <c r="BW14" s="3"/>
+      <c r="BX14" s="3"/>
+      <c r="BY14" s="3"/>
+      <c r="BZ14" s="3"/>
+      <c r="CA14" s="3"/>
+      <c r="CB14" s="3"/>
+      <c r="CC14" s="3"/>
+      <c r="CD14" s="3"/>
+      <c r="CE14" s="3"/>
+      <c r="CF14" s="3"/>
+      <c r="CG14" s="3"/>
+      <c r="CH14" s="3"/>
+      <c r="CI14" s="3"/>
+      <c r="CJ14" s="3"/>
+      <c r="CK14" s="3"/>
+      <c r="CL14" s="3"/>
+      <c r="CM14" s="3"/>
+      <c r="CN14" s="3"/>
+      <c r="CO14" s="3"/>
+      <c r="CP14" s="3"/>
+      <c r="CQ14" s="3"/>
+      <c r="CR14" s="3"/>
+      <c r="CS14" s="3"/>
+      <c r="CT14" s="3"/>
+      <c r="CU14" s="3"/>
+      <c r="CV14" s="3"/>
+      <c r="CW14" s="3"/>
+      <c r="CX14" s="3"/>
+      <c r="CY14" s="3"/>
+      <c r="CZ14" s="3"/>
+      <c r="DA14" s="3"/>
+      <c r="DB14" s="3"/>
+      <c r="DC14" s="3"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="15" spans="1:107" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="3"/>
+      <c r="AK15" s="3"/>
+      <c r="AL15" s="3"/>
+      <c r="AM15" s="3"/>
+      <c r="AN15" s="3"/>
+      <c r="AO15" s="3"/>
+      <c r="AP15" s="3"/>
+      <c r="AQ15" s="3"/>
+      <c r="AR15" s="3"/>
+      <c r="AS15" s="3"/>
+      <c r="AT15" s="3"/>
+      <c r="AU15" s="3"/>
+      <c r="AV15" s="3"/>
+      <c r="AW15" s="3"/>
+      <c r="AX15" s="3"/>
+      <c r="AY15" s="3"/>
+      <c r="AZ15" s="3"/>
+      <c r="BA15" s="3"/>
+      <c r="BB15" s="3"/>
+      <c r="BC15" s="3"/>
+      <c r="BD15" s="3"/>
+      <c r="BE15" s="3"/>
+      <c r="BF15" s="3"/>
+      <c r="BG15" s="3"/>
+      <c r="BH15" s="3"/>
+      <c r="BI15" s="3"/>
+      <c r="BJ15" s="3"/>
+      <c r="BK15" s="3"/>
+      <c r="BL15" s="3"/>
+      <c r="BM15" s="3"/>
+      <c r="BN15" s="3"/>
+      <c r="BO15" s="3"/>
+      <c r="BP15" s="3"/>
+      <c r="BQ15" s="3"/>
+      <c r="BR15" s="3"/>
+      <c r="BS15" s="3"/>
+      <c r="BT15" s="3"/>
+      <c r="BU15" s="3"/>
+      <c r="BV15" s="3"/>
+      <c r="BW15" s="3"/>
+      <c r="BX15" s="3"/>
+      <c r="BY15" s="3"/>
+      <c r="BZ15" s="3"/>
+      <c r="CA15" s="3"/>
+      <c r="CB15" s="3"/>
+      <c r="CC15" s="3"/>
+      <c r="CD15" s="3"/>
+      <c r="CE15" s="3"/>
+      <c r="CF15" s="3"/>
+      <c r="CG15" s="3"/>
+      <c r="CH15" s="3"/>
+      <c r="CI15" s="3"/>
+      <c r="CJ15" s="3"/>
+      <c r="CK15" s="3"/>
+      <c r="CL15" s="3"/>
+      <c r="CM15" s="3"/>
+      <c r="CN15" s="3"/>
+      <c r="CO15" s="3"/>
+      <c r="CP15" s="3"/>
+      <c r="CQ15" s="3"/>
+      <c r="CR15" s="3"/>
+      <c r="CS15" s="3"/>
+      <c r="CT15" s="3"/>
+      <c r="CU15" s="3"/>
+      <c r="CV15" s="3"/>
+      <c r="CW15" s="3"/>
+      <c r="CX15" s="3"/>
+      <c r="CY15" s="3"/>
+      <c r="CZ15" s="3"/>
+      <c r="DA15" s="3"/>
+      <c r="DB15" s="3"/>
+      <c r="DC15" s="3"/>
+    </row>
+    <row r="16" spans="1:107" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="3">
+        <f>ROUNDDOWN(3068542/F1*H1,0)</f>
+        <v>3077</v>
+      </c>
+      <c r="E16" s="3">
+        <v>11</v>
+      </c>
+      <c r="F16" s="3">
+        <v>9</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3">
+        <f>ROUNDDOWN((185180+132247+9521)/F1*H1,0)</f>
+        <v>327</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="M16" s="3">
+        <v>2</v>
+      </c>
+      <c r="N16" s="3">
+        <f>ROUNDDOWN((183601+114967)/F1*H1,0)</f>
+        <v>299</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="R16" s="3">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="S16" s="3">
+        <v>3</v>
+      </c>
+      <c r="T16" s="3">
+        <f>ROUNDDOWN((220989+104762)/F1*H1,0)</f>
+        <v>326</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="W16" s="3">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="X16" s="3">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>4</v>
+      </c>
+      <c r="Z16" s="3">
+        <f>ROUNDDOWN((225531+112954)/F1*H1,0)</f>
+        <v>339</v>
+      </c>
+      <c r="AA16" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB16" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC16" s="3">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="AD16" s="3">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="AE16" s="3">
+        <v>5</v>
+      </c>
+      <c r="AF16" s="3">
+        <f>ROUNDDOWN((208212+191226+16788)/F1*H1,0)</f>
+        <v>417</v>
+      </c>
+      <c r="AG16" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH16" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI16" s="3">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="AJ16" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AK16" s="3">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="AL16" s="3">
+        <f>ROUNDDOWN((225319+91103+11791)/F1*H1,0)</f>
+        <v>329</v>
+      </c>
+      <c r="AM16" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AN16" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AO16" s="3">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="AP16" s="3">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="AQ16" s="3">
+        <v>7</v>
+      </c>
+      <c r="AR16" s="3">
+        <f>ROUNDDOWN((176422+106146)/F1*H1,0)</f>
+        <v>283</v>
+      </c>
+      <c r="AS16" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AT16" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AU16" s="3">
+        <v>0.624</v>
+      </c>
+      <c r="AV16" s="3">
+        <v>0.376</v>
+      </c>
+      <c r="AW16" s="3">
+        <v>8</v>
+      </c>
+      <c r="AX16" s="3">
+        <f>ROUNDDOWN((214643+95691+10283)/F1*H1,0)</f>
+        <v>321</v>
+      </c>
+      <c r="AY16" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AZ16" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="BA16" s="3">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="BB16" s="3">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="BC16" s="3">
+        <v>9</v>
+      </c>
+      <c r="BD16" s="3">
+        <f>ROUNDDOWN((222057+122566+14415)/F1*H1,0)</f>
+        <v>360</v>
+      </c>
+      <c r="BE16" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="BF16" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="BG16" s="3">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="BH16" s="3">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="BI16" s="3"/>
+      <c r="BJ16" s="3"/>
+      <c r="BK16" s="3"/>
+      <c r="BL16" s="3"/>
+      <c r="BM16" s="3"/>
+      <c r="BN16" s="3"/>
+      <c r="BO16" s="3"/>
+      <c r="BP16" s="3"/>
+      <c r="BQ16" s="3"/>
+      <c r="BR16" s="3"/>
+      <c r="BS16" s="3"/>
+      <c r="BT16" s="3"/>
+      <c r="BU16" s="3"/>
+      <c r="BV16" s="3"/>
+      <c r="BW16" s="3"/>
+      <c r="BX16" s="3"/>
+      <c r="BY16" s="3"/>
+      <c r="BZ16" s="3"/>
+      <c r="CA16" s="3"/>
+      <c r="CB16" s="3"/>
+      <c r="CC16" s="3"/>
+      <c r="CD16" s="3"/>
+      <c r="CE16" s="3"/>
+      <c r="CF16" s="3"/>
+      <c r="CG16" s="3"/>
+      <c r="CH16" s="3"/>
+      <c r="CI16" s="3"/>
+      <c r="CJ16" s="3"/>
+      <c r="CK16" s="3"/>
+      <c r="CL16" s="3"/>
+      <c r="CM16" s="3"/>
+      <c r="CN16" s="3"/>
+      <c r="CO16" s="3"/>
+      <c r="CP16" s="3"/>
+      <c r="CQ16" s="3"/>
+      <c r="CR16" s="3"/>
+      <c r="CS16" s="3"/>
+      <c r="CT16" s="3"/>
+      <c r="CU16" s="3"/>
+      <c r="CV16" s="3"/>
+      <c r="CW16" s="3"/>
+      <c r="CX16" s="3"/>
+      <c r="CY16" s="3"/>
+      <c r="CZ16" s="3"/>
+      <c r="DA16" s="3"/>
+      <c r="DB16" s="3"/>
+      <c r="DC16" s="3"/>
+    </row>
+    <row r="17" spans="1:107" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D17" s="3">
+        <f>ROUNDDOWN(1700130/F1*H1,0)</f>
+        <v>1704</v>
+      </c>
+      <c r="E17" s="3">
+        <v>6</v>
+      </c>
+      <c r="F17" s="3">
+        <v>4</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3">
+        <f>ROUNDDOWN(413869/F1*H1,0)</f>
+        <v>415</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="M17" s="3">
+        <v>2</v>
+      </c>
+      <c r="N17" s="3">
+        <f>ROUNDDOWN(394441/F1*H1,0)</f>
+        <v>395</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0.49909999999999999</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0.49909999999999999</v>
+      </c>
+      <c r="S17" s="3">
+        <v>3</v>
+      </c>
+      <c r="T17" s="3">
+        <f>ROUNDDOWN(447947/F1*H1,0)</f>
+        <v>449</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="W17" s="3">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="X17" s="3">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>4</v>
+      </c>
+      <c r="Z17" s="3">
+        <f>ROUNDDOWN(383022/F1*H1,0)</f>
+        <v>384</v>
+      </c>
+      <c r="AA17" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB17" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>0.377</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="3"/>
+      <c r="AL17" s="3"/>
+      <c r="AM17" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AN17" s="3"/>
+      <c r="AO17" s="3"/>
+      <c r="AP17" s="3"/>
+      <c r="AQ17" s="3"/>
+      <c r="AR17" s="3"/>
+      <c r="AS17" s="3"/>
+      <c r="AT17" s="3"/>
+      <c r="AU17" s="3"/>
+      <c r="AV17" s="3"/>
+      <c r="AW17" s="3"/>
+      <c r="AX17" s="3"/>
+      <c r="AY17" s="3"/>
+      <c r="AZ17" s="3"/>
+      <c r="BA17" s="3"/>
+      <c r="BB17" s="3"/>
+      <c r="BC17" s="3"/>
+      <c r="BD17" s="3"/>
+      <c r="BE17" s="3"/>
+      <c r="BF17" s="3"/>
+      <c r="BG17" s="3"/>
+      <c r="BH17" s="3"/>
+      <c r="BI17" s="3"/>
+      <c r="BJ17" s="3"/>
+      <c r="BK17" s="3"/>
+      <c r="BL17" s="3"/>
+      <c r="BM17" s="3"/>
+      <c r="BN17" s="3"/>
+      <c r="BO17" s="3"/>
+      <c r="BP17" s="3"/>
+      <c r="BQ17" s="3"/>
+      <c r="BR17" s="3"/>
+      <c r="BS17" s="3"/>
+      <c r="BT17" s="3"/>
+      <c r="BU17" s="3"/>
+      <c r="BV17" s="3"/>
+      <c r="BW17" s="3"/>
+      <c r="BX17" s="3"/>
+      <c r="BY17" s="3"/>
+      <c r="BZ17" s="3"/>
+      <c r="CA17" s="3"/>
+      <c r="CB17" s="3"/>
+      <c r="CC17" s="3"/>
+      <c r="CD17" s="3"/>
+      <c r="CE17" s="3"/>
+      <c r="CF17" s="3"/>
+      <c r="CG17" s="3"/>
+      <c r="CH17" s="3"/>
+      <c r="CI17" s="3"/>
+      <c r="CJ17" s="3"/>
+      <c r="CK17" s="3"/>
+      <c r="CL17" s="3"/>
+      <c r="CM17" s="3"/>
+      <c r="CN17" s="3"/>
+      <c r="CO17" s="3"/>
+      <c r="CP17" s="3"/>
+      <c r="CQ17" s="3"/>
+      <c r="CR17" s="3"/>
+      <c r="CS17" s="3"/>
+      <c r="CT17" s="3"/>
+      <c r="CU17" s="3"/>
+      <c r="CV17" s="3"/>
+      <c r="CW17" s="3"/>
+      <c r="CX17" s="3"/>
+      <c r="CY17" s="3"/>
+      <c r="CZ17" s="3"/>
+      <c r="DA17" s="3"/>
+      <c r="DB17" s="3"/>
+      <c r="DC17" s="3"/>
+    </row>
+    <row r="18" spans="1:107" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18" s="3">
+        <f>ROUNDDOWN(1375125/F1*H1,0)</f>
+        <v>1379</v>
+      </c>
+      <c r="E18" s="3">
+        <v>6</v>
+      </c>
+      <c r="F18" s="3">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3">
+        <f>ROUNDDOWN((208229+84393)/F1*H1,0)</f>
+        <v>293</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="M18" s="3">
+        <v>2</v>
+      </c>
+      <c r="N18" s="3">
+        <f>ROUNDDOWN((185464+136650+14201)/F1*H1,0)</f>
+        <v>337</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="S18" s="3">
+        <v>3</v>
+      </c>
+      <c r="T18" s="3">
+        <f>ROUNDDOWN((220049+178773+11596)/F1*H1,0)</f>
+        <v>411</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="W18" s="3">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="X18" s="3">
+        <v>0.435</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>4</v>
+      </c>
+      <c r="Z18" s="3">
+        <f>ROUNDDOWN((203432+116166)/F1*H1,0)</f>
+        <v>320</v>
+      </c>
+      <c r="AA18" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB18" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="3"/>
+      <c r="AI18" s="3"/>
+      <c r="AJ18" s="3"/>
+      <c r="AK18" s="3"/>
+      <c r="AL18" s="3"/>
+      <c r="AM18" s="3"/>
+      <c r="AN18" s="3"/>
+      <c r="AO18" s="3"/>
+      <c r="AP18" s="3"/>
+      <c r="AQ18" s="3"/>
+      <c r="AR18" s="3"/>
+      <c r="AS18" s="3"/>
+      <c r="AT18" s="3"/>
+      <c r="AU18" s="3"/>
+      <c r="AV18" s="3"/>
+      <c r="AW18" s="3"/>
+      <c r="AX18" s="3"/>
+      <c r="AY18" s="3"/>
+      <c r="AZ18" s="3"/>
+      <c r="BA18" s="3"/>
+      <c r="BB18" s="3"/>
+      <c r="BC18" s="3"/>
+      <c r="BD18" s="3"/>
+      <c r="BE18" s="3"/>
+      <c r="BF18" s="3"/>
+      <c r="BG18" s="3"/>
+      <c r="BH18" s="3"/>
+      <c r="BI18" s="3"/>
+      <c r="BJ18" s="3"/>
+      <c r="BK18" s="3"/>
+      <c r="BL18" s="3"/>
+      <c r="BM18" s="3"/>
+      <c r="BN18" s="3"/>
+      <c r="BO18" s="3"/>
+      <c r="BP18" s="3"/>
+      <c r="BQ18" s="3"/>
+      <c r="BR18" s="3"/>
+      <c r="BS18" s="3"/>
+      <c r="BT18" s="3"/>
+      <c r="BU18" s="3"/>
+      <c r="BV18" s="3"/>
+      <c r="BW18" s="3"/>
+      <c r="BX18" s="3"/>
+      <c r="BY18" s="3"/>
+      <c r="BZ18" s="3"/>
+      <c r="CA18" s="3"/>
+      <c r="CB18" s="3"/>
+      <c r="CC18" s="3"/>
+      <c r="CD18" s="3"/>
+      <c r="CE18" s="3"/>
+      <c r="CF18" s="3"/>
+      <c r="CG18" s="3"/>
+      <c r="CH18" s="3"/>
+      <c r="CI18" s="3"/>
+      <c r="CJ18" s="3"/>
+      <c r="CK18" s="3"/>
+      <c r="CL18" s="3"/>
+      <c r="CM18" s="3"/>
+      <c r="CN18" s="3"/>
+      <c r="CO18" s="3"/>
+      <c r="CP18" s="3"/>
+      <c r="CQ18" s="3"/>
+      <c r="CR18" s="3"/>
+      <c r="CS18" s="3"/>
+      <c r="CT18" s="3"/>
+      <c r="CU18" s="3"/>
+      <c r="CV18" s="3"/>
+      <c r="CW18" s="3"/>
+      <c r="CX18" s="3"/>
+      <c r="CY18" s="3"/>
+      <c r="CZ18" s="3"/>
+      <c r="DA18" s="3"/>
+      <c r="DB18" s="3"/>
+      <c r="DC18" s="3"/>
+    </row>
+    <row r="19" spans="1:107" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D19" s="3">
+        <f>ROUNDDOWN(2150954/F1*H1,0)</f>
+        <v>2157</v>
+      </c>
+      <c r="E19" s="3">
+        <v>8</v>
+      </c>
+      <c r="F19" s="3">
+        <v>6</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3">
+        <f>ROUNDDOWN((246329+82141)/F1*H1,0)</f>
+        <v>329</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="M19" s="3">
+        <v>2</v>
+      </c>
+      <c r="N19" s="3">
+        <f>ROUNDDOWN(360399/F1*H1,0)</f>
+        <v>361</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="R19" s="3">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="S19" s="3">
+        <v>3</v>
+      </c>
+      <c r="T19" s="3">
+        <f>ROUNDDOWN(368097/F1*H1,0)</f>
+        <v>369</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="W19" s="3">
+        <v>0.627</v>
+      </c>
+      <c r="X19" s="3">
+        <v>0.373</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>4</v>
+      </c>
+      <c r="Z19" s="3">
+        <f>ROUNDDOWN(382509/F1*H1,0)</f>
+        <v>383</v>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB19" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC19" s="3">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="AD19" s="3">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="AE19" s="3">
+        <v>5</v>
+      </c>
+      <c r="AF19" s="3">
+        <f>ROUNDDOWN(297970/F1*H1,0)</f>
+        <v>298</v>
+      </c>
+      <c r="AG19" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="AH19" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="AI19" s="3">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="AJ19" s="3">
+        <v>0.158</v>
+      </c>
+      <c r="AK19" s="3">
+        <v>6</v>
+      </c>
+      <c r="AL19" s="3">
+        <f>ROUNDDOWN(378450/F1*H1,0)</f>
+        <v>379</v>
+      </c>
+      <c r="AM19" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AN19" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="AO19" s="3">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="AP19" s="3">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="AQ19" s="3"/>
+      <c r="AR19" s="3"/>
+      <c r="AS19" s="3"/>
+      <c r="AT19" s="3"/>
+      <c r="AU19" s="3"/>
+      <c r="AV19" s="3"/>
+      <c r="AW19" s="3"/>
+      <c r="AX19" s="3"/>
+      <c r="AY19" s="3"/>
+      <c r="AZ19" s="3"/>
+      <c r="BA19" s="3"/>
+      <c r="BB19" s="3"/>
+      <c r="BC19" s="3"/>
+      <c r="BD19" s="3"/>
+      <c r="BE19" s="3"/>
+      <c r="BF19" s="3"/>
+      <c r="BG19" s="3"/>
+      <c r="BH19" s="3"/>
+      <c r="BI19" s="3"/>
+      <c r="BJ19" s="3"/>
+      <c r="BK19" s="3"/>
+      <c r="BL19" s="3"/>
+      <c r="BM19" s="3"/>
+      <c r="BN19" s="3"/>
+      <c r="BO19" s="3"/>
+      <c r="BP19" s="3"/>
+      <c r="BQ19" s="3"/>
+      <c r="BR19" s="3"/>
+      <c r="BS19" s="3"/>
+      <c r="BT19" s="3"/>
+      <c r="BU19" s="3"/>
+      <c r="BV19" s="3"/>
+      <c r="BW19" s="3"/>
+      <c r="BX19" s="3"/>
+      <c r="BY19" s="3"/>
+      <c r="BZ19" s="3"/>
+      <c r="CA19" s="3"/>
+      <c r="CB19" s="3"/>
+      <c r="CC19" s="3"/>
+      <c r="CD19" s="3"/>
+      <c r="CE19" s="3"/>
+      <c r="CF19" s="3"/>
+      <c r="CG19" s="3"/>
+      <c r="CH19" s="3"/>
+      <c r="CI19" s="3"/>
+      <c r="CJ19" s="3"/>
+      <c r="CK19" s="3"/>
+      <c r="CL19" s="3"/>
+      <c r="CM19" s="3"/>
+      <c r="CN19" s="3"/>
+      <c r="CO19" s="3"/>
+      <c r="CP19" s="3"/>
+      <c r="CQ19" s="3"/>
+      <c r="CR19" s="3"/>
+      <c r="CS19" s="3"/>
+      <c r="CT19" s="3"/>
+      <c r="CU19" s="3"/>
+      <c r="CV19" s="3"/>
+      <c r="CW19" s="3"/>
+      <c r="CX19" s="3"/>
+      <c r="CY19" s="3"/>
+      <c r="CZ19" s="3"/>
+      <c r="DA19" s="3"/>
+      <c r="DB19" s="3"/>
+      <c r="DC19" s="3"/>
+    </row>
+    <row r="20" spans="1:107" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D20" s="3">
+        <f>ROUNDDOWN(2180000/F1*H1,0)</f>
+        <v>2186</v>
+      </c>
+      <c r="E20" s="3">
+        <v>8</v>
+      </c>
+      <c r="F20" s="3">
+        <v>6</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3">
+        <f>ROUNDDOWN(374369/F1*H1,0)</f>
+        <v>375</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0.72</v>
+      </c>
+      <c r="M20" s="3">
+        <v>2</v>
+      </c>
+      <c r="N20" s="3">
+        <f>ROUNDDOWN(316982/F1*H1,0)</f>
+        <v>317</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0.64</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="S20" s="3">
+        <v>3</v>
+      </c>
+      <c r="T20" s="3">
+        <f>ROUNDDOWN(340120/F1*H1,0)</f>
+        <v>341</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0.68</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>4</v>
+      </c>
+      <c r="Z20" s="3">
+        <f>ROUNDDOWN(306578/F1*H1,0)</f>
+        <v>307</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB20" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>5</v>
+      </c>
+      <c r="AF20" s="3">
+        <f>ROUNDDOWN(309556/F1*H1,0)</f>
+        <v>310</v>
+      </c>
+      <c r="AG20" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="AH20" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AI20" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="AJ20" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="AK20" s="3">
+        <v>6</v>
+      </c>
+      <c r="AL20" s="3">
+        <f>ROUNDDOWN(373996/F1*H1,0)</f>
+        <v>375</v>
+      </c>
+      <c r="AM20" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AN20" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="AO20" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="AP20" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="AQ20" s="3"/>
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="3"/>
+      <c r="AT20" s="3"/>
+      <c r="AU20" s="3"/>
+      <c r="AV20" s="3"/>
+      <c r="AW20" s="3"/>
+      <c r="AX20" s="3"/>
+      <c r="AY20" s="3"/>
+      <c r="AZ20" s="3"/>
+      <c r="BA20" s="3"/>
+      <c r="BB20" s="3"/>
+      <c r="BC20" s="3"/>
+      <c r="BD20" s="3"/>
+      <c r="BE20" s="3"/>
+      <c r="BF20" s="3"/>
+      <c r="BG20" s="3"/>
+      <c r="BH20" s="3"/>
+      <c r="BI20" s="3"/>
+      <c r="BJ20" s="3"/>
+      <c r="BK20" s="3"/>
+      <c r="BL20" s="3"/>
+      <c r="BM20" s="3"/>
+      <c r="BN20" s="3"/>
+      <c r="BO20" s="3"/>
+      <c r="BP20" s="3"/>
+      <c r="BQ20" s="3"/>
+      <c r="BR20" s="3"/>
+      <c r="BS20" s="3"/>
+      <c r="BT20" s="3"/>
+      <c r="BU20" s="3"/>
+      <c r="BV20" s="3"/>
+      <c r="BW20" s="3"/>
+      <c r="BX20" s="3"/>
+      <c r="BY20" s="3"/>
+      <c r="BZ20" s="3"/>
+      <c r="CA20" s="3"/>
+      <c r="CB20" s="3"/>
+      <c r="CC20" s="3"/>
+      <c r="CD20" s="3"/>
+      <c r="CE20" s="3"/>
+      <c r="CF20" s="3"/>
+      <c r="CG20" s="3"/>
+      <c r="CH20" s="3"/>
+      <c r="CI20" s="3"/>
+      <c r="CJ20" s="3"/>
+      <c r="CK20" s="3"/>
+      <c r="CL20" s="3"/>
+      <c r="CM20" s="3"/>
+      <c r="CN20" s="3"/>
+      <c r="CO20" s="3"/>
+      <c r="CP20" s="3"/>
+      <c r="CQ20" s="3"/>
+      <c r="CR20" s="3"/>
+      <c r="CS20" s="3"/>
+      <c r="CT20" s="3"/>
+      <c r="CU20" s="3"/>
+      <c r="CV20" s="3"/>
+      <c r="CW20" s="3"/>
+      <c r="CX20" s="3"/>
+      <c r="CY20" s="3"/>
+      <c r="CZ20" s="3"/>
+      <c r="DA20" s="3"/>
+      <c r="DB20" s="3"/>
+      <c r="DC20" s="3"/>
+    </row>
+    <row r="21" spans="1:107" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D21" s="3">
+        <f>ROUNDDOWN(828305/F1*H1,0)</f>
+        <v>830</v>
+      </c>
+      <c r="E21" s="3">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
+        <v>2</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3">
+        <f>ROUNDDOWN(447987/F1*H1,0)</f>
+        <v>449</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="M21" s="3">
+        <v>2</v>
+      </c>
+      <c r="N21" s="3">
+        <f>ROUNDDOWN(380324/F1*H1,0)</f>
+        <v>381</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3"/>
+      <c r="AM21" s="3"/>
+      <c r="AN21" s="3"/>
+      <c r="AO21" s="3"/>
+      <c r="AP21" s="3"/>
+      <c r="AQ21" s="3"/>
+      <c r="AR21" s="3"/>
+      <c r="AS21" s="3"/>
+      <c r="AT21" s="3"/>
+      <c r="AU21" s="3"/>
+      <c r="AV21" s="3"/>
+      <c r="AW21" s="3"/>
+      <c r="AX21" s="3"/>
+      <c r="AY21" s="3"/>
+      <c r="AZ21" s="3"/>
+      <c r="BA21" s="3"/>
+      <c r="BB21" s="3"/>
+      <c r="BC21" s="3"/>
+      <c r="BD21" s="3"/>
+      <c r="BE21" s="3"/>
+      <c r="BF21" s="3"/>
+      <c r="BG21" s="3"/>
+      <c r="BH21" s="3"/>
+      <c r="BI21" s="3"/>
+      <c r="BJ21" s="3"/>
+      <c r="BK21" s="3"/>
+      <c r="BL21" s="3"/>
+      <c r="BM21" s="3"/>
+      <c r="BN21" s="3"/>
+      <c r="BO21" s="3"/>
+      <c r="BP21" s="3"/>
+      <c r="BQ21" s="3"/>
+      <c r="BR21" s="3"/>
+      <c r="BS21" s="3"/>
+      <c r="BT21" s="3"/>
+      <c r="BU21" s="3"/>
+      <c r="BV21" s="3"/>
+      <c r="BW21" s="3"/>
+      <c r="BX21" s="3"/>
+      <c r="BY21" s="3"/>
+      <c r="BZ21" s="3"/>
+      <c r="CA21" s="3"/>
+      <c r="CB21" s="3"/>
+      <c r="CC21" s="3"/>
+      <c r="CD21" s="3"/>
+      <c r="CE21" s="3"/>
+      <c r="CF21" s="3"/>
+      <c r="CG21" s="3"/>
+      <c r="CH21" s="3"/>
+      <c r="CI21" s="3"/>
+      <c r="CJ21" s="3"/>
+      <c r="CK21" s="3"/>
+      <c r="CL21" s="3"/>
+      <c r="CM21" s="3"/>
+      <c r="CN21" s="3"/>
+      <c r="CO21" s="3"/>
+      <c r="CP21" s="3"/>
+      <c r="CQ21" s="3"/>
+      <c r="CR21" s="3"/>
+      <c r="CS21" s="3"/>
+      <c r="CT21" s="3"/>
+      <c r="CU21" s="3"/>
+      <c r="CV21" s="3"/>
+      <c r="CW21" s="3"/>
+      <c r="CX21" s="3"/>
+      <c r="CY21" s="3"/>
+      <c r="CZ21" s="3"/>
+      <c r="DA21" s="3"/>
+      <c r="DB21" s="3"/>
+      <c r="DC21" s="3"/>
+    </row>
+    <row r="22" spans="1:107" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4">
+      <c r="D22" s="3">
+        <f>ROUNDDOWN(2975000/F1*H1,0)</f>
+        <v>2983</v>
+      </c>
+      <c r="E22" s="3">
+        <v>10</v>
+      </c>
+      <c r="F22" s="3">
+        <v>8</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3">
+        <f>ROUNDDOWN((250901+143877+746)/F1*H1,0)</f>
+        <v>396</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="M22" s="3">
+        <v>2</v>
+      </c>
+      <c r="N22" s="3">
+        <f>ROUNDDOWN((106355+244836+835)/F1*H1,0)</f>
+        <v>353</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="S22" s="3">
+        <v>3</v>
+      </c>
+      <c r="T22" s="3">
+        <f>ROUNDDOWN((112117+260358+731)/F1*H1,0)</f>
+        <v>374</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>4</v>
+      </c>
+      <c r="Z22" s="3">
+        <f>ROUNDDOWN((71671+282119)/F1*H1,0)</f>
+        <v>354</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB22" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>5</v>
+      </c>
+      <c r="AF22" s="3">
+        <f>ROUNDDOWN((123535+274210+1104)/F1*H1,0)</f>
+        <v>399</v>
+      </c>
+      <c r="AG22" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="AH22" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="AI22" s="3">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="AJ22" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="AK22" s="3">
+        <v>6</v>
+      </c>
+      <c r="AL22" s="3">
+        <f>ROUNDDOWN((143599+215540+6893+46+356)/F1*H1,0)</f>
+        <v>367</v>
+      </c>
+      <c r="AM22" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN22" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="AO22" s="3">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="AP22" s="3">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="AQ22" s="3">
+        <v>7</v>
+      </c>
+      <c r="AR22" s="3">
+        <f>ROUNDDOWN((92825+237084+16+21+1052)/F1*H1,0)</f>
+        <v>331</v>
+      </c>
+      <c r="AS22" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="AT22" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="AU22" s="3">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="AV22" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AW22" s="3">
+        <v>8</v>
+      </c>
+      <c r="AX22" s="3">
+        <f>ROUNDDOWN((55383+55452+5+213)/F1*H1,0)</f>
+        <v>111</v>
+      </c>
+      <c r="AY22" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="AZ22" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="BA22" s="3">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="BB22" s="3">
+        <v>0.316</v>
+      </c>
+      <c r="BC22" s="3"/>
+      <c r="BD22" s="3"/>
+      <c r="BE22" s="3"/>
+      <c r="BF22" s="3"/>
+      <c r="BG22" s="3"/>
+      <c r="BH22" s="3"/>
+      <c r="BI22" s="3"/>
+      <c r="BJ22" s="3"/>
+      <c r="BK22" s="3"/>
+      <c r="BL22" s="3"/>
+      <c r="BM22" s="3"/>
+      <c r="BN22" s="3"/>
+      <c r="BO22" s="3"/>
+      <c r="BP22" s="3"/>
+      <c r="BQ22" s="3"/>
+      <c r="BR22" s="3"/>
+      <c r="BS22" s="3"/>
+      <c r="BT22" s="3"/>
+      <c r="BU22" s="3"/>
+      <c r="BV22" s="3"/>
+      <c r="BW22" s="3"/>
+      <c r="BX22" s="3"/>
+      <c r="BY22" s="3"/>
+      <c r="BZ22" s="3"/>
+      <c r="CA22" s="3"/>
+      <c r="CB22" s="3"/>
+      <c r="CC22" s="3"/>
+      <c r="CD22" s="3"/>
+      <c r="CE22" s="3"/>
+      <c r="CF22" s="3"/>
+      <c r="CG22" s="3"/>
+      <c r="CH22" s="3"/>
+      <c r="CI22" s="3"/>
+      <c r="CJ22" s="3"/>
+      <c r="CK22" s="3"/>
+      <c r="CL22" s="3"/>
+      <c r="CM22" s="3"/>
+      <c r="CN22" s="3"/>
+      <c r="CO22" s="3"/>
+      <c r="CP22" s="3"/>
+      <c r="CQ22" s="3"/>
+      <c r="CR22" s="3"/>
+      <c r="CS22" s="3"/>
+      <c r="CT22" s="3"/>
+      <c r="CU22" s="3"/>
+      <c r="CV22" s="3"/>
+      <c r="CW22" s="3"/>
+      <c r="CX22" s="3"/>
+      <c r="CY22" s="3"/>
+      <c r="CZ22" s="3"/>
+      <c r="DA22" s="3"/>
+      <c r="DB22" s="3"/>
+      <c r="DC22" s="3"/>
+    </row>
+    <row r="23" spans="1:107" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D23" s="3">
+        <f>ROUNDDOWN(3658005/F1*H1,0)</f>
+        <v>3668</v>
+      </c>
+      <c r="E23" s="3">
+        <v>11</v>
+      </c>
+      <c r="F23" s="3">
+        <v>9</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3">
+        <f>ROUNDDOWN(372716/F1*H1,0)</f>
+        <v>373</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="L23" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="M23" s="3">
+        <v>2</v>
+      </c>
+      <c r="N23" s="3">
+        <f>ROUNDDOWN(394084/F1*H1,0)</f>
+        <v>395</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="3"/>
+      <c r="AO23" s="3"/>
+      <c r="AP23" s="3"/>
+      <c r="AQ23" s="3"/>
+      <c r="AR23" s="3"/>
+      <c r="AS23" s="3"/>
+      <c r="AT23" s="3"/>
+      <c r="AU23" s="3"/>
+      <c r="AV23" s="3"/>
+      <c r="AW23" s="3"/>
+      <c r="AX23" s="3"/>
+      <c r="AY23" s="3"/>
+      <c r="AZ23" s="3"/>
+      <c r="BA23" s="3"/>
+      <c r="BB23" s="3"/>
+      <c r="BC23" s="3"/>
+      <c r="BD23" s="3"/>
+      <c r="BE23" s="3"/>
+      <c r="BF23" s="3"/>
+      <c r="BG23" s="3"/>
+      <c r="BH23" s="3"/>
+      <c r="BI23" s="3"/>
+      <c r="BJ23" s="3"/>
+      <c r="BK23" s="3"/>
+      <c r="BL23" s="3"/>
+      <c r="BM23" s="3"/>
+      <c r="BN23" s="3"/>
+      <c r="BO23" s="3"/>
+      <c r="BP23" s="3"/>
+      <c r="BQ23" s="3"/>
+      <c r="BR23" s="3"/>
+      <c r="BS23" s="3"/>
+      <c r="BT23" s="3"/>
+      <c r="BU23" s="3"/>
+      <c r="BV23" s="3"/>
+      <c r="BW23" s="3"/>
+      <c r="BX23" s="3"/>
+      <c r="BY23" s="3"/>
+      <c r="BZ23" s="3"/>
+      <c r="CA23" s="3"/>
+      <c r="CB23" s="3"/>
+      <c r="CC23" s="3"/>
+      <c r="CD23" s="3"/>
+      <c r="CE23" s="3"/>
+      <c r="CF23" s="3"/>
+      <c r="CG23" s="3"/>
+      <c r="CH23" s="3"/>
+      <c r="CI23" s="3"/>
+      <c r="CJ23" s="3"/>
+      <c r="CK23" s="3"/>
+      <c r="CL23" s="3"/>
+      <c r="CM23" s="3"/>
+      <c r="CN23" s="3"/>
+      <c r="CO23" s="3"/>
+      <c r="CP23" s="3"/>
+      <c r="CQ23" s="3"/>
+      <c r="CR23" s="3"/>
+      <c r="CS23" s="3"/>
+      <c r="CT23" s="3"/>
+      <c r="CU23" s="3"/>
+      <c r="CV23" s="3"/>
+      <c r="CW23" s="3"/>
+      <c r="CX23" s="3"/>
+      <c r="CY23" s="3"/>
+      <c r="CZ23" s="3"/>
+      <c r="DA23" s="3"/>
+      <c r="DB23" s="3"/>
+      <c r="DC23" s="3"/>
+    </row>
+    <row r="24" spans="1:107" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="3"/>
+      <c r="AO24" s="3"/>
+      <c r="AP24" s="3"/>
+      <c r="AQ24" s="3"/>
+      <c r="AR24" s="3"/>
+      <c r="AS24" s="3"/>
+      <c r="AT24" s="3"/>
+      <c r="AU24" s="3"/>
+      <c r="AV24" s="3"/>
+      <c r="AW24" s="3"/>
+      <c r="AX24" s="3"/>
+      <c r="AY24" s="3"/>
+      <c r="AZ24" s="3"/>
+      <c r="BA24" s="3"/>
+      <c r="BB24" s="3"/>
+      <c r="BC24" s="3"/>
+      <c r="BD24" s="3"/>
+      <c r="BE24" s="3"/>
+      <c r="BF24" s="3"/>
+      <c r="BG24" s="3"/>
+      <c r="BH24" s="3"/>
+      <c r="BI24" s="3"/>
+      <c r="BJ24" s="3"/>
+      <c r="BK24" s="3"/>
+      <c r="BL24" s="3"/>
+      <c r="BM24" s="3"/>
+      <c r="BN24" s="3"/>
+      <c r="BO24" s="3"/>
+      <c r="BP24" s="3"/>
+      <c r="BQ24" s="3"/>
+      <c r="BR24" s="3"/>
+      <c r="BS24" s="3"/>
+      <c r="BT24" s="3"/>
+      <c r="BU24" s="3"/>
+      <c r="BV24" s="3"/>
+      <c r="BW24" s="3"/>
+      <c r="BX24" s="3"/>
+      <c r="BY24" s="3"/>
+      <c r="BZ24" s="3"/>
+      <c r="CA24" s="3"/>
+      <c r="CB24" s="3"/>
+      <c r="CC24" s="3"/>
+      <c r="CD24" s="3"/>
+      <c r="CE24" s="3"/>
+      <c r="CF24" s="3"/>
+      <c r="CG24" s="3"/>
+      <c r="CH24" s="3"/>
+      <c r="CI24" s="3"/>
+      <c r="CJ24" s="3"/>
+      <c r="CK24" s="3"/>
+      <c r="CL24" s="3"/>
+      <c r="CM24" s="3"/>
+      <c r="CN24" s="3"/>
+      <c r="CO24" s="3"/>
+      <c r="CP24" s="3"/>
+      <c r="CQ24" s="3"/>
+      <c r="CR24" s="3"/>
+      <c r="CS24" s="3"/>
+      <c r="CT24" s="3"/>
+      <c r="CU24" s="3"/>
+      <c r="CV24" s="3"/>
+      <c r="CW24" s="3"/>
+      <c r="CX24" s="3"/>
+      <c r="CY24" s="3"/>
+      <c r="CZ24" s="3"/>
+      <c r="DA24" s="3"/>
+      <c r="DB24" s="3"/>
+      <c r="DC24" s="3"/>
+    </row>
+    <row r="25" spans="1:107" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3"/>
+      <c r="AO25" s="3"/>
+      <c r="AP25" s="3"/>
+      <c r="AQ25" s="3"/>
+      <c r="AR25" s="3"/>
+      <c r="AS25" s="3"/>
+      <c r="AT25" s="3"/>
+      <c r="AU25" s="3"/>
+      <c r="AV25" s="3"/>
+      <c r="AW25" s="3"/>
+      <c r="AX25" s="3"/>
+      <c r="AY25" s="3"/>
+      <c r="AZ25" s="3"/>
+      <c r="BA25" s="3"/>
+      <c r="BB25" s="3"/>
+      <c r="BC25" s="3"/>
+      <c r="BD25" s="3"/>
+      <c r="BE25" s="3"/>
+      <c r="BF25" s="3"/>
+      <c r="BG25" s="3"/>
+      <c r="BH25" s="3"/>
+      <c r="BI25" s="3"/>
+      <c r="BJ25" s="3"/>
+      <c r="BK25" s="3"/>
+      <c r="BL25" s="3"/>
+      <c r="BM25" s="3"/>
+      <c r="BN25" s="3"/>
+      <c r="BO25" s="3"/>
+      <c r="BP25" s="3"/>
+      <c r="BQ25" s="3"/>
+      <c r="BR25" s="3"/>
+      <c r="BS25" s="3"/>
+      <c r="BT25" s="3"/>
+      <c r="BU25" s="3"/>
+      <c r="BV25" s="3"/>
+      <c r="BW25" s="3"/>
+      <c r="BX25" s="3"/>
+      <c r="BY25" s="3"/>
+      <c r="BZ25" s="3"/>
+      <c r="CA25" s="3"/>
+      <c r="CB25" s="3"/>
+      <c r="CC25" s="3"/>
+      <c r="CD25" s="3"/>
+      <c r="CE25" s="3"/>
+      <c r="CF25" s="3"/>
+      <c r="CG25" s="3"/>
+      <c r="CH25" s="3"/>
+      <c r="CI25" s="3"/>
+      <c r="CJ25" s="3"/>
+      <c r="CK25" s="3"/>
+      <c r="CL25" s="3"/>
+      <c r="CM25" s="3"/>
+      <c r="CN25" s="3"/>
+      <c r="CO25" s="3"/>
+      <c r="CP25" s="3"/>
+      <c r="CQ25" s="3"/>
+      <c r="CR25" s="3"/>
+      <c r="CS25" s="3"/>
+      <c r="CT25" s="3"/>
+      <c r="CU25" s="3"/>
+      <c r="CV25" s="3"/>
+      <c r="CW25" s="3"/>
+      <c r="CX25" s="3"/>
+      <c r="CY25" s="3"/>
+      <c r="CZ25" s="3"/>
+      <c r="DA25" s="3"/>
+      <c r="DB25" s="3"/>
+      <c r="DC25" s="3"/>
+    </row>
+    <row r="26" spans="1:107" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="3">
         <f>ROUNDDOWN((1407754/F1)*H1,0)</f>
         <v>1411</v>
       </c>
-      <c r="E4">
+      <c r="E26" s="3">
         <v>11</v>
       </c>
-      <c r="F4">
+      <c r="F26" s="3">
         <v>4</v>
       </c>
-      <c r="G4">
+      <c r="G26" s="3">
         <v>1</v>
       </c>
-      <c r="H4">
+      <c r="H26" s="3">
         <f>ROUNDDOWN((137868+74490+6190+4665)/F1*H1,0)</f>
         <v>223</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I26" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J26" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K4">
+      <c r="K26" s="3">
         <v>0.61799999999999999</v>
       </c>
-      <c r="L4">
+      <c r="L26" s="3">
         <v>0.33400000000000002</v>
       </c>
-      <c r="M4">
+      <c r="M26" s="3">
         <v>2</v>
       </c>
-      <c r="N4">
+      <c r="N26" s="3">
         <f>ROUNDDOWN((216078+155780+10815)/F1*H1,0)</f>
         <v>383</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O26" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q4">
+      <c r="Q26" s="3">
         <v>0.40699999999999997</v>
       </c>
-      <c r="R4">
+      <c r="R26" s="3">
         <v>0.56499999999999995</v>
       </c>
-      <c r="S4">
+      <c r="S26" s="3">
         <v>3</v>
       </c>
-      <c r="T4">
+      <c r="T26" s="3">
         <f>ROUNDDOWN((203421+190975+12315+10541)/F1*H1,0)</f>
         <v>418</v>
       </c>
-      <c r="U4" t="s">
+      <c r="U26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="V4" t="s">
+      <c r="V26" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W4">
+      <c r="W26" s="3">
         <v>0.48799999999999999</v>
       </c>
-      <c r="X4">
+      <c r="X26" s="3">
         <v>0.45800000000000002</v>
       </c>
-      <c r="Y4">
+      <c r="Y26" s="3">
         <v>4</v>
       </c>
-      <c r="Z4">
-        <f>D4-(T4+H4+N4)</f>
+      <c r="Z26" s="3">
+        <f>D26-(T26+H26+N26)</f>
         <v>387</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AA26" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AB26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AC4">
+      <c r="AC26" s="3">
         <v>0.50700000000000001</v>
       </c>
-      <c r="AD4">
+      <c r="AD26" s="3">
         <v>0.45800000000000002</v>
       </c>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="3"/>
+      <c r="AO26" s="3"/>
+      <c r="AP26" s="3"/>
+      <c r="AQ26" s="3"/>
+      <c r="AR26" s="3"/>
+      <c r="AS26" s="3"/>
+      <c r="AT26" s="3"/>
+      <c r="AU26" s="3"/>
+      <c r="AV26" s="3"/>
+      <c r="AW26" s="3"/>
+      <c r="AX26" s="3"/>
+      <c r="AY26" s="3"/>
+      <c r="AZ26" s="3"/>
+      <c r="BA26" s="3"/>
+      <c r="BB26" s="3"/>
+      <c r="BC26" s="3"/>
+      <c r="BD26" s="3"/>
+      <c r="BE26" s="3"/>
+      <c r="BF26" s="3"/>
+      <c r="BG26" s="3"/>
+      <c r="BH26" s="3"/>
+      <c r="BI26" s="3"/>
+      <c r="BJ26" s="3"/>
+      <c r="BK26" s="3"/>
+      <c r="BL26" s="3"/>
+      <c r="BM26" s="3"/>
+      <c r="BN26" s="3"/>
+      <c r="BO26" s="3"/>
+      <c r="BP26" s="3"/>
+      <c r="BQ26" s="3"/>
+      <c r="BR26" s="3"/>
+      <c r="BS26" s="3"/>
+      <c r="BT26" s="3"/>
+      <c r="BU26" s="3"/>
+      <c r="BV26" s="3"/>
+      <c r="BW26" s="3"/>
+      <c r="BX26" s="3"/>
+      <c r="BY26" s="3"/>
+      <c r="BZ26" s="3"/>
+      <c r="CA26" s="3"/>
+      <c r="CB26" s="3"/>
+      <c r="CC26" s="3"/>
+      <c r="CD26" s="3"/>
+      <c r="CE26" s="3"/>
+      <c r="CF26" s="3"/>
+      <c r="CG26" s="3"/>
+      <c r="CH26" s="3"/>
+      <c r="CI26" s="3"/>
+      <c r="CJ26" s="3"/>
+      <c r="CK26" s="3"/>
+      <c r="CL26" s="3"/>
+      <c r="CM26" s="3"/>
+      <c r="CN26" s="3"/>
+      <c r="CO26" s="3"/>
+      <c r="CP26" s="3"/>
+      <c r="CQ26" s="3"/>
+      <c r="CR26" s="3"/>
+      <c r="CS26" s="3"/>
+      <c r="CT26" s="3"/>
+      <c r="CU26" s="3"/>
+      <c r="CV26" s="3"/>
+      <c r="CW26" s="3"/>
+      <c r="CX26" s="3"/>
+      <c r="CY26" s="3"/>
+      <c r="CZ26" s="3"/>
+      <c r="DA26" s="3"/>
+      <c r="DB26" s="3"/>
+      <c r="DC26" s="3"/>
+    </row>
+    <row r="27" spans="1:107" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="3"/>
+      <c r="AO27" s="3"/>
+      <c r="AP27" s="3"/>
+      <c r="AQ27" s="3"/>
+      <c r="AR27" s="3"/>
+      <c r="AS27" s="3"/>
+      <c r="AT27" s="3"/>
+      <c r="AU27" s="3"/>
+      <c r="AV27" s="3"/>
+      <c r="AW27" s="3"/>
+      <c r="AX27" s="3"/>
+      <c r="AY27" s="3"/>
+      <c r="AZ27" s="3"/>
+      <c r="BA27" s="3"/>
+      <c r="BB27" s="3"/>
+      <c r="BC27" s="3"/>
+      <c r="BD27" s="3"/>
+      <c r="BE27" s="3"/>
+      <c r="BF27" s="3"/>
+      <c r="BG27" s="3"/>
+      <c r="BH27" s="3"/>
+      <c r="BI27" s="3"/>
+      <c r="BJ27" s="3"/>
+      <c r="BK27" s="3"/>
+      <c r="BL27" s="3"/>
+      <c r="BM27" s="3"/>
+      <c r="BN27" s="3"/>
+      <c r="BO27" s="3"/>
+      <c r="BP27" s="3"/>
+      <c r="BQ27" s="3"/>
+      <c r="BR27" s="3"/>
+      <c r="BS27" s="3"/>
+      <c r="BT27" s="3"/>
+      <c r="BU27" s="3"/>
+      <c r="BV27" s="3"/>
+      <c r="BW27" s="3"/>
+      <c r="BX27" s="3"/>
+      <c r="BY27" s="3"/>
+      <c r="BZ27" s="3"/>
+      <c r="CA27" s="3"/>
+      <c r="CB27" s="3"/>
+      <c r="CC27" s="3"/>
+      <c r="CD27" s="3"/>
+      <c r="CE27" s="3"/>
+      <c r="CF27" s="3"/>
+      <c r="CG27" s="3"/>
+      <c r="CH27" s="3"/>
+      <c r="CI27" s="3"/>
+      <c r="CJ27" s="3"/>
+      <c r="CK27" s="3"/>
+      <c r="CL27" s="3"/>
+      <c r="CM27" s="3"/>
+      <c r="CN27" s="3"/>
+      <c r="CO27" s="3"/>
+      <c r="CP27" s="3"/>
+      <c r="CQ27" s="3"/>
+      <c r="CR27" s="3"/>
+      <c r="CS27" s="3"/>
+      <c r="CT27" s="3"/>
+      <c r="CU27" s="3"/>
+      <c r="CV27" s="3"/>
+      <c r="CW27" s="3"/>
+      <c r="CX27" s="3"/>
+      <c r="CY27" s="3"/>
+      <c r="CZ27" s="3"/>
+      <c r="DA27" s="3"/>
+      <c r="DB27" s="3"/>
+      <c r="DC27" s="3"/>
+    </row>
+    <row r="28" spans="1:107" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3"/>
+      <c r="AN28" s="3"/>
+      <c r="AO28" s="3"/>
+      <c r="AP28" s="3"/>
+      <c r="AQ28" s="3"/>
+      <c r="AR28" s="3"/>
+      <c r="AS28" s="3"/>
+      <c r="AT28" s="3"/>
+      <c r="AU28" s="3"/>
+      <c r="AV28" s="3"/>
+      <c r="AW28" s="3"/>
+      <c r="AX28" s="3"/>
+      <c r="AY28" s="3"/>
+      <c r="AZ28" s="3"/>
+      <c r="BA28" s="3"/>
+      <c r="BB28" s="3"/>
+      <c r="BC28" s="3"/>
+      <c r="BD28" s="3"/>
+      <c r="BE28" s="3"/>
+      <c r="BF28" s="3"/>
+      <c r="BG28" s="3"/>
+      <c r="BH28" s="3"/>
+      <c r="BI28" s="3"/>
+      <c r="BJ28" s="3"/>
+      <c r="BK28" s="3"/>
+      <c r="BL28" s="3"/>
+      <c r="BM28" s="3"/>
+      <c r="BN28" s="3"/>
+      <c r="BO28" s="3"/>
+      <c r="BP28" s="3"/>
+      <c r="BQ28" s="3"/>
+      <c r="BR28" s="3"/>
+      <c r="BS28" s="3"/>
+      <c r="BT28" s="3"/>
+      <c r="BU28" s="3"/>
+      <c r="BV28" s="3"/>
+      <c r="BW28" s="3"/>
+      <c r="BX28" s="3"/>
+      <c r="BY28" s="3"/>
+      <c r="BZ28" s="3"/>
+      <c r="CA28" s="3"/>
+      <c r="CB28" s="3"/>
+      <c r="CC28" s="3"/>
+      <c r="CD28" s="3"/>
+      <c r="CE28" s="3"/>
+      <c r="CF28" s="3"/>
+      <c r="CG28" s="3"/>
+      <c r="CH28" s="3"/>
+      <c r="CI28" s="3"/>
+      <c r="CJ28" s="3"/>
+      <c r="CK28" s="3"/>
+      <c r="CL28" s="3"/>
+      <c r="CM28" s="3"/>
+      <c r="CN28" s="3"/>
+      <c r="CO28" s="3"/>
+      <c r="CP28" s="3"/>
+      <c r="CQ28" s="3"/>
+      <c r="CR28" s="3"/>
+      <c r="CS28" s="3"/>
+      <c r="CT28" s="3"/>
+      <c r="CU28" s="3"/>
+      <c r="CV28" s="3"/>
+      <c r="CW28" s="3"/>
+      <c r="CX28" s="3"/>
+      <c r="CY28" s="3"/>
+      <c r="CZ28" s="3"/>
+      <c r="DA28" s="3"/>
+      <c r="DB28" s="3"/>
+      <c r="DC28" s="3"/>
+    </row>
+    <row r="29" spans="1:107" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+      <c r="AI29" s="3"/>
+      <c r="AJ29" s="3"/>
+      <c r="AK29" s="3"/>
+      <c r="AL29" s="3"/>
+      <c r="AM29" s="3"/>
+      <c r="AN29" s="3"/>
+      <c r="AO29" s="3"/>
+      <c r="AP29" s="3"/>
+      <c r="AQ29" s="3"/>
+      <c r="AR29" s="3"/>
+      <c r="AS29" s="3"/>
+      <c r="AT29" s="3"/>
+      <c r="AU29" s="3"/>
+      <c r="AV29" s="3"/>
+      <c r="AW29" s="3"/>
+      <c r="AX29" s="3"/>
+      <c r="AY29" s="3"/>
+      <c r="AZ29" s="3"/>
+      <c r="BA29" s="3"/>
+      <c r="BB29" s="3"/>
+      <c r="BC29" s="3"/>
+      <c r="BD29" s="3"/>
+      <c r="BE29" s="3"/>
+      <c r="BF29" s="3"/>
+      <c r="BG29" s="3"/>
+      <c r="BH29" s="3"/>
+      <c r="BI29" s="3"/>
+      <c r="BJ29" s="3"/>
+      <c r="BK29" s="3"/>
+      <c r="BL29" s="3"/>
+      <c r="BM29" s="3"/>
+      <c r="BN29" s="3"/>
+      <c r="BO29" s="3"/>
+      <c r="BP29" s="3"/>
+      <c r="BQ29" s="3"/>
+      <c r="BR29" s="3"/>
+      <c r="BS29" s="3"/>
+      <c r="BT29" s="3"/>
+      <c r="BU29" s="3"/>
+      <c r="BV29" s="3"/>
+      <c r="BW29" s="3"/>
+      <c r="BX29" s="3"/>
+      <c r="BY29" s="3"/>
+      <c r="BZ29" s="3"/>
+      <c r="CA29" s="3"/>
+      <c r="CB29" s="3"/>
+      <c r="CC29" s="3"/>
+      <c r="CD29" s="3"/>
+      <c r="CE29" s="3"/>
+      <c r="CF29" s="3"/>
+      <c r="CG29" s="3"/>
+      <c r="CH29" s="3"/>
+      <c r="CI29" s="3"/>
+      <c r="CJ29" s="3"/>
+      <c r="CK29" s="3"/>
+      <c r="CL29" s="3"/>
+      <c r="CM29" s="3"/>
+      <c r="CN29" s="3"/>
+      <c r="CO29" s="3"/>
+      <c r="CP29" s="3"/>
+      <c r="CQ29" s="3"/>
+      <c r="CR29" s="3"/>
+      <c r="CS29" s="3"/>
+      <c r="CT29" s="3"/>
+      <c r="CU29" s="3"/>
+      <c r="CV29" s="3"/>
+      <c r="CW29" s="3"/>
+      <c r="CX29" s="3"/>
+      <c r="CY29" s="3"/>
+      <c r="CZ29" s="3"/>
+      <c r="DA29" s="3"/>
+      <c r="DB29" s="3"/>
+      <c r="DC29" s="3"/>
+    </row>
+    <row r="30" spans="1:107" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="3"/>
+      <c r="AG30" s="3"/>
+      <c r="AH30" s="3"/>
+      <c r="AI30" s="3"/>
+      <c r="AJ30" s="3"/>
+      <c r="AK30" s="3"/>
+      <c r="AL30" s="3"/>
+      <c r="AM30" s="3"/>
+      <c r="AN30" s="3"/>
+      <c r="AO30" s="3"/>
+      <c r="AP30" s="3"/>
+      <c r="AQ30" s="3"/>
+      <c r="AR30" s="3"/>
+      <c r="AS30" s="3"/>
+      <c r="AT30" s="3"/>
+      <c r="AU30" s="3"/>
+      <c r="AV30" s="3"/>
+      <c r="AW30" s="3"/>
+      <c r="AX30" s="3"/>
+      <c r="AY30" s="3"/>
+      <c r="AZ30" s="3"/>
+      <c r="BA30" s="3"/>
+      <c r="BB30" s="3"/>
+      <c r="BC30" s="3"/>
+      <c r="BD30" s="3"/>
+      <c r="BE30" s="3"/>
+      <c r="BF30" s="3"/>
+      <c r="BG30" s="3"/>
+      <c r="BH30" s="3"/>
+      <c r="BI30" s="3"/>
+      <c r="BJ30" s="3"/>
+      <c r="BK30" s="3"/>
+      <c r="BL30" s="3"/>
+      <c r="BM30" s="3"/>
+      <c r="BN30" s="3"/>
+      <c r="BO30" s="3"/>
+      <c r="BP30" s="3"/>
+      <c r="BQ30" s="3"/>
+      <c r="BR30" s="3"/>
+      <c r="BS30" s="3"/>
+      <c r="BT30" s="3"/>
+      <c r="BU30" s="3"/>
+      <c r="BV30" s="3"/>
+      <c r="BW30" s="3"/>
+      <c r="BX30" s="3"/>
+      <c r="BY30" s="3"/>
+      <c r="BZ30" s="3"/>
+      <c r="CA30" s="3"/>
+      <c r="CB30" s="3"/>
+      <c r="CC30" s="3"/>
+      <c r="CD30" s="3"/>
+      <c r="CE30" s="3"/>
+      <c r="CF30" s="3"/>
+      <c r="CG30" s="3"/>
+      <c r="CH30" s="3"/>
+      <c r="CI30" s="3"/>
+      <c r="CJ30" s="3"/>
+      <c r="CK30" s="3"/>
+      <c r="CL30" s="3"/>
+      <c r="CM30" s="3"/>
+      <c r="CN30" s="3"/>
+      <c r="CO30" s="3"/>
+      <c r="CP30" s="3"/>
+      <c r="CQ30" s="3"/>
+      <c r="CR30" s="3"/>
+      <c r="CS30" s="3"/>
+      <c r="CT30" s="3"/>
+      <c r="CU30" s="3"/>
+      <c r="CV30" s="3"/>
+      <c r="CW30" s="3"/>
+      <c r="CX30" s="3"/>
+      <c r="CY30" s="3"/>
+      <c r="CZ30" s="3"/>
+      <c r="DA30" s="3"/>
+      <c r="DB30" s="3"/>
+      <c r="DC30" s="3"/>
+    </row>
+    <row r="31" spans="1:107" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="3"/>
+      <c r="AG31" s="3"/>
+      <c r="AH31" s="3"/>
+      <c r="AI31" s="3"/>
+      <c r="AJ31" s="3"/>
+      <c r="AK31" s="3"/>
+      <c r="AL31" s="3"/>
+      <c r="AM31" s="3"/>
+      <c r="AN31" s="3"/>
+      <c r="AO31" s="3"/>
+      <c r="AP31" s="3"/>
+      <c r="AQ31" s="3"/>
+      <c r="AR31" s="3"/>
+      <c r="AS31" s="3"/>
+      <c r="AT31" s="3"/>
+      <c r="AU31" s="3"/>
+      <c r="AV31" s="3"/>
+      <c r="AW31" s="3"/>
+      <c r="AX31" s="3"/>
+      <c r="AY31" s="3"/>
+      <c r="AZ31" s="3"/>
+      <c r="BA31" s="3"/>
+      <c r="BB31" s="3"/>
+      <c r="BC31" s="3"/>
+      <c r="BD31" s="3"/>
+      <c r="BE31" s="3"/>
+      <c r="BF31" s="3"/>
+      <c r="BG31" s="3"/>
+      <c r="BH31" s="3"/>
+      <c r="BI31" s="3"/>
+      <c r="BJ31" s="3"/>
+      <c r="BK31" s="3"/>
+      <c r="BL31" s="3"/>
+      <c r="BM31" s="3"/>
+      <c r="BN31" s="3"/>
+      <c r="BO31" s="3"/>
+      <c r="BP31" s="3"/>
+      <c r="BQ31" s="3"/>
+      <c r="BR31" s="3"/>
+      <c r="BS31" s="3"/>
+      <c r="BT31" s="3"/>
+      <c r="BU31" s="3"/>
+      <c r="BV31" s="3"/>
+      <c r="BW31" s="3"/>
+      <c r="BX31" s="3"/>
+      <c r="BY31" s="3"/>
+      <c r="BZ31" s="3"/>
+      <c r="CA31" s="3"/>
+      <c r="CB31" s="3"/>
+      <c r="CC31" s="3"/>
+      <c r="CD31" s="3"/>
+      <c r="CE31" s="3"/>
+      <c r="CF31" s="3"/>
+      <c r="CG31" s="3"/>
+      <c r="CH31" s="3"/>
+      <c r="CI31" s="3"/>
+      <c r="CJ31" s="3"/>
+      <c r="CK31" s="3"/>
+      <c r="CL31" s="3"/>
+      <c r="CM31" s="3"/>
+      <c r="CN31" s="3"/>
+      <c r="CO31" s="3"/>
+      <c r="CP31" s="3"/>
+      <c r="CQ31" s="3"/>
+      <c r="CR31" s="3"/>
+      <c r="CS31" s="3"/>
+      <c r="CT31" s="3"/>
+      <c r="CU31" s="3"/>
+      <c r="CV31" s="3"/>
+      <c r="CW31" s="3"/>
+      <c r="CX31" s="3"/>
+      <c r="CY31" s="3"/>
+      <c r="CZ31" s="3"/>
+      <c r="DA31" s="3"/>
+      <c r="DB31" s="3"/>
+      <c r="DC31" s="3"/>
+    </row>
+    <row r="32" spans="1:107" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="3"/>
+      <c r="AE32" s="3"/>
+      <c r="AF32" s="3"/>
+      <c r="AG32" s="3"/>
+      <c r="AH32" s="3"/>
+      <c r="AI32" s="3"/>
+      <c r="AJ32" s="3"/>
+      <c r="AK32" s="3"/>
+      <c r="AL32" s="3"/>
+      <c r="AM32" s="3"/>
+      <c r="AN32" s="3"/>
+      <c r="AO32" s="3"/>
+      <c r="AP32" s="3"/>
+      <c r="AQ32" s="3"/>
+      <c r="AR32" s="3"/>
+      <c r="AS32" s="3"/>
+      <c r="AT32" s="3"/>
+      <c r="AU32" s="3"/>
+      <c r="AV32" s="3"/>
+      <c r="AW32" s="3"/>
+      <c r="AX32" s="3"/>
+      <c r="AY32" s="3"/>
+      <c r="AZ32" s="3"/>
+      <c r="BA32" s="3"/>
+      <c r="BB32" s="3"/>
+      <c r="BC32" s="3"/>
+      <c r="BD32" s="3"/>
+      <c r="BE32" s="3"/>
+      <c r="BF32" s="3"/>
+      <c r="BG32" s="3"/>
+      <c r="BH32" s="3"/>
+      <c r="BI32" s="3"/>
+      <c r="BJ32" s="3"/>
+      <c r="BK32" s="3"/>
+      <c r="BL32" s="3"/>
+      <c r="BM32" s="3"/>
+      <c r="BN32" s="3"/>
+      <c r="BO32" s="3"/>
+      <c r="BP32" s="3"/>
+      <c r="BQ32" s="3"/>
+      <c r="BR32" s="3"/>
+      <c r="BS32" s="3"/>
+      <c r="BT32" s="3"/>
+      <c r="BU32" s="3"/>
+      <c r="BV32" s="3"/>
+      <c r="BW32" s="3"/>
+      <c r="BX32" s="3"/>
+      <c r="BY32" s="3"/>
+      <c r="BZ32" s="3"/>
+      <c r="CA32" s="3"/>
+      <c r="CB32" s="3"/>
+      <c r="CC32" s="3"/>
+      <c r="CD32" s="3"/>
+      <c r="CE32" s="3"/>
+      <c r="CF32" s="3"/>
+      <c r="CG32" s="3"/>
+      <c r="CH32" s="3"/>
+      <c r="CI32" s="3"/>
+      <c r="CJ32" s="3"/>
+      <c r="CK32" s="3"/>
+      <c r="CL32" s="3"/>
+      <c r="CM32" s="3"/>
+      <c r="CN32" s="3"/>
+      <c r="CO32" s="3"/>
+      <c r="CP32" s="3"/>
+      <c r="CQ32" s="3"/>
+      <c r="CR32" s="3"/>
+      <c r="CS32" s="3"/>
+      <c r="CT32" s="3"/>
+      <c r="CU32" s="3"/>
+      <c r="CV32" s="3"/>
+      <c r="CW32" s="3"/>
+      <c r="CX32" s="3"/>
+      <c r="CY32" s="3"/>
+      <c r="CZ32" s="3"/>
+      <c r="DA32" s="3"/>
+      <c r="DB32" s="3"/>
+      <c r="DC32" s="3"/>
+    </row>
+    <row r="33" spans="1:107" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="3"/>
+      <c r="AG33" s="3"/>
+      <c r="AH33" s="3"/>
+      <c r="AI33" s="3"/>
+      <c r="AJ33" s="3"/>
+      <c r="AK33" s="3"/>
+      <c r="AL33" s="3"/>
+      <c r="AM33" s="3"/>
+      <c r="AN33" s="3"/>
+      <c r="AO33" s="3"/>
+      <c r="AP33" s="3"/>
+      <c r="AQ33" s="3"/>
+      <c r="AR33" s="3"/>
+      <c r="AS33" s="3"/>
+      <c r="AT33" s="3"/>
+      <c r="AU33" s="3"/>
+      <c r="AV33" s="3"/>
+      <c r="AW33" s="3"/>
+      <c r="AX33" s="3"/>
+      <c r="AY33" s="3"/>
+      <c r="AZ33" s="3"/>
+      <c r="BA33" s="3"/>
+      <c r="BB33" s="3"/>
+      <c r="BC33" s="3"/>
+      <c r="BD33" s="3"/>
+      <c r="BE33" s="3"/>
+      <c r="BF33" s="3"/>
+      <c r="BG33" s="3"/>
+      <c r="BH33" s="3"/>
+      <c r="BI33" s="3"/>
+      <c r="BJ33" s="3"/>
+      <c r="BK33" s="3"/>
+      <c r="BL33" s="3"/>
+      <c r="BM33" s="3"/>
+      <c r="BN33" s="3"/>
+      <c r="BO33" s="3"/>
+      <c r="BP33" s="3"/>
+      <c r="BQ33" s="3"/>
+      <c r="BR33" s="3"/>
+      <c r="BS33" s="3"/>
+      <c r="BT33" s="3"/>
+      <c r="BU33" s="3"/>
+      <c r="BV33" s="3"/>
+      <c r="BW33" s="3"/>
+      <c r="BX33" s="3"/>
+      <c r="BY33" s="3"/>
+      <c r="BZ33" s="3"/>
+      <c r="CA33" s="3"/>
+      <c r="CB33" s="3"/>
+      <c r="CC33" s="3"/>
+      <c r="CD33" s="3"/>
+      <c r="CE33" s="3"/>
+      <c r="CF33" s="3"/>
+      <c r="CG33" s="3"/>
+      <c r="CH33" s="3"/>
+      <c r="CI33" s="3"/>
+      <c r="CJ33" s="3"/>
+      <c r="CK33" s="3"/>
+      <c r="CL33" s="3"/>
+      <c r="CM33" s="3"/>
+      <c r="CN33" s="3"/>
+      <c r="CO33" s="3"/>
+      <c r="CP33" s="3"/>
+      <c r="CQ33" s="3"/>
+      <c r="CR33" s="3"/>
+      <c r="CS33" s="3"/>
+      <c r="CT33" s="3"/>
+      <c r="CU33" s="3"/>
+      <c r="CV33" s="3"/>
+      <c r="CW33" s="3"/>
+      <c r="CX33" s="3"/>
+      <c r="CY33" s="3"/>
+      <c r="CZ33" s="3"/>
+      <c r="DA33" s="3"/>
+      <c r="DB33" s="3"/>
+      <c r="DC33" s="3"/>
+    </row>
+    <row r="34" spans="1:107" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="3"/>
+      <c r="AG34" s="3"/>
+      <c r="AH34" s="3"/>
+      <c r="AI34" s="3"/>
+      <c r="AJ34" s="3"/>
+      <c r="AK34" s="3"/>
+      <c r="AL34" s="3"/>
+      <c r="AM34" s="3"/>
+      <c r="AN34" s="3"/>
+      <c r="AO34" s="3"/>
+      <c r="AP34" s="3"/>
+      <c r="AQ34" s="3"/>
+      <c r="AR34" s="3"/>
+      <c r="AS34" s="3"/>
+      <c r="AT34" s="3"/>
+      <c r="AU34" s="3"/>
+      <c r="AV34" s="3"/>
+      <c r="AW34" s="3"/>
+      <c r="AX34" s="3"/>
+      <c r="AY34" s="3"/>
+      <c r="AZ34" s="3"/>
+      <c r="BA34" s="3"/>
+      <c r="BB34" s="3"/>
+      <c r="BC34" s="3"/>
+      <c r="BD34" s="3"/>
+      <c r="BE34" s="3"/>
+      <c r="BF34" s="3"/>
+      <c r="BG34" s="3"/>
+      <c r="BH34" s="3"/>
+      <c r="BI34" s="3"/>
+      <c r="BJ34" s="3"/>
+      <c r="BK34" s="3"/>
+      <c r="BL34" s="3"/>
+      <c r="BM34" s="3"/>
+      <c r="BN34" s="3"/>
+      <c r="BO34" s="3"/>
+      <c r="BP34" s="3"/>
+      <c r="BQ34" s="3"/>
+      <c r="BR34" s="3"/>
+      <c r="BS34" s="3"/>
+      <c r="BT34" s="3"/>
+      <c r="BU34" s="3"/>
+      <c r="BV34" s="3"/>
+      <c r="BW34" s="3"/>
+      <c r="BX34" s="3"/>
+      <c r="BY34" s="3"/>
+      <c r="BZ34" s="3"/>
+      <c r="CA34" s="3"/>
+      <c r="CB34" s="3"/>
+      <c r="CC34" s="3"/>
+      <c r="CD34" s="3"/>
+      <c r="CE34" s="3"/>
+      <c r="CF34" s="3"/>
+      <c r="CG34" s="3"/>
+      <c r="CH34" s="3"/>
+      <c r="CI34" s="3"/>
+      <c r="CJ34" s="3"/>
+      <c r="CK34" s="3"/>
+      <c r="CL34" s="3"/>
+      <c r="CM34" s="3"/>
+      <c r="CN34" s="3"/>
+      <c r="CO34" s="3"/>
+      <c r="CP34" s="3"/>
+      <c r="CQ34" s="3"/>
+      <c r="CR34" s="3"/>
+      <c r="CS34" s="3"/>
+      <c r="CT34" s="3"/>
+      <c r="CU34" s="3"/>
+      <c r="CV34" s="3"/>
+      <c r="CW34" s="3"/>
+      <c r="CX34" s="3"/>
+      <c r="CY34" s="3"/>
+      <c r="CZ34" s="3"/>
+      <c r="DA34" s="3"/>
+      <c r="DB34" s="3"/>
+      <c r="DC34" s="3"/>
+    </row>
+    <row r="35" spans="1:107" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="3"/>
+      <c r="AD35" s="3"/>
+      <c r="AE35" s="3"/>
+      <c r="AF35" s="3"/>
+      <c r="AG35" s="3"/>
+      <c r="AH35" s="3"/>
+      <c r="AI35" s="3"/>
+      <c r="AJ35" s="3"/>
+      <c r="AK35" s="3"/>
+      <c r="AL35" s="3"/>
+      <c r="AM35" s="3"/>
+      <c r="AN35" s="3"/>
+      <c r="AO35" s="3"/>
+      <c r="AP35" s="3"/>
+      <c r="AQ35" s="3"/>
+      <c r="AR35" s="3"/>
+      <c r="AS35" s="3"/>
+      <c r="AT35" s="3"/>
+      <c r="AU35" s="3"/>
+      <c r="AV35" s="3"/>
+      <c r="AW35" s="3"/>
+      <c r="AX35" s="3"/>
+      <c r="AY35" s="3"/>
+      <c r="AZ35" s="3"/>
+      <c r="BA35" s="3"/>
+      <c r="BB35" s="3"/>
+      <c r="BC35" s="3"/>
+      <c r="BD35" s="3"/>
+      <c r="BE35" s="3"/>
+      <c r="BF35" s="3"/>
+      <c r="BG35" s="3"/>
+      <c r="BH35" s="3"/>
+      <c r="BI35" s="3"/>
+      <c r="BJ35" s="3"/>
+      <c r="BK35" s="3"/>
+      <c r="BL35" s="3"/>
+      <c r="BM35" s="3"/>
+      <c r="BN35" s="3"/>
+      <c r="BO35" s="3"/>
+      <c r="BP35" s="3"/>
+      <c r="BQ35" s="3"/>
+      <c r="BR35" s="3"/>
+      <c r="BS35" s="3"/>
+      <c r="BT35" s="3"/>
+      <c r="BU35" s="3"/>
+      <c r="BV35" s="3"/>
+      <c r="BW35" s="3"/>
+      <c r="BX35" s="3"/>
+      <c r="BY35" s="3"/>
+      <c r="BZ35" s="3"/>
+      <c r="CA35" s="3"/>
+      <c r="CB35" s="3"/>
+      <c r="CC35" s="3"/>
+      <c r="CD35" s="3"/>
+      <c r="CE35" s="3"/>
+      <c r="CF35" s="3"/>
+      <c r="CG35" s="3"/>
+      <c r="CH35" s="3"/>
+      <c r="CI35" s="3"/>
+      <c r="CJ35" s="3"/>
+      <c r="CK35" s="3"/>
+      <c r="CL35" s="3"/>
+      <c r="CM35" s="3"/>
+      <c r="CN35" s="3"/>
+      <c r="CO35" s="3"/>
+      <c r="CP35" s="3"/>
+      <c r="CQ35" s="3"/>
+      <c r="CR35" s="3"/>
+      <c r="CS35" s="3"/>
+      <c r="CT35" s="3"/>
+      <c r="CU35" s="3"/>
+      <c r="CV35" s="3"/>
+      <c r="CW35" s="3"/>
+      <c r="CX35" s="3"/>
+      <c r="CY35" s="3"/>
+      <c r="CZ35" s="3"/>
+      <c r="DA35" s="3"/>
+      <c r="DB35" s="3"/>
+      <c r="DC35" s="3"/>
+    </row>
+    <row r="36" spans="1:107" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="3"/>
+      <c r="AC36" s="3"/>
+      <c r="AD36" s="3"/>
+      <c r="AE36" s="3"/>
+      <c r="AF36" s="3"/>
+      <c r="AG36" s="3"/>
+      <c r="AH36" s="3"/>
+      <c r="AI36" s="3"/>
+      <c r="AJ36" s="3"/>
+      <c r="AK36" s="3"/>
+      <c r="AL36" s="3"/>
+      <c r="AM36" s="3"/>
+      <c r="AN36" s="3"/>
+      <c r="AO36" s="3"/>
+      <c r="AP36" s="3"/>
+      <c r="AQ36" s="3"/>
+      <c r="AR36" s="3"/>
+      <c r="AS36" s="3"/>
+      <c r="AT36" s="3"/>
+      <c r="AU36" s="3"/>
+      <c r="AV36" s="3"/>
+      <c r="AW36" s="3"/>
+      <c r="AX36" s="3"/>
+      <c r="AY36" s="3"/>
+      <c r="AZ36" s="3"/>
+      <c r="BA36" s="3"/>
+      <c r="BB36" s="3"/>
+      <c r="BC36" s="3"/>
+      <c r="BD36" s="3"/>
+      <c r="BE36" s="3"/>
+      <c r="BF36" s="3"/>
+      <c r="BG36" s="3"/>
+      <c r="BH36" s="3"/>
+      <c r="BI36" s="3"/>
+      <c r="BJ36" s="3"/>
+      <c r="BK36" s="3"/>
+      <c r="BL36" s="3"/>
+      <c r="BM36" s="3"/>
+      <c r="BN36" s="3"/>
+      <c r="BO36" s="3"/>
+      <c r="BP36" s="3"/>
+      <c r="BQ36" s="3"/>
+      <c r="BR36" s="3"/>
+      <c r="BS36" s="3"/>
+      <c r="BT36" s="3"/>
+      <c r="BU36" s="3"/>
+      <c r="BV36" s="3"/>
+      <c r="BW36" s="3"/>
+      <c r="BX36" s="3"/>
+      <c r="BY36" s="3"/>
+      <c r="BZ36" s="3"/>
+      <c r="CA36" s="3"/>
+      <c r="CB36" s="3"/>
+      <c r="CC36" s="3"/>
+      <c r="CD36" s="3"/>
+      <c r="CE36" s="3"/>
+      <c r="CF36" s="3"/>
+      <c r="CG36" s="3"/>
+      <c r="CH36" s="3"/>
+      <c r="CI36" s="3"/>
+      <c r="CJ36" s="3"/>
+      <c r="CK36" s="3"/>
+      <c r="CL36" s="3"/>
+      <c r="CM36" s="3"/>
+      <c r="CN36" s="3"/>
+      <c r="CO36" s="3"/>
+      <c r="CP36" s="3"/>
+      <c r="CQ36" s="3"/>
+      <c r="CR36" s="3"/>
+      <c r="CS36" s="3"/>
+      <c r="CT36" s="3"/>
+      <c r="CU36" s="3"/>
+      <c r="CV36" s="3"/>
+      <c r="CW36" s="3"/>
+      <c r="CX36" s="3"/>
+      <c r="CY36" s="3"/>
+      <c r="CZ36" s="3"/>
+      <c r="DA36" s="3"/>
+      <c r="DB36" s="3"/>
+      <c r="DC36" s="3"/>
+    </row>
+    <row r="37" spans="1:107" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="3"/>
+      <c r="AB37" s="3"/>
+      <c r="AC37" s="3"/>
+      <c r="AD37" s="3"/>
+      <c r="AE37" s="3"/>
+      <c r="AF37" s="3"/>
+      <c r="AG37" s="3"/>
+      <c r="AH37" s="3"/>
+      <c r="AI37" s="3"/>
+      <c r="AJ37" s="3"/>
+      <c r="AK37" s="3"/>
+      <c r="AL37" s="3"/>
+      <c r="AM37" s="3"/>
+      <c r="AN37" s="3"/>
+      <c r="AO37" s="3"/>
+      <c r="AP37" s="3"/>
+      <c r="AQ37" s="3"/>
+      <c r="AR37" s="3"/>
+      <c r="AS37" s="3"/>
+      <c r="AT37" s="3"/>
+      <c r="AU37" s="3"/>
+      <c r="AV37" s="3"/>
+      <c r="AW37" s="3"/>
+      <c r="AX37" s="3"/>
+      <c r="AY37" s="3"/>
+      <c r="AZ37" s="3"/>
+      <c r="BA37" s="3"/>
+      <c r="BB37" s="3"/>
+      <c r="BC37" s="3"/>
+      <c r="BD37" s="3"/>
+      <c r="BE37" s="3"/>
+      <c r="BF37" s="3"/>
+      <c r="BG37" s="3"/>
+      <c r="BH37" s="3"/>
+      <c r="BI37" s="3"/>
+      <c r="BJ37" s="3"/>
+      <c r="BK37" s="3"/>
+      <c r="BL37" s="3"/>
+      <c r="BM37" s="3"/>
+      <c r="BN37" s="3"/>
+      <c r="BO37" s="3"/>
+      <c r="BP37" s="3"/>
+      <c r="BQ37" s="3"/>
+      <c r="BR37" s="3"/>
+      <c r="BS37" s="3"/>
+      <c r="BT37" s="3"/>
+      <c r="BU37" s="3"/>
+      <c r="BV37" s="3"/>
+      <c r="BW37" s="3"/>
+      <c r="BX37" s="3"/>
+      <c r="BY37" s="3"/>
+      <c r="BZ37" s="3"/>
+      <c r="CA37" s="3"/>
+      <c r="CB37" s="3"/>
+      <c r="CC37" s="3"/>
+      <c r="CD37" s="3"/>
+      <c r="CE37" s="3"/>
+      <c r="CF37" s="3"/>
+      <c r="CG37" s="3"/>
+      <c r="CH37" s="3"/>
+      <c r="CI37" s="3"/>
+      <c r="CJ37" s="3"/>
+      <c r="CK37" s="3"/>
+      <c r="CL37" s="3"/>
+      <c r="CM37" s="3"/>
+      <c r="CN37" s="3"/>
+      <c r="CO37" s="3"/>
+      <c r="CP37" s="3"/>
+      <c r="CQ37" s="3"/>
+      <c r="CR37" s="3"/>
+      <c r="CS37" s="3"/>
+      <c r="CT37" s="3"/>
+      <c r="CU37" s="3"/>
+      <c r="CV37" s="3"/>
+      <c r="CW37" s="3"/>
+      <c r="CX37" s="3"/>
+      <c r="CY37" s="3"/>
+      <c r="CZ37" s="3"/>
+      <c r="DA37" s="3"/>
+      <c r="DB37" s="3"/>
+      <c r="DC37" s="3"/>
+    </row>
+    <row r="38" spans="1:107" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="3"/>
+      <c r="AB38" s="3"/>
+      <c r="AC38" s="3"/>
+      <c r="AD38" s="3"/>
+      <c r="AE38" s="3"/>
+      <c r="AF38" s="3"/>
+      <c r="AG38" s="3"/>
+      <c r="AH38" s="3"/>
+      <c r="AI38" s="3"/>
+      <c r="AJ38" s="3"/>
+      <c r="AK38" s="3"/>
+      <c r="AL38" s="3"/>
+      <c r="AM38" s="3"/>
+      <c r="AN38" s="3"/>
+      <c r="AO38" s="3"/>
+      <c r="AP38" s="3"/>
+      <c r="AQ38" s="3"/>
+      <c r="AR38" s="3"/>
+      <c r="AS38" s="3"/>
+      <c r="AT38" s="3"/>
+      <c r="AU38" s="3"/>
+      <c r="AV38" s="3"/>
+      <c r="AW38" s="3"/>
+      <c r="AX38" s="3"/>
+      <c r="AY38" s="3"/>
+      <c r="AZ38" s="3"/>
+      <c r="BA38" s="3"/>
+      <c r="BB38" s="3"/>
+      <c r="BC38" s="3"/>
+      <c r="BD38" s="3"/>
+      <c r="BE38" s="3"/>
+      <c r="BF38" s="3"/>
+      <c r="BG38" s="3"/>
+      <c r="BH38" s="3"/>
+      <c r="BI38" s="3"/>
+      <c r="BJ38" s="3"/>
+      <c r="BK38" s="3"/>
+      <c r="BL38" s="3"/>
+      <c r="BM38" s="3"/>
+      <c r="BN38" s="3"/>
+      <c r="BO38" s="3"/>
+      <c r="BP38" s="3"/>
+      <c r="BQ38" s="3"/>
+      <c r="BR38" s="3"/>
+      <c r="BS38" s="3"/>
+      <c r="BT38" s="3"/>
+      <c r="BU38" s="3"/>
+      <c r="BV38" s="3"/>
+      <c r="BW38" s="3"/>
+      <c r="BX38" s="3"/>
+      <c r="BY38" s="3"/>
+      <c r="BZ38" s="3"/>
+      <c r="CA38" s="3"/>
+      <c r="CB38" s="3"/>
+      <c r="CC38" s="3"/>
+      <c r="CD38" s="3"/>
+      <c r="CE38" s="3"/>
+      <c r="CF38" s="3"/>
+      <c r="CG38" s="3"/>
+      <c r="CH38" s="3"/>
+      <c r="CI38" s="3"/>
+      <c r="CJ38" s="3"/>
+      <c r="CK38" s="3"/>
+      <c r="CL38" s="3"/>
+      <c r="CM38" s="3"/>
+      <c r="CN38" s="3"/>
+      <c r="CO38" s="3"/>
+      <c r="CP38" s="3"/>
+      <c r="CQ38" s="3"/>
+      <c r="CR38" s="3"/>
+      <c r="CS38" s="3"/>
+      <c r="CT38" s="3"/>
+      <c r="CU38" s="3"/>
+      <c r="CV38" s="3"/>
+      <c r="CW38" s="3"/>
+      <c r="CX38" s="3"/>
+      <c r="CY38" s="3"/>
+      <c r="CZ38" s="3"/>
+      <c r="DA38" s="3"/>
+      <c r="DB38" s="3"/>
+      <c r="DC38" s="3"/>
+    </row>
+    <row r="39" spans="1:107" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+      <c r="AF39" s="3"/>
+      <c r="AG39" s="3"/>
+      <c r="AH39" s="3"/>
+      <c r="AI39" s="3"/>
+      <c r="AJ39" s="3"/>
+      <c r="AK39" s="3"/>
+      <c r="AL39" s="3"/>
+      <c r="AM39" s="3"/>
+      <c r="AN39" s="3"/>
+      <c r="AO39" s="3"/>
+      <c r="AP39" s="3"/>
+      <c r="AQ39" s="3"/>
+      <c r="AR39" s="3"/>
+      <c r="AS39" s="3"/>
+      <c r="AT39" s="3"/>
+      <c r="AU39" s="3"/>
+      <c r="AV39" s="3"/>
+      <c r="AW39" s="3"/>
+      <c r="AX39" s="3"/>
+      <c r="AY39" s="3"/>
+      <c r="AZ39" s="3"/>
+      <c r="BA39" s="3"/>
+      <c r="BB39" s="3"/>
+      <c r="BC39" s="3"/>
+      <c r="BD39" s="3"/>
+      <c r="BE39" s="3"/>
+      <c r="BF39" s="3"/>
+      <c r="BG39" s="3"/>
+      <c r="BH39" s="3"/>
+      <c r="BI39" s="3"/>
+      <c r="BJ39" s="3"/>
+      <c r="BK39" s="3"/>
+      <c r="BL39" s="3"/>
+      <c r="BM39" s="3"/>
+      <c r="BN39" s="3"/>
+      <c r="BO39" s="3"/>
+      <c r="BP39" s="3"/>
+      <c r="BQ39" s="3"/>
+      <c r="BR39" s="3"/>
+      <c r="BS39" s="3"/>
+      <c r="BT39" s="3"/>
+      <c r="BU39" s="3"/>
+      <c r="BV39" s="3"/>
+      <c r="BW39" s="3"/>
+      <c r="BX39" s="3"/>
+      <c r="BY39" s="3"/>
+      <c r="BZ39" s="3"/>
+      <c r="CA39" s="3"/>
+      <c r="CB39" s="3"/>
+      <c r="CC39" s="3"/>
+      <c r="CD39" s="3"/>
+      <c r="CE39" s="3"/>
+      <c r="CF39" s="3"/>
+      <c r="CG39" s="3"/>
+      <c r="CH39" s="3"/>
+      <c r="CI39" s="3"/>
+      <c r="CJ39" s="3"/>
+      <c r="CK39" s="3"/>
+      <c r="CL39" s="3"/>
+      <c r="CM39" s="3"/>
+      <c r="CN39" s="3"/>
+      <c r="CO39" s="3"/>
+      <c r="CP39" s="3"/>
+      <c r="CQ39" s="3"/>
+      <c r="CR39" s="3"/>
+      <c r="CS39" s="3"/>
+      <c r="CT39" s="3"/>
+      <c r="CU39" s="3"/>
+      <c r="CV39" s="3"/>
+      <c r="CW39" s="3"/>
+      <c r="CX39" s="3"/>
+      <c r="CY39" s="3"/>
+      <c r="CZ39" s="3"/>
+      <c r="DA39" s="3"/>
+      <c r="DB39" s="3"/>
+      <c r="DC39" s="3"/>
+    </row>
+    <row r="40" spans="1:107" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+      <c r="AF40" s="3"/>
+      <c r="AG40" s="3"/>
+      <c r="AH40" s="3"/>
+      <c r="AI40" s="3"/>
+      <c r="AJ40" s="3"/>
+      <c r="AK40" s="3"/>
+      <c r="AL40" s="3"/>
+      <c r="AM40" s="3"/>
+      <c r="AN40" s="3"/>
+      <c r="AO40" s="3"/>
+      <c r="AP40" s="3"/>
+      <c r="AQ40" s="3"/>
+      <c r="AR40" s="3"/>
+      <c r="AS40" s="3"/>
+      <c r="AT40" s="3"/>
+      <c r="AU40" s="3"/>
+      <c r="AV40" s="3"/>
+      <c r="AW40" s="3"/>
+      <c r="AX40" s="3"/>
+      <c r="AY40" s="3"/>
+      <c r="AZ40" s="3"/>
+      <c r="BA40" s="3"/>
+      <c r="BB40" s="3"/>
+      <c r="BC40" s="3"/>
+      <c r="BD40" s="3"/>
+      <c r="BE40" s="3"/>
+      <c r="BF40" s="3"/>
+      <c r="BG40" s="3"/>
+      <c r="BH40" s="3"/>
+      <c r="BI40" s="3"/>
+      <c r="BJ40" s="3"/>
+      <c r="BK40" s="3"/>
+      <c r="BL40" s="3"/>
+      <c r="BM40" s="3"/>
+      <c r="BN40" s="3"/>
+      <c r="BO40" s="3"/>
+      <c r="BP40" s="3"/>
+      <c r="BQ40" s="3"/>
+      <c r="BR40" s="3"/>
+      <c r="BS40" s="3"/>
+      <c r="BT40" s="3"/>
+      <c r="BU40" s="3"/>
+      <c r="BV40" s="3"/>
+      <c r="BW40" s="3"/>
+      <c r="BX40" s="3"/>
+      <c r="BY40" s="3"/>
+      <c r="BZ40" s="3"/>
+      <c r="CA40" s="3"/>
+      <c r="CB40" s="3"/>
+      <c r="CC40" s="3"/>
+      <c r="CD40" s="3"/>
+      <c r="CE40" s="3"/>
+      <c r="CF40" s="3"/>
+      <c r="CG40" s="3"/>
+      <c r="CH40" s="3"/>
+      <c r="CI40" s="3"/>
+      <c r="CJ40" s="3"/>
+      <c r="CK40" s="3"/>
+      <c r="CL40" s="3"/>
+      <c r="CM40" s="3"/>
+      <c r="CN40" s="3"/>
+      <c r="CO40" s="3"/>
+      <c r="CP40" s="3"/>
+      <c r="CQ40" s="3"/>
+      <c r="CR40" s="3"/>
+      <c r="CS40" s="3"/>
+      <c r="CT40" s="3"/>
+      <c r="CU40" s="3"/>
+      <c r="CV40" s="3"/>
+      <c r="CW40" s="3"/>
+      <c r="CX40" s="3"/>
+      <c r="CY40" s="3"/>
+      <c r="CZ40" s="3"/>
+      <c r="DA40" s="3"/>
+      <c r="DB40" s="3"/>
+      <c r="DC40" s="3"/>
+    </row>
+    <row r="41" spans="1:107" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+      <c r="AA41" s="3"/>
+      <c r="AB41" s="3"/>
+      <c r="AC41" s="3"/>
+      <c r="AD41" s="3"/>
+      <c r="AE41" s="3"/>
+      <c r="AF41" s="3"/>
+      <c r="AG41" s="3"/>
+      <c r="AH41" s="3"/>
+      <c r="AI41" s="3"/>
+      <c r="AJ41" s="3"/>
+      <c r="AK41" s="3"/>
+      <c r="AL41" s="3"/>
+      <c r="AM41" s="3"/>
+      <c r="AN41" s="3"/>
+      <c r="AO41" s="3"/>
+      <c r="AP41" s="3"/>
+      <c r="AQ41" s="3"/>
+      <c r="AR41" s="3"/>
+      <c r="AS41" s="3"/>
+      <c r="AT41" s="3"/>
+      <c r="AU41" s="3"/>
+      <c r="AV41" s="3"/>
+      <c r="AW41" s="3"/>
+      <c r="AX41" s="3"/>
+      <c r="AY41" s="3"/>
+      <c r="AZ41" s="3"/>
+      <c r="BA41" s="3"/>
+      <c r="BB41" s="3"/>
+      <c r="BC41" s="3"/>
+      <c r="BD41" s="3"/>
+      <c r="BE41" s="3"/>
+      <c r="BF41" s="3"/>
+      <c r="BG41" s="3"/>
+      <c r="BH41" s="3"/>
+      <c r="BI41" s="3"/>
+      <c r="BJ41" s="3"/>
+      <c r="BK41" s="3"/>
+      <c r="BL41" s="3"/>
+      <c r="BM41" s="3"/>
+      <c r="BN41" s="3"/>
+      <c r="BO41" s="3"/>
+      <c r="BP41" s="3"/>
+      <c r="BQ41" s="3"/>
+      <c r="BR41" s="3"/>
+      <c r="BS41" s="3"/>
+      <c r="BT41" s="3"/>
+      <c r="BU41" s="3"/>
+      <c r="BV41" s="3"/>
+      <c r="BW41" s="3"/>
+      <c r="BX41" s="3"/>
+      <c r="BY41" s="3"/>
+      <c r="BZ41" s="3"/>
+      <c r="CA41" s="3"/>
+      <c r="CB41" s="3"/>
+      <c r="CC41" s="3"/>
+      <c r="CD41" s="3"/>
+      <c r="CE41" s="3"/>
+      <c r="CF41" s="3"/>
+      <c r="CG41" s="3"/>
+      <c r="CH41" s="3"/>
+      <c r="CI41" s="3"/>
+      <c r="CJ41" s="3"/>
+      <c r="CK41" s="3"/>
+      <c r="CL41" s="3"/>
+      <c r="CM41" s="3"/>
+      <c r="CN41" s="3"/>
+      <c r="CO41" s="3"/>
+      <c r="CP41" s="3"/>
+      <c r="CQ41" s="3"/>
+      <c r="CR41" s="3"/>
+      <c r="CS41" s="3"/>
+      <c r="CT41" s="3"/>
+      <c r="CU41" s="3"/>
+      <c r="CV41" s="3"/>
+      <c r="CW41" s="3"/>
+      <c r="CX41" s="3"/>
+      <c r="CY41" s="3"/>
+      <c r="CZ41" s="3"/>
+      <c r="DA41" s="3"/>
+      <c r="DB41" s="3"/>
+      <c r="DC41" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataStructuresProject3/District_map.xlsx
+++ b/DataStructuresProject3/District_map.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23602"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uflorida-my.sharepoint.com/personal/notmarcus_ufl_edu/Documents/Data Structures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\539\DataStructuresProject3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1704" documentId="13_ncr:1_{CCC79481-63E0-4D83-A9DA-8C106886C3DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8741DC09-4515-4DD1-9C64-45027FFE9357}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642938FA-B081-46A6-93D1-D086A7B7927F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10800" yWindow="4545" windowWidth="18000" windowHeight="11055" xr2:uid="{B576BF06-D8E7-4931-8545-D57E9AAA9B99}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B576BF06-D8E7-4931-8545-D57E9AAA9B99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2998,7 +2998,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3373,102 +3373,102 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADBEAA11-795E-4093-A04F-1DFE9E42F9C1}">
   <dimension ref="A1:LL52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.28515625" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.33203125" customWidth="1"/>
+    <col min="19" max="19" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="17" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="19" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="17" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.42578125" customWidth="1"/>
-    <col min="37" max="37" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.44140625" customWidth="1"/>
+    <col min="37" max="37" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="17" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="18" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="17" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="17" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="18" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="17" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="17" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="74" max="74" width="17" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="118" max="118" width="14" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="10.28515625" customWidth="1"/>
-    <col min="129" max="129" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="10.33203125" customWidth="1"/>
+    <col min="129" max="129" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="130" max="130" width="13" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="149" max="149" width="10" customWidth="1"/>
-    <col min="154" max="154" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="160" max="160" width="15" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="15.42578125" customWidth="1"/>
+    <col min="165" max="165" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:324">
+    <row r="1" spans="1:324" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3487,7 +3487,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:324">
+    <row r="2" spans="1:324" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -4461,7 +4461,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:324">
+    <row r="3" spans="1:324" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -4674,7 +4674,7 @@
       <c r="DB3" s="3"/>
       <c r="DC3" s="3"/>
     </row>
-    <row r="4" spans="1:324">
+    <row r="4" spans="1:324" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>29</v>
       </c>
@@ -4809,7 +4809,7 @@
       <c r="DB4" s="3"/>
       <c r="DC4" s="3"/>
     </row>
-    <row r="5" spans="1:324">
+    <row r="5" spans="1:324" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>34</v>
       </c>
@@ -5048,7 +5048,7 @@
       <c r="DB5" s="3"/>
       <c r="DC5" s="3"/>
     </row>
-    <row r="6" spans="1:324">
+    <row r="6" spans="1:324" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>55</v>
       </c>
@@ -5221,7 +5221,7 @@
       <c r="DB6" s="3"/>
       <c r="DC6" s="3"/>
     </row>
-    <row r="7" spans="1:324">
+    <row r="7" spans="1:324" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>65</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:324">
+    <row r="8" spans="1:324" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>171</v>
       </c>
@@ -6462,7 +6462,7 @@
       <c r="DB8" s="3"/>
       <c r="DC8" s="3"/>
     </row>
-    <row r="9" spans="1:324">
+    <row r="9" spans="1:324" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>188</v>
       </c>
@@ -6649,7 +6649,7 @@
       <c r="DB9" s="3"/>
       <c r="DC9" s="3"/>
     </row>
-    <row r="10" spans="1:324">
+    <row r="10" spans="1:324" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>199</v>
       </c>
@@ -6784,7 +6784,7 @@
       <c r="DB10" s="3"/>
       <c r="DC10" s="3"/>
     </row>
-    <row r="11" spans="1:324">
+    <row r="11" spans="1:324" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>204</v>
       </c>
@@ -7317,7 +7317,7 @@
         <v>0.51400000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:324">
+    <row r="12" spans="1:324" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>257</v>
       </c>
@@ -7621,7 +7621,7 @@
       <c r="DB12" s="3"/>
       <c r="DC12" s="3"/>
     </row>
-    <row r="13" spans="1:324">
+    <row r="13" spans="1:324" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>288</v>
       </c>
@@ -7769,7 +7769,7 @@
       <c r="DB13" s="3"/>
       <c r="DC13" s="3"/>
     </row>
-    <row r="14" spans="1:324">
+    <row r="14" spans="1:324" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>293</v>
       </c>
@@ -7917,7 +7917,7 @@
       <c r="DB14" s="3"/>
       <c r="DC14" s="3"/>
     </row>
-    <row r="15" spans="1:324">
+    <row r="15" spans="1:324" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>300</v>
       </c>
@@ -8280,7 +8280,7 @@
         <v>0.70399999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:324">
+    <row r="16" spans="1:324" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>339</v>
       </c>
@@ -8519,7 +8519,7 @@
       <c r="DB16" s="3"/>
       <c r="DC16" s="3"/>
     </row>
-    <row r="17" spans="1:107">
+    <row r="17" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>358</v>
       </c>
@@ -8695,7 +8695,7 @@
       <c r="DB17" s="3"/>
       <c r="DC17" s="3"/>
     </row>
-    <row r="18" spans="1:107">
+    <row r="18" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>370</v>
       </c>
@@ -8869,7 +8869,7 @@
       <c r="DB18" s="3"/>
       <c r="DC18" s="3"/>
     </row>
-    <row r="19" spans="1:107">
+    <row r="19" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>381</v>
       </c>
@@ -9069,7 +9069,7 @@
       <c r="DB19" s="3"/>
       <c r="DC19" s="3"/>
     </row>
-    <row r="20" spans="1:107">
+    <row r="20" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>396</v>
       </c>
@@ -9269,7 +9269,7 @@
       <c r="DB20" s="3"/>
       <c r="DC20" s="3"/>
     </row>
-    <row r="21" spans="1:107">
+    <row r="21" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>411</v>
       </c>
@@ -9417,7 +9417,7 @@
       <c r="DB21" s="3"/>
       <c r="DC21" s="3"/>
     </row>
-    <row r="22" spans="1:107">
+    <row r="22" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>418</v>
       </c>
@@ -9643,7 +9643,7 @@
       <c r="DB22" s="3"/>
       <c r="DC22" s="3"/>
     </row>
-    <row r="23" spans="1:107">
+    <row r="23" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>435</v>
       </c>
@@ -9882,7 +9882,7 @@
       <c r="DB23" s="3"/>
       <c r="DC23" s="3"/>
     </row>
-    <row r="24" spans="1:107">
+    <row r="24" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>455</v>
       </c>
@@ -10186,7 +10186,7 @@
       <c r="DB24" s="3"/>
       <c r="DC24" s="3"/>
     </row>
-    <row r="25" spans="1:107">
+    <row r="25" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>486</v>
       </c>
@@ -10412,7 +10412,7 @@
       <c r="DB25" s="3"/>
       <c r="DC25" s="3"/>
     </row>
-    <row r="26" spans="1:107">
+    <row r="26" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>505</v>
       </c>
@@ -10586,7 +10586,7 @@
       <c r="DB26" s="3"/>
       <c r="DC26" s="3"/>
     </row>
-    <row r="27" spans="1:107">
+    <row r="27" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>515</v>
       </c>
@@ -10812,7 +10812,7 @@
       <c r="DB27" s="3"/>
       <c r="DC27" s="3"/>
     </row>
-    <row r="28" spans="1:107">
+    <row r="28" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>532</v>
       </c>
@@ -10947,7 +10947,7 @@
       <c r="DB28" s="3"/>
       <c r="DC28" s="3"/>
     </row>
-    <row r="29" spans="1:107">
+    <row r="29" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>537</v>
       </c>
@@ -11108,7 +11108,7 @@
       <c r="DB29" s="3"/>
       <c r="DC29" s="3"/>
     </row>
-    <row r="30" spans="1:107">
+    <row r="30" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>546</v>
       </c>
@@ -11282,7 +11282,7 @@
       <c r="DB30" s="3"/>
       <c r="DC30" s="3"/>
     </row>
-    <row r="31" spans="1:107">
+    <row r="31" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>555</v>
       </c>
@@ -11430,7 +11430,7 @@
       <c r="DB31" s="3"/>
       <c r="DC31" s="3"/>
     </row>
-    <row r="32" spans="1:107">
+    <row r="32" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>562</v>
       </c>
@@ -11708,7 +11708,7 @@
       <c r="DB32" s="3"/>
       <c r="DC32" s="3"/>
     </row>
-    <row r="33" spans="1:222">
+    <row r="33" spans="1:222" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>589</v>
       </c>
@@ -11869,7 +11869,7 @@
       <c r="DB33" s="3"/>
       <c r="DC33" s="3"/>
     </row>
-    <row r="34" spans="1:222">
+    <row r="34" spans="1:222" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>598</v>
       </c>
@@ -11887,7 +11887,7 @@
         <v>29</v>
       </c>
       <c r="F34" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G34" s="3">
         <v>1</v>
@@ -12403,7 +12403,7 @@
         <v>0.59699999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:222">
+    <row r="35" spans="1:222" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>651</v>
       </c>
@@ -12694,7 +12694,7 @@
       <c r="DB35" s="3"/>
       <c r="DC35" s="3"/>
     </row>
-    <row r="36" spans="1:222">
+    <row r="36" spans="1:222" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>679</v>
       </c>
@@ -12829,7 +12829,7 @@
       <c r="DB36" s="3"/>
       <c r="DC36" s="3"/>
     </row>
-    <row r="37" spans="1:222">
+    <row r="37" spans="1:222" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>682</v>
       </c>
@@ -13133,7 +13133,7 @@
       <c r="DB37" s="3"/>
       <c r="DC37" s="3"/>
     </row>
-    <row r="38" spans="1:222">
+    <row r="38" spans="1:222" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>711</v>
       </c>
@@ -13320,7 +13320,7 @@
       <c r="DB38" s="3"/>
       <c r="DC38" s="3"/>
     </row>
-    <row r="39" spans="1:222">
+    <row r="39" spans="1:222" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>724</v>
       </c>
@@ -13507,7 +13507,7 @@
       <c r="DB39" s="3"/>
       <c r="DC39" s="3"/>
     </row>
-    <row r="40" spans="1:222">
+    <row r="40" spans="1:222" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>737</v>
       </c>
@@ -13870,7 +13870,7 @@
         <v>0.308</v>
       </c>
     </row>
-    <row r="41" spans="1:222">
+    <row r="41" spans="1:222" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>774</v>
       </c>
@@ -14018,7 +14018,7 @@
       <c r="DB41" s="3"/>
       <c r="DC41" s="3"/>
     </row>
-    <row r="42" spans="1:222">
+    <row r="42" spans="1:222" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>781</v>
       </c>
@@ -14231,7 +14231,7 @@
       <c r="DB42" s="3"/>
       <c r="DC42" s="3"/>
     </row>
-    <row r="43" spans="1:222">
+    <row r="43" spans="1:222" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>798</v>
       </c>
@@ -14366,7 +14366,7 @@
       <c r="DB43" s="3"/>
       <c r="DC43" s="3"/>
     </row>
-    <row r="44" spans="1:222">
+    <row r="44" spans="1:222" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>803</v>
       </c>
@@ -14605,7 +14605,7 @@
       <c r="DB44" s="3"/>
       <c r="DC44" s="3"/>
     </row>
-    <row r="45" spans="1:222">
+    <row r="45" spans="1:222" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>823</v>
       </c>
@@ -15310,7 +15310,7 @@
         <v>0.73599999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:222">
+    <row r="46" spans="1:222" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>898</v>
       </c>
@@ -15484,7 +15484,7 @@
       <c r="DB46" s="3"/>
       <c r="DC46" s="3"/>
     </row>
-    <row r="47" spans="1:222">
+    <row r="47" spans="1:222" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>907</v>
       </c>
@@ -15524,7 +15524,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="48" spans="1:222">
+    <row r="48" spans="1:222" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>910</v>
       </c>
@@ -15754,7 +15754,7 @@
         <v>0.28399999999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:66">
+    <row r="49" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>934</v>
       </c>
@@ -15965,7 +15965,7 @@
         <v>0.41899999999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:66">
+    <row r="50" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>955</v>
       </c>
@@ -16043,7 +16043,7 @@
         <v>0.71299999999999997</v>
       </c>
     </row>
-    <row r="51" spans="1:66">
+    <row r="51" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>964</v>
       </c>
@@ -16216,7 +16216,7 @@
         <v>0.64200000000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:66">
+    <row r="52" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>981</v>
       </c>

--- a/DataStructuresProject3/District_map.xlsx
+++ b/DataStructuresProject3/District_map.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23602"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\539\DataStructuresProject3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uflorida-my.sharepoint.com/personal/notmarcus_ufl_edu/Documents/Data Structures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642938FA-B081-46A6-93D1-D086A7B7927F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1722" documentId="13_ncr:1_{CCC79481-63E0-4D83-A9DA-8C106886C3DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C5E9869C-A547-4E82-BBB4-7A0518BB3694}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B576BF06-D8E7-4931-8545-D57E9AAA9B99}"/>
+    <workbookView xWindow="10800" yWindow="4545" windowWidth="18000" windowHeight="11055" xr2:uid="{B576BF06-D8E7-4931-8545-D57E9AAA9B99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="986">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="990">
   <si>
     <t>Info:</t>
   </si>
@@ -2007,7 +2007,7 @@
     <t>Deborah Ross</t>
   </si>
   <si>
-    <t>A;am Swain</t>
+    <t>Alan Swain</t>
   </si>
   <si>
     <t>Daryl Farrow</t>
@@ -2167,6 +2167,18 @@
   </si>
   <si>
     <t>David Joyce</t>
+  </si>
+  <si>
+    <t>Joel Newby</t>
+  </si>
+  <si>
+    <t>Steve Stivers</t>
+  </si>
+  <si>
+    <t>Aaron Godfrey</t>
+  </si>
+  <si>
+    <t>Anthony Gonzalez</t>
   </si>
   <si>
     <t>Oklahoma</t>
@@ -2998,7 +3010,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3373,102 +3385,102 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADBEAA11-795E-4093-A04F-1DFE9E42F9C1}">
   <dimension ref="A1:LL52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="CE21" workbookViewId="0">
+      <selection activeCell="CY37" sqref="CY37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.33203125" customWidth="1"/>
-    <col min="19" max="19" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.28515625" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="17" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="19" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="17" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.44140625" customWidth="1"/>
-    <col min="37" max="37" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.42578125" customWidth="1"/>
+    <col min="37" max="37" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="17" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="18" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="17" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="17" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="18" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="17" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="17" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="74" max="74" width="17" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="118" max="118" width="14" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="10.33203125" customWidth="1"/>
-    <col min="129" max="129" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="10.28515625" customWidth="1"/>
+    <col min="129" max="129" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="130" max="130" width="13" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="149" max="149" width="10" customWidth="1"/>
-    <col min="154" max="154" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="160" max="160" width="15" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="15.44140625" customWidth="1"/>
+    <col min="165" max="165" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:324" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:324">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3487,7 +3499,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:324" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:324">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -4461,7 +4473,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:324" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:324">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -4674,7 +4686,7 @@
       <c r="DB3" s="3"/>
       <c r="DC3" s="3"/>
     </row>
-    <row r="4" spans="1:324" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:324">
       <c r="A4" s="3" t="s">
         <v>29</v>
       </c>
@@ -4809,7 +4821,7 @@
       <c r="DB4" s="3"/>
       <c r="DC4" s="3"/>
     </row>
-    <row r="5" spans="1:324" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:324">
       <c r="A5" s="3" t="s">
         <v>34</v>
       </c>
@@ -5048,7 +5060,7 @@
       <c r="DB5" s="3"/>
       <c r="DC5" s="3"/>
     </row>
-    <row r="6" spans="1:324" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:324">
       <c r="A6" s="3" t="s">
         <v>55</v>
       </c>
@@ -5221,7 +5233,7 @@
       <c r="DB6" s="3"/>
       <c r="DC6" s="3"/>
     </row>
-    <row r="7" spans="1:324" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:324">
       <c r="A7" s="4" t="s">
         <v>65</v>
       </c>
@@ -6249,7 +6261,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:324" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:324">
       <c r="A8" s="3" t="s">
         <v>171</v>
       </c>
@@ -6462,7 +6474,7 @@
       <c r="DB8" s="3"/>
       <c r="DC8" s="3"/>
     </row>
-    <row r="9" spans="1:324" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:324">
       <c r="A9" s="3" t="s">
         <v>188</v>
       </c>
@@ -6649,7 +6661,7 @@
       <c r="DB9" s="3"/>
       <c r="DC9" s="3"/>
     </row>
-    <row r="10" spans="1:324" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:324">
       <c r="A10" s="3" t="s">
         <v>199</v>
       </c>
@@ -6784,7 +6796,7 @@
       <c r="DB10" s="3"/>
       <c r="DC10" s="3"/>
     </row>
-    <row r="11" spans="1:324" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:324">
       <c r="A11" s="4" t="s">
         <v>204</v>
       </c>
@@ -7317,7 +7329,7 @@
         <v>0.51400000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:324" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:324">
       <c r="A12" s="4" t="s">
         <v>257</v>
       </c>
@@ -7621,7 +7633,7 @@
       <c r="DB12" s="3"/>
       <c r="DC12" s="3"/>
     </row>
-    <row r="13" spans="1:324" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:324">
       <c r="A13" s="3" t="s">
         <v>288</v>
       </c>
@@ -7769,7 +7781,7 @@
       <c r="DB13" s="3"/>
       <c r="DC13" s="3"/>
     </row>
-    <row r="14" spans="1:324" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:324">
       <c r="A14" s="3" t="s">
         <v>293</v>
       </c>
@@ -7917,7 +7929,7 @@
       <c r="DB14" s="3"/>
       <c r="DC14" s="3"/>
     </row>
-    <row r="15" spans="1:324" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:324">
       <c r="A15" s="4" t="s">
         <v>300</v>
       </c>
@@ -8280,7 +8292,7 @@
         <v>0.70399999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:324" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:324">
       <c r="A16" s="3" t="s">
         <v>339</v>
       </c>
@@ -8519,7 +8531,7 @@
       <c r="DB16" s="3"/>
       <c r="DC16" s="3"/>
     </row>
-    <row r="17" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:107">
       <c r="A17" s="3" t="s">
         <v>358</v>
       </c>
@@ -8695,7 +8707,7 @@
       <c r="DB17" s="3"/>
       <c r="DC17" s="3"/>
     </row>
-    <row r="18" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:107">
       <c r="A18" s="3" t="s">
         <v>370</v>
       </c>
@@ -8869,7 +8881,7 @@
       <c r="DB18" s="3"/>
       <c r="DC18" s="3"/>
     </row>
-    <row r="19" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:107">
       <c r="A19" s="3" t="s">
         <v>381</v>
       </c>
@@ -9069,7 +9081,7 @@
       <c r="DB19" s="3"/>
       <c r="DC19" s="3"/>
     </row>
-    <row r="20" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:107">
       <c r="A20" s="3" t="s">
         <v>396</v>
       </c>
@@ -9269,7 +9281,7 @@
       <c r="DB20" s="3"/>
       <c r="DC20" s="3"/>
     </row>
-    <row r="21" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:107">
       <c r="A21" s="3" t="s">
         <v>411</v>
       </c>
@@ -9417,7 +9429,7 @@
       <c r="DB21" s="3"/>
       <c r="DC21" s="3"/>
     </row>
-    <row r="22" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:107">
       <c r="A22" s="3" t="s">
         <v>418</v>
       </c>
@@ -9643,7 +9655,7 @@
       <c r="DB22" s="3"/>
       <c r="DC22" s="3"/>
     </row>
-    <row r="23" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:107">
       <c r="A23" s="3" t="s">
         <v>435</v>
       </c>
@@ -9882,7 +9894,7 @@
       <c r="DB23" s="3"/>
       <c r="DC23" s="3"/>
     </row>
-    <row r="24" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:107">
       <c r="A24" s="3" t="s">
         <v>455</v>
       </c>
@@ -10186,7 +10198,7 @@
       <c r="DB24" s="3"/>
       <c r="DC24" s="3"/>
     </row>
-    <row r="25" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:107">
       <c r="A25" s="3" t="s">
         <v>486</v>
       </c>
@@ -10201,7 +10213,7 @@
         <v>3299</v>
       </c>
       <c r="E25" s="3">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F25" s="3">
         <v>8</v>
@@ -10412,7 +10424,7 @@
       <c r="DB25" s="3"/>
       <c r="DC25" s="3"/>
     </row>
-    <row r="26" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:107">
       <c r="A26" s="3" t="s">
         <v>505</v>
       </c>
@@ -10586,7 +10598,7 @@
       <c r="DB26" s="3"/>
       <c r="DC26" s="3"/>
     </row>
-    <row r="27" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:107">
       <c r="A27" s="3" t="s">
         <v>515</v>
       </c>
@@ -10812,7 +10824,7 @@
       <c r="DB27" s="3"/>
       <c r="DC27" s="3"/>
     </row>
-    <row r="28" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:107">
       <c r="A28" s="3" t="s">
         <v>532</v>
       </c>
@@ -10947,7 +10959,7 @@
       <c r="DB28" s="3"/>
       <c r="DC28" s="3"/>
     </row>
-    <row r="29" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:107">
       <c r="A29" s="3" t="s">
         <v>537</v>
       </c>
@@ -11108,7 +11120,7 @@
       <c r="DB29" s="3"/>
       <c r="DC29" s="3"/>
     </row>
-    <row r="30" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:107">
       <c r="A30" s="3" t="s">
         <v>546</v>
       </c>
@@ -11282,7 +11294,7 @@
       <c r="DB30" s="3"/>
       <c r="DC30" s="3"/>
     </row>
-    <row r="31" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:107">
       <c r="A31" s="3" t="s">
         <v>555</v>
       </c>
@@ -11430,7 +11442,7 @@
       <c r="DB31" s="3"/>
       <c r="DC31" s="3"/>
     </row>
-    <row r="32" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:107">
       <c r="A32" s="3" t="s">
         <v>562</v>
       </c>
@@ -11708,7 +11720,7 @@
       <c r="DB32" s="3"/>
       <c r="DC32" s="3"/>
     </row>
-    <row r="33" spans="1:222" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:222">
       <c r="A33" s="3" t="s">
         <v>589</v>
       </c>
@@ -11869,7 +11881,7 @@
       <c r="DB33" s="3"/>
       <c r="DC33" s="3"/>
     </row>
-    <row r="34" spans="1:222" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:222">
       <c r="A34" s="4" t="s">
         <v>598</v>
       </c>
@@ -12403,7 +12415,7 @@
         <v>0.59699999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:222" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:222">
       <c r="A35" s="4" t="s">
         <v>651</v>
       </c>
@@ -12694,7 +12706,7 @@
       <c r="DB35" s="3"/>
       <c r="DC35" s="3"/>
     </row>
-    <row r="36" spans="1:222" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:222">
       <c r="A36" s="3" t="s">
         <v>679</v>
       </c>
@@ -12829,7 +12841,7 @@
       <c r="DB36" s="3"/>
       <c r="DC36" s="3"/>
     </row>
-    <row r="37" spans="1:222" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:222">
       <c r="A37" s="4" t="s">
         <v>682</v>
       </c>
@@ -13115,33 +13127,59 @@
       <c r="CL37" s="3">
         <v>0.60099999999999998</v>
       </c>
-      <c r="CM37" s="3"/>
-      <c r="CN37" s="3"/>
-      <c r="CO37" s="3"/>
-      <c r="CP37" s="3"/>
-      <c r="CQ37" s="3"/>
-      <c r="CR37" s="3"/>
-      <c r="CS37" s="3"/>
-      <c r="CT37" s="3"/>
-      <c r="CU37" s="3"/>
-      <c r="CV37" s="3"/>
-      <c r="CW37" s="3"/>
-      <c r="CX37" s="3"/>
+      <c r="CM37" s="3">
+        <v>15</v>
+      </c>
+      <c r="CN37" s="3">
+        <f>ROUNDDOWN((243103+140183)/F1*H1,0)</f>
+        <v>384</v>
+      </c>
+      <c r="CO37" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="CP37" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="CQ37" s="3">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="CR37" s="3">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="CS37" s="3">
+        <v>16</v>
+      </c>
+      <c r="CT37" s="3">
+        <f>ROUNDDOWN((247335+144071)/F1*H1,0)</f>
+        <v>392</v>
+      </c>
+      <c r="CU37" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="CV37" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="CW37" s="3">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="CX37" s="3">
+        <v>0.63200000000000001</v>
+      </c>
       <c r="CY37" s="3"/>
       <c r="CZ37" s="3"/>
       <c r="DA37" s="3"/>
       <c r="DB37" s="3"/>
       <c r="DC37" s="3"/>
     </row>
-    <row r="38" spans="1:222" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:222">
       <c r="A38" s="3" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="D38" s="3">
         <f>ROUNDDOWN(1565000/F1*H1,0)</f>
@@ -13161,10 +13199,10 @@
         <v>336</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="K38" s="3">
         <v>0.32700000000000001</v>
@@ -13180,10 +13218,10 @@
         <v>289</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="Q38" s="3">
         <v>0.22</v>
@@ -13199,10 +13237,10 @@
         <v>310</v>
       </c>
       <c r="U38" s="3" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="V38" s="3" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="W38" s="3">
         <v>0.215</v>
@@ -13218,10 +13256,10 @@
         <v>315</v>
       </c>
       <c r="AA38" s="3" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="AB38" s="3" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="AC38" s="3">
         <v>0.28799999999999998</v>
@@ -13237,10 +13275,10 @@
         <v>304</v>
       </c>
       <c r="AG38" s="3" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="AH38" s="3" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="AI38" s="3">
         <v>0.47899999999999998</v>
@@ -13320,15 +13358,15 @@
       <c r="DB38" s="3"/>
       <c r="DC38" s="3"/>
     </row>
-    <row r="39" spans="1:222" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:222">
       <c r="A39" s="3" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="D39" s="3">
         <f>ROUNDDOWN(2413914/F1*H1,0)</f>
@@ -13348,10 +13386,10 @@
         <v>460</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="K39" s="3">
         <v>0.64700000000000002</v>
@@ -13367,10 +13405,10 @@
         <v>458</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="Q39" s="3">
         <v>0.37</v>
@@ -13386,10 +13424,10 @@
         <v>471</v>
       </c>
       <c r="U39" s="3" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="V39" s="3" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="W39" s="3">
         <v>0.73099999999999998</v>
@@ -13405,10 +13443,10 @@
         <v>468</v>
       </c>
       <c r="AA39" s="3" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="AB39" s="3" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="AC39" s="3">
         <v>0.51600000000000001</v>
@@ -13424,10 +13462,10 @@
         <v>453</v>
       </c>
       <c r="AG39" s="3" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="AH39" s="3" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="AI39" s="3">
         <v>0.52</v>
@@ -13507,9 +13545,9 @@
       <c r="DB39" s="3"/>
       <c r="DC39" s="3"/>
     </row>
-    <row r="40" spans="1:222" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:222">
       <c r="A40" s="4" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>25</v>
@@ -13535,10 +13573,10 @@
         <v>442</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="K40" s="3">
         <v>0.434</v>
@@ -13554,10 +13592,10 @@
         <v>273</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="Q40" s="3">
         <v>0.72499999999999998</v>
@@ -13573,10 +13611,10 @@
         <v>376</v>
       </c>
       <c r="U40" s="3" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="V40" s="3" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="W40" s="3">
         <v>0.91</v>
@@ -13592,10 +13630,10 @@
         <v>445</v>
       </c>
       <c r="AA40" s="3" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="AB40" s="3" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="AC40" s="3">
         <v>0.59499999999999997</v>
@@ -13611,10 +13649,10 @@
         <v>396</v>
       </c>
       <c r="AG40" s="3" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="AH40" s="3" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="AI40" s="3">
         <v>0.64700000000000002</v>
@@ -13630,10 +13668,10 @@
         <v>405</v>
       </c>
       <c r="AM40" s="3" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="AN40" s="3" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="AO40" s="3">
         <v>0.56100000000000005</v>
@@ -13649,10 +13687,10 @@
         <v>378</v>
       </c>
       <c r="AS40" s="3" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="AT40" s="3" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="AU40" s="3">
         <v>0.51900000000000002</v>
@@ -13668,10 +13706,10 @@
         <v>345</v>
       </c>
       <c r="AY40" s="3" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="AZ40" s="3" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="BA40" s="3">
         <v>0.51800000000000002</v>
@@ -13687,10 +13725,10 @@
         <v>352</v>
       </c>
       <c r="BE40" s="3" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="BF40" s="3" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="BG40" s="3">
         <v>0.33700000000000002</v>
@@ -13706,10 +13744,10 @@
         <v>392</v>
       </c>
       <c r="BK40" s="3" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="BL40" s="3" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="BM40" s="3">
         <v>0.46700000000000003</v>
@@ -13725,10 +13763,10 @@
         <v>384</v>
       </c>
       <c r="BQ40" s="3" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="BR40" s="3" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="BS40" s="3">
         <v>0.36899999999999999</v>
@@ -13744,10 +13782,10 @@
         <v>340</v>
       </c>
       <c r="BW40" s="3" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="BX40" s="3" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="BY40" s="3">
         <v>0.29199999999999998</v>
@@ -13763,10 +13801,10 @@
         <v>365</v>
       </c>
       <c r="CC40" s="3" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="CD40" s="3" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="CE40" s="3">
         <v>0.26500000000000001</v>
@@ -13782,10 +13820,10 @@
         <v>374</v>
       </c>
       <c r="CI40" s="3" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="CJ40" s="3" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="CK40" s="3">
         <v>0.35299999999999998</v>
@@ -13801,10 +13839,10 @@
         <v>348</v>
       </c>
       <c r="CO40" s="3" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="CP40" s="3" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="CQ40" s="3">
         <v>0.26500000000000001</v>
@@ -13820,10 +13858,10 @@
         <v>354</v>
       </c>
       <c r="CU40" s="3" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="CV40" s="3" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="CW40" s="3">
         <v>0.40699999999999997</v>
@@ -13839,10 +13877,10 @@
         <v>435</v>
       </c>
       <c r="DA40" s="3" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="DB40" s="3" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="DC40" s="3">
         <v>0.51100000000000001</v>
@@ -13858,10 +13896,10 @@
         <v>385</v>
       </c>
       <c r="DG40" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="DH40" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="DI40">
         <v>0.69199999999999995</v>
@@ -13870,15 +13908,15 @@
         <v>0.308</v>
       </c>
     </row>
-    <row r="41" spans="1:222" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:222">
       <c r="A41" s="3" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="D41" s="3">
         <f>ROUNDDOWN((525000)/F1*H1,0)</f>
@@ -13898,10 +13936,10 @@
         <v>222</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="K41" s="3">
         <v>0.71299999999999997</v>
@@ -13917,10 +13955,10 @@
         <v>264</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="P41" s="3" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="Q41" s="3">
         <v>0.58399999999999996</v>
@@ -14018,15 +14056,15 @@
       <c r="DB41" s="3"/>
       <c r="DC41" s="3"/>
     </row>
-    <row r="42" spans="1:222" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:222">
       <c r="A42" s="3" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="D42" s="3">
         <f>ROUNDDOWN(2533010/F1*H1,0)</f>
@@ -14046,10 +14084,10 @@
         <v>427</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="K42" s="3">
         <v>0.49399999999999999</v>
@@ -14065,10 +14103,10 @@
         <v>365</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="Q42" s="3">
         <v>0.42599999999999999</v>
@@ -14084,10 +14122,10 @@
         <v>334</v>
       </c>
       <c r="U42" s="3" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="V42" s="3" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="W42" s="3">
         <v>0.28699999999999998</v>
@@ -14103,10 +14141,10 @@
         <v>361</v>
       </c>
       <c r="AA42" s="3" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="AB42" s="3" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="AC42" s="3">
         <v>0.36899999999999999</v>
@@ -14122,10 +14160,10 @@
         <v>367</v>
       </c>
       <c r="AG42" s="3" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="AH42" s="3" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="AI42" s="3">
         <v>0.39900000000000002</v>
@@ -14141,10 +14179,10 @@
         <v>290</v>
       </c>
       <c r="AM42" s="3" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="AN42" s="3" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="AO42" s="3">
         <v>0.308</v>
@@ -14160,10 +14198,10 @@
         <v>364</v>
       </c>
       <c r="AS42" s="3" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="AT42" s="3" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="AU42" s="3">
         <v>0.38200000000000001</v>
@@ -14231,15 +14269,15 @@
       <c r="DB42" s="3"/>
       <c r="DC42" s="3"/>
     </row>
-    <row r="43" spans="1:222" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:222">
       <c r="A43" s="3" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="D43" s="3">
         <f>ROUNDDOWN(427529/F1*H1,0)</f>
@@ -14259,10 +14297,10 @@
         <v>398</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="K43" s="3">
         <v>0.19</v>
@@ -14366,15 +14404,15 @@
       <c r="DB43" s="3"/>
       <c r="DC43" s="3"/>
     </row>
-    <row r="44" spans="1:222" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:222">
       <c r="A44" s="3" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="D44" s="3">
         <f>ROUNDDOWN(3065000/F1*H1,0)</f>
@@ -14394,10 +14432,10 @@
         <v>306</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="K44" s="3">
         <v>0.22500000000000001</v>
@@ -14413,10 +14451,10 @@
         <v>354</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="Q44" s="3">
         <v>0.311</v>
@@ -14432,10 +14470,10 @@
         <v>321</v>
       </c>
       <c r="U44" s="3" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="V44" s="3" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="W44" s="3">
         <v>0.30499999999999999</v>
@@ -14451,10 +14489,10 @@
         <v>336</v>
       </c>
       <c r="AA44" s="3" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="AB44" s="3" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="AC44" s="3">
         <v>0.33300000000000002</v>
@@ -14470,7 +14508,7 @@
         <v>252</v>
       </c>
       <c r="AG44" s="3" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="AH44" s="3" t="s">
         <v>25</v>
@@ -14489,10 +14527,10 @@
         <v>350</v>
       </c>
       <c r="AM44" s="3" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="AN44" s="3" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="AO44" s="3">
         <v>0.24</v>
@@ -14508,10 +14546,10 @@
         <v>351</v>
       </c>
       <c r="AS44" s="3" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="AT44" s="3" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="AU44" s="3">
         <v>0.27300000000000002</v>
@@ -14527,10 +14565,10 @@
         <v>332</v>
       </c>
       <c r="AY44" s="3" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="AZ44" s="3" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="BA44" s="3">
         <v>0.29499999999999998</v>
@@ -14546,10 +14584,10 @@
         <v>243</v>
       </c>
       <c r="BE44" s="3" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="BF44" s="3" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="BG44" s="3">
         <v>0.77400000000000002</v>
@@ -14605,15 +14643,15 @@
       <c r="DB44" s="3"/>
       <c r="DC44" s="3"/>
     </row>
-    <row r="45" spans="1:222" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:222">
       <c r="A45" s="4" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="D45" s="3">
         <f>ROUNDDOWN((5962983+4888764+209722+81893)/F1*H1,0)</f>
@@ -14633,10 +14671,10 @@
         <v>303</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="K45" s="3">
         <v>0.27400000000000002</v>
@@ -14652,10 +14690,10 @@
         <v>347</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="P45" s="3" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="Q45" s="3">
         <v>0.42799999999999999</v>
@@ -14671,10 +14709,10 @@
         <v>419</v>
       </c>
       <c r="U45" s="3" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="V45" s="3" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="W45" s="3">
         <v>0.42899999999999999</v>
@@ -14690,10 +14728,10 @@
         <v>337</v>
       </c>
       <c r="AA45" s="3" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="AB45" s="3" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="AC45" s="3">
         <v>0.22700000000000001</v>
@@ -14709,10 +14747,10 @@
         <v>281</v>
       </c>
       <c r="AG45" s="3" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="AH45" s="3" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="AI45" s="3">
         <v>0.35899999999999999</v>
@@ -14728,10 +14766,10 @@
         <v>340</v>
       </c>
       <c r="AM45" s="3" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="AN45" s="3" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="AO45" s="3">
         <v>0.44</v>
@@ -14747,10 +14785,10 @@
         <v>315</v>
       </c>
       <c r="AS45" s="3" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="AT45" s="3" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="AU45" s="3">
         <v>0.50800000000000001</v>
@@ -14766,10 +14804,10 @@
         <v>383</v>
       </c>
       <c r="AY45" s="3" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="AZ45" s="3" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="BA45" s="3">
         <v>0.255</v>
@@ -14785,10 +14823,10 @@
         <v>229</v>
       </c>
       <c r="BE45" s="3" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="BF45" s="3" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="BG45" s="3">
         <v>0.755</v>
@@ -14804,10 +14842,10 @@
         <v>415</v>
       </c>
       <c r="BK45" s="3" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="BL45" s="3" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="BM45" s="3">
         <v>0.45300000000000001</v>
@@ -14823,10 +14861,10 @@
         <v>292</v>
       </c>
       <c r="BQ45" s="3" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="BR45" s="3" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="BS45" s="3">
         <v>0.183</v>
@@ -14842,10 +14880,10 @@
         <v>368</v>
       </c>
       <c r="BW45" s="3" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="BX45" s="3" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="BY45" s="3">
         <v>0.33</v>
@@ -14861,10 +14899,10 @@
         <v>274</v>
       </c>
       <c r="CC45" s="3" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="CD45" s="3" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="CE45" s="3">
         <v>0.185</v>
@@ -14880,10 +14918,10 @@
         <v>309</v>
       </c>
       <c r="CI45" s="3" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="CJ45" s="3" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="CK45" s="3">
         <v>0.38400000000000001</v>
@@ -14899,10 +14937,10 @@
         <v>229</v>
       </c>
       <c r="CO45" s="3" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="CP45" s="3" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="CQ45" s="3">
         <v>0.505</v>
@@ -14918,10 +14956,10 @@
         <v>238</v>
       </c>
       <c r="CU45" s="3" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="CV45" s="3" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="CW45" s="3">
         <v>0.64700000000000002</v>
@@ -14937,10 +14975,10 @@
         <v>307</v>
       </c>
       <c r="DA45" s="3" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="DB45" s="3" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="DC45" s="3">
         <v>0.40899999999999997</v>
@@ -14956,10 +14994,10 @@
         <v>247</v>
       </c>
       <c r="DG45" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="DH45" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="DI45">
         <v>0.73299999999999998</v>
@@ -14975,10 +15013,10 @@
         <v>265</v>
       </c>
       <c r="DM45" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="DN45" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="DO45">
         <v>0.22900000000000001</v>
@@ -14994,10 +15032,10 @@
         <v>271</v>
       </c>
       <c r="DS45" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="DT45" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="DU45">
         <v>0.33100000000000002</v>
@@ -15013,10 +15051,10 @@
         <v>455</v>
       </c>
       <c r="DY45" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="DZ45" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="EA45">
         <v>0.45400000000000001</v>
@@ -15032,10 +15070,10 @@
         <v>409</v>
       </c>
       <c r="EE45" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="EF45" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="EG45">
         <v>0.44600000000000001</v>
@@ -15051,10 +15089,10 @@
         <v>296</v>
       </c>
       <c r="EK45" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="EL45" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="EM45">
         <v>0.46600000000000003</v>
@@ -15070,10 +15108,10 @@
         <v>345</v>
       </c>
       <c r="EQ45" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="ER45" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="ES45">
         <v>0.47499999999999998</v>
@@ -15089,10 +15127,10 @@
         <v>394</v>
       </c>
       <c r="EW45" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="EX45" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="EY45">
         <v>0.42099999999999999</v>
@@ -15108,10 +15146,10 @@
         <v>433</v>
       </c>
       <c r="FC45" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="FD45" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="FE45">
         <v>0.373</v>
@@ -15127,10 +15165,10 @@
         <v>274</v>
       </c>
       <c r="FI45" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="FJ45" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="FK45">
         <v>0.34899999999999998</v>
@@ -15146,10 +15184,10 @@
         <v>236</v>
       </c>
       <c r="FO45" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="FP45" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="FQ45">
         <v>0.39</v>
@@ -15165,10 +15203,10 @@
         <v>156</v>
       </c>
       <c r="FU45" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="FV45" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="FW45">
         <v>0.71099999999999997</v>
@@ -15184,10 +15222,10 @@
         <v>265</v>
       </c>
       <c r="GA45" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
       <c r="GB45" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="GC45">
         <v>0.77500000000000002</v>
@@ -15203,10 +15241,10 @@
         <v>399</v>
       </c>
       <c r="GG45" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="GH45" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
       <c r="GI45">
         <v>0.443</v>
@@ -15222,10 +15260,10 @@
         <v>344</v>
       </c>
       <c r="GM45" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="GN45" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="GO45">
         <v>0.51900000000000002</v>
@@ -15241,10 +15279,10 @@
         <v>158</v>
       </c>
       <c r="GS45" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="GT45" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="GU45">
         <v>0.66800000000000004</v>
@@ -15260,10 +15298,10 @@
         <v>199</v>
       </c>
       <c r="GY45" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="GZ45" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="HA45">
         <v>0.55400000000000005</v>
@@ -15279,10 +15317,10 @@
         <v>270</v>
       </c>
       <c r="HE45" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="HF45" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="HG45">
         <v>0.65400000000000003</v>
@@ -15298,10 +15336,10 @@
         <v>303</v>
       </c>
       <c r="HK45" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="HL45" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="HM45">
         <v>0.24299999999999999</v>
@@ -15310,9 +15348,9 @@
         <v>0.73599999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:222" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:222">
       <c r="A46" s="3" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>25</v>
@@ -15338,10 +15376,10 @@
         <v>343</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="K46" s="3">
         <v>0.30399999999999999</v>
@@ -15357,10 +15395,10 @@
         <v>355</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="P46" s="3" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="Q46" s="3">
         <v>0.36599999999999999</v>
@@ -15376,10 +15414,10 @@
         <v>359</v>
       </c>
       <c r="U46" s="3" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="V46" s="3" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="W46" s="3">
         <v>0.26800000000000002</v>
@@ -15395,10 +15433,10 @@
         <v>377</v>
       </c>
       <c r="AA46" s="3" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="AB46" s="3" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="AC46" s="3">
         <v>0.46700000000000003</v>
@@ -15484,9 +15522,9 @@
       <c r="DB46" s="3"/>
       <c r="DC46" s="3"/>
     </row>
-    <row r="47" spans="1:222" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:222">
       <c r="A47" s="3" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>25</v>
@@ -15512,10 +15550,10 @@
         <v>355</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="K47" s="3">
         <v>0.67400000000000004</v>
@@ -15524,15 +15562,15 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="48" spans="1:222" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:222">
       <c r="A48" s="4" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="D48">
         <f>ROUNDDOWN((4523142)/F1*H1,0)</f>
@@ -15552,10 +15590,10 @@
         <v>448</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="K48" s="3">
         <v>0.41799999999999998</v>
@@ -15571,10 +15609,10 @@
         <v>360</v>
       </c>
       <c r="O48" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="P48" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="Q48">
         <v>0.45900000000000002</v>
@@ -15590,10 +15628,10 @@
         <v>341</v>
       </c>
       <c r="U48" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="V48" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="W48">
         <v>0.68500000000000005</v>
@@ -15609,10 +15647,10 @@
         <v>391</v>
       </c>
       <c r="AA48" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="AB48" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="AC48">
         <v>0.61699999999999999</v>
@@ -15628,10 +15666,10 @@
         <v>402</v>
       </c>
       <c r="AG48" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="AH48" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="AI48">
         <v>0.47399999999999998</v>
@@ -15647,10 +15685,10 @@
         <v>382</v>
       </c>
       <c r="AM48" t="s">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="AN48" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="AO48">
         <v>0.35299999999999998</v>
@@ -15666,10 +15704,10 @@
         <v>454</v>
       </c>
       <c r="AS48" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="AT48" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="AU48">
         <v>0.50900000000000001</v>
@@ -15685,10 +15723,10 @@
         <v>397</v>
       </c>
       <c r="AY48" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="AZ48" t="s">
-        <v>928</v>
+        <v>932</v>
       </c>
       <c r="BA48">
         <v>0.76</v>
@@ -15707,7 +15745,7 @@
         <v>25</v>
       </c>
       <c r="BF48" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="BG48">
         <v>0</v>
@@ -15723,10 +15761,10 @@
         <v>476</v>
       </c>
       <c r="BK48" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="BL48" t="s">
-        <v>931</v>
+        <v>935</v>
       </c>
       <c r="BM48">
         <v>0.56599999999999995</v>
@@ -15742,10 +15780,10 @@
         <v>393</v>
       </c>
       <c r="BQ48" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="BR48" t="s">
-        <v>933</v>
+        <v>937</v>
       </c>
       <c r="BS48">
         <v>0.71599999999999997</v>
@@ -15754,9 +15792,9 @@
         <v>0.28399999999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:66">
       <c r="A49" s="4" t="s">
-        <v>934</v>
+        <v>938</v>
       </c>
       <c r="B49" t="s">
         <v>25</v>
@@ -15782,10 +15820,10 @@
         <v>472</v>
       </c>
       <c r="I49" t="s">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="J49" t="s">
-        <v>936</v>
+        <v>940</v>
       </c>
       <c r="K49">
         <v>0.58599999999999997</v>
@@ -15801,10 +15839,10 @@
         <v>404</v>
       </c>
       <c r="O49" t="s">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="P49" t="s">
-        <v>938</v>
+        <v>942</v>
       </c>
       <c r="Q49">
         <v>0.63200000000000001</v>
@@ -15820,10 +15858,10 @@
         <v>418</v>
       </c>
       <c r="U49" t="s">
-        <v>939</v>
+        <v>943</v>
       </c>
       <c r="V49" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
       <c r="W49">
         <v>0.435</v>
@@ -15839,10 +15877,10 @@
         <v>305</v>
       </c>
       <c r="AA49" t="s">
-        <v>941</v>
+        <v>945</v>
       </c>
       <c r="AB49" t="s">
-        <v>942</v>
+        <v>946</v>
       </c>
       <c r="AC49">
         <v>0.33700000000000002</v>
@@ -15858,10 +15896,10 @@
         <v>404</v>
       </c>
       <c r="AG49" t="s">
-        <v>943</v>
+        <v>947</v>
       </c>
       <c r="AH49" t="s">
-        <v>944</v>
+        <v>948</v>
       </c>
       <c r="AI49">
         <v>0.38600000000000001</v>
@@ -15877,10 +15915,10 @@
         <v>417</v>
       </c>
       <c r="AM49" t="s">
-        <v>945</v>
+        <v>949</v>
       </c>
       <c r="AN49" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="AO49">
         <v>0.59399999999999997</v>
@@ -15896,10 +15934,10 @@
         <v>466</v>
       </c>
       <c r="AS49" t="s">
-        <v>947</v>
+        <v>951</v>
       </c>
       <c r="AT49" t="s">
-        <v>948</v>
+        <v>952</v>
       </c>
       <c r="AU49">
         <v>0.83199999999999996</v>
@@ -15915,10 +15953,10 @@
         <v>412</v>
       </c>
       <c r="AY49" t="s">
-        <v>949</v>
+        <v>953</v>
       </c>
       <c r="AZ49" t="s">
-        <v>950</v>
+        <v>954</v>
       </c>
       <c r="BA49">
         <v>0.51800000000000002</v>
@@ -15934,10 +15972,10 @@
         <v>349</v>
       </c>
       <c r="BE49" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
       <c r="BF49" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="BG49">
         <v>0.74299999999999999</v>
@@ -15953,10 +15991,10 @@
         <v>289</v>
       </c>
       <c r="BK49" t="s">
-        <v>953</v>
+        <v>957</v>
       </c>
       <c r="BL49" t="s">
-        <v>954</v>
+        <v>958</v>
       </c>
       <c r="BM49">
         <v>0.58099999999999996</v>
@@ -15965,15 +16003,15 @@
         <v>0.41899999999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:66">
       <c r="A50" s="3" t="s">
-        <v>955</v>
+        <v>959</v>
       </c>
       <c r="B50" t="s">
-        <v>956</v>
+        <v>960</v>
       </c>
       <c r="C50" t="s">
-        <v>957</v>
+        <v>961</v>
       </c>
       <c r="D50">
         <f>ROUNDDOWN(802726/F1*H1,0)</f>
@@ -15993,10 +16031,10 @@
         <v>262</v>
       </c>
       <c r="I50" t="s">
-        <v>958</v>
+        <v>962</v>
       </c>
       <c r="J50" t="s">
-        <v>959</v>
+        <v>963</v>
       </c>
       <c r="K50">
         <v>0.31</v>
@@ -16012,10 +16050,10 @@
         <v>273</v>
       </c>
       <c r="O50" t="s">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="P50" t="s">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="Q50">
         <v>0.36899999999999999</v>
@@ -16031,10 +16069,10 @@
         <v>227</v>
       </c>
       <c r="U50" t="s">
-        <v>962</v>
+        <v>966</v>
       </c>
       <c r="V50" t="s">
-        <v>963</v>
+        <v>967</v>
       </c>
       <c r="W50">
         <v>0.28699999999999998</v>
@@ -16043,9 +16081,9 @@
         <v>0.71299999999999997</v>
       </c>
     </row>
-    <row r="51" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:66">
       <c r="A51" s="4" t="s">
-        <v>964</v>
+        <v>968</v>
       </c>
       <c r="B51" t="s">
         <v>25</v>
@@ -16071,10 +16109,10 @@
         <v>402</v>
       </c>
       <c r="I51" t="s">
-        <v>965</v>
+        <v>969</v>
       </c>
       <c r="J51" t="s">
-        <v>966</v>
+        <v>970</v>
       </c>
       <c r="K51">
         <v>0.40600000000000003</v>
@@ -16090,10 +16128,10 @@
         <v>458</v>
       </c>
       <c r="O51" t="s">
-        <v>967</v>
+        <v>971</v>
       </c>
       <c r="P51" t="s">
-        <v>968</v>
+        <v>972</v>
       </c>
       <c r="Q51">
         <v>0.69699999999999995</v>
@@ -16109,10 +16147,10 @@
         <v>390</v>
       </c>
       <c r="U51" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="V51" t="s">
-        <v>970</v>
+        <v>974</v>
       </c>
       <c r="W51">
         <v>0.51300000000000001</v>
@@ -16128,10 +16166,10 @@
         <v>312</v>
       </c>
       <c r="AA51" t="s">
-        <v>971</v>
+        <v>975</v>
       </c>
       <c r="AB51" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="AC51">
         <v>0.747</v>
@@ -16147,10 +16185,10 @@
         <v>442</v>
       </c>
       <c r="AG51" t="s">
-        <v>973</v>
+        <v>977</v>
       </c>
       <c r="AH51" t="s">
-        <v>974</v>
+        <v>978</v>
       </c>
       <c r="AI51">
         <v>0.39900000000000002</v>
@@ -16166,10 +16204,10 @@
         <v>404</v>
       </c>
       <c r="AM51" t="s">
-        <v>975</v>
+        <v>979</v>
       </c>
       <c r="AN51" t="s">
-        <v>976</v>
+        <v>980</v>
       </c>
       <c r="AO51">
         <v>0.40699999999999997</v>
@@ -16185,10 +16223,10 @@
         <v>415</v>
       </c>
       <c r="AS51" t="s">
-        <v>977</v>
+        <v>981</v>
       </c>
       <c r="AT51" t="s">
-        <v>978</v>
+        <v>982</v>
       </c>
       <c r="AU51">
         <v>0.39200000000000002</v>
@@ -16204,10 +16242,10 @@
         <v>418</v>
       </c>
       <c r="AY51" t="s">
-        <v>979</v>
+        <v>983</v>
       </c>
       <c r="AZ51" t="s">
-        <v>980</v>
+        <v>984</v>
       </c>
       <c r="BA51">
         <v>0.35799999999999998</v>
@@ -16216,15 +16254,15 @@
         <v>0.64200000000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:66">
       <c r="A52" s="3" t="s">
-        <v>981</v>
+        <v>985</v>
       </c>
       <c r="B52" t="s">
-        <v>982</v>
+        <v>986</v>
       </c>
       <c r="C52" t="s">
-        <v>983</v>
+        <v>987</v>
       </c>
       <c r="D52">
         <f>ROUNDDOWN(278503/F1*H1,0)</f>
@@ -16244,10 +16282,10 @@
         <v>271</v>
       </c>
       <c r="I52" t="s">
-        <v>984</v>
+        <v>988</v>
       </c>
       <c r="J52" t="s">
-        <v>985</v>
+        <v>989</v>
       </c>
       <c r="K52">
         <v>0.246</v>

--- a/DataStructuresProject3/District_map.xlsx
+++ b/DataStructuresProject3/District_map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uflorida-my.sharepoint.com/personal/notmarcus_ufl_edu/Documents/Data Structures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1722" documentId="13_ncr:1_{CCC79481-63E0-4D83-A9DA-8C106886C3DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C5E9869C-A547-4E82-BBB4-7A0518BB3694}"/>
+  <xr:revisionPtr revIDLastSave="1723" documentId="13_ncr:1_{CCC79481-63E0-4D83-A9DA-8C106886C3DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F9C8EF7D-4E13-4405-BB2B-1EF0BE21A5A7}"/>
   <bookViews>
     <workbookView xWindow="10800" yWindow="4545" windowWidth="18000" windowHeight="11055" xr2:uid="{B576BF06-D8E7-4931-8545-D57E9AAA9B99}"/>
   </bookViews>
@@ -3385,8 +3385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADBEAA11-795E-4093-A04F-1DFE9E42F9C1}">
   <dimension ref="A1:LL52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CE21" workbookViewId="0">
-      <selection activeCell="CY37" sqref="CY37"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11135,7 +11135,7 @@
         <v>1411</v>
       </c>
       <c r="E30" s="3">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F30" s="3">
         <v>4</v>
